--- a/premise/data/energy/lci-heat.xlsx
+++ b/premise/data/energy/lci-heat.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3D5A1730-9CA2-2444-BB4D-52C36D4E06B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35CBB7FD-5536-B64B-825D-A27B4E73B147}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1900" yWindow="1820" windowWidth="27240" windowHeight="16440" xr2:uid="{B8299F2D-33B8-E148-B485-6429887DEB23}"/>
+    <workbookView xWindow="1180" yWindow="2120" windowWidth="27240" windowHeight="16440" xr2:uid="{B8299F2D-33B8-E148-B485-6429887DEB23}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,11 +35,391 @@
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1171" uniqueCount="120">
+  <si>
+    <t>database</t>
+  </si>
+  <si>
+    <t>heat</t>
+  </si>
+  <si>
+    <t>Activity</t>
+  </si>
+  <si>
+    <t>location</t>
+  </si>
+  <si>
+    <t>production amount</t>
+  </si>
+  <si>
+    <t>reference product</t>
+  </si>
+  <si>
+    <t>type</t>
+  </si>
+  <si>
+    <t>process</t>
+  </si>
+  <si>
+    <t>unit</t>
+  </si>
+  <si>
+    <t>kilogram</t>
+  </si>
+  <si>
+    <t>Exchanges</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>categories</t>
+  </si>
+  <si>
+    <t>air::urban air close to ground</t>
+  </si>
+  <si>
+    <t>biosphere</t>
+  </si>
+  <si>
+    <t>soft wood chips from forest, burned in furnace 1000kW</t>
+  </si>
+  <si>
+    <t>megajoule</t>
+  </si>
+  <si>
+    <t>RER</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>heat production, softwood chips from forest, at furnace 1000kW</t>
+  </si>
+  <si>
+    <t>heat, district or industrial, other than natural gas</t>
+  </si>
+  <si>
+    <t>CH</t>
+  </si>
+  <si>
+    <t>technosphere</t>
+  </si>
+  <si>
+    <t>heat production, from hydrogen-fired one gigawatt gas turbine</t>
+  </si>
+  <si>
+    <t>hard coal, burned in hard coal industrial furnace 1-10MW</t>
+  </si>
+  <si>
+    <t>heat production, at hard coal industrial furnace 1-10MW</t>
+  </si>
+  <si>
+    <t>Europe without Switzerland</t>
+  </si>
+  <si>
+    <t>light fuel oil, burned in industrial furnace 1MW</t>
+  </si>
+  <si>
+    <t>heat production, light fuel oil, at industrial furnace 1MW</t>
+  </si>
+  <si>
+    <t>heat, residential, by combustion of methanol using boiler, distributed by truck, produced with biomass</t>
+  </si>
+  <si>
+    <t>heat, from residential heating system</t>
+  </si>
+  <si>
+    <t>methanol from biomass, burned in residential boiler</t>
+  </si>
+  <si>
+    <t>wood pellet, burned in residential stove 9kW</t>
+  </si>
+  <si>
+    <t>hydrogen, burned in gas turbine 1GW</t>
+  </si>
+  <si>
+    <t>hydrogen, burned in residential boiler</t>
+  </si>
+  <si>
+    <t>methanol from coal, burned in residential boiler</t>
+  </si>
+  <si>
+    <t>heat, residential, by combustion of methanol using boiler, distributed by truck, produced with coal</t>
+  </si>
+  <si>
+    <t>hard coal briquettes, burned in stove 5-15kW</t>
+  </si>
+  <si>
+    <t>heat production, hard coal briquette, stove 5-15kW</t>
+  </si>
+  <si>
+    <t>heat, central or small-scale, other than natural gas</t>
+  </si>
+  <si>
+    <t>light fuel oil, burned in residential boiler 10kW</t>
+  </si>
+  <si>
+    <t>heat production, light fuel oil, at boiler 10kW condensing, non-modulating</t>
+  </si>
+  <si>
+    <t>propane, burned in industrial furnace &gt;100kW</t>
+  </si>
+  <si>
+    <t>heat production, propane, at industrial furnace &gt;100kW</t>
+  </si>
+  <si>
+    <t>market for diesel, low-sulfur</t>
+  </si>
+  <si>
+    <t>diesel, low-sulfur</t>
+  </si>
+  <si>
+    <t>Acetaldehyde</t>
+  </si>
+  <si>
+    <t>Acetone</t>
+  </si>
+  <si>
+    <t>Acrolein</t>
+  </si>
+  <si>
+    <t>Ammonia</t>
+  </si>
+  <si>
+    <t>Benzaldehyde</t>
+  </si>
+  <si>
+    <t>Benzene</t>
+  </si>
+  <si>
+    <t>Butane</t>
+  </si>
+  <si>
+    <t>Cadmium II</t>
+  </si>
+  <si>
+    <t>Carbon dioxide, fossil</t>
+  </si>
+  <si>
+    <t>Carbon monoxide, fossil</t>
+  </si>
+  <si>
+    <t>Chromium III</t>
+  </si>
+  <si>
+    <t>Chromium VI</t>
+  </si>
+  <si>
+    <t>Copper ion</t>
+  </si>
+  <si>
+    <t>Cyclohexane (for all cycloalkanes)</t>
+  </si>
+  <si>
+    <t>Dinitrogen monoxide</t>
+  </si>
+  <si>
+    <t>Ethane</t>
+  </si>
+  <si>
+    <t>Ethylene oxide</t>
+  </si>
+  <si>
+    <t>Formaldehyde</t>
+  </si>
+  <si>
+    <t>Heptane</t>
+  </si>
+  <si>
+    <t>Lead II</t>
+  </si>
+  <si>
+    <t>Mercury II</t>
+  </si>
+  <si>
+    <t>Methane, fossil</t>
+  </si>
+  <si>
+    <t>Methyl ethyl ketone</t>
+  </si>
+  <si>
+    <t>NMVOC, non-methane volatile organic compounds</t>
+  </si>
+  <si>
+    <t>Nickel II</t>
+  </si>
+  <si>
+    <t>Nitrogen oxides</t>
+  </si>
+  <si>
+    <t>PAH, polycyclic aromatic hydrocarbons</t>
+  </si>
+  <si>
+    <t>Particulate Matter, &lt; 2.5 um</t>
+  </si>
+  <si>
+    <t>Pentane</t>
+  </si>
+  <si>
+    <t>Propane</t>
+  </si>
+  <si>
+    <t>Propylene oxide</t>
+  </si>
+  <si>
+    <t>Selenium IV</t>
+  </si>
+  <si>
+    <t>Styrene</t>
+  </si>
+  <si>
+    <t>Sulfur dioxide</t>
+  </si>
+  <si>
+    <t>Toluene</t>
+  </si>
+  <si>
+    <t>Zinc II</t>
+  </si>
+  <si>
+    <t>m-Xylene</t>
+  </si>
+  <si>
+    <t>o-Xylene</t>
+  </si>
+  <si>
+    <t>market for petrol, low-sulfur</t>
+  </si>
+  <si>
+    <t>petrol, low-sulfur</t>
+  </si>
+  <si>
+    <t>1-Pentene</t>
+  </si>
+  <si>
+    <t>2-Methylpentane</t>
+  </si>
+  <si>
+    <t>Ethylene</t>
+  </si>
+  <si>
+    <t>Hexane</t>
+  </si>
+  <si>
+    <t>Propene</t>
+  </si>
+  <si>
+    <t>diesel, burned in passenger car</t>
+  </si>
+  <si>
+    <t>petrol, burned in passenger car</t>
+  </si>
+  <si>
+    <t>diesel, burned in heavy-duty vehicle</t>
+  </si>
+  <si>
+    <t>Arsenic ion</t>
+  </si>
+  <si>
+    <t>compressed gas, burned in passenger car</t>
+  </si>
+  <si>
+    <t>market group for natural gas, high pressure</t>
+  </si>
+  <si>
+    <t>natural gas, high pressure</t>
+  </si>
+  <si>
+    <t>cubic meter</t>
+  </si>
+  <si>
+    <t>kerosene, burned in aircraft</t>
+  </si>
+  <si>
+    <t>market for kerosene</t>
+  </si>
+  <si>
+    <t>kerosene</t>
+  </si>
+  <si>
+    <t>Water</t>
+  </si>
+  <si>
+    <t>air::lower stratosphere + upper troposphere</t>
+  </si>
+  <si>
+    <t>air::non-urban air or from high stacks</t>
+  </si>
+  <si>
+    <t>heavy fuel oil, burned in container ship</t>
+  </si>
+  <si>
+    <t>market for heavy fuel oil</t>
+  </si>
+  <si>
+    <t>technology</t>
+  </si>
+  <si>
+    <t>heavy fuel oil</t>
+  </si>
+  <si>
+    <t>Dioxins, measured as 2,3,7,8-tetrachlorodibenzo-p-dioxin</t>
+  </si>
+  <si>
+    <t>Hydrochloric acid</t>
+  </si>
+  <si>
+    <t>Hydrogen fluoride</t>
+  </si>
+  <si>
+    <t>Particulate Matter, &gt; 10 um</t>
+  </si>
+  <si>
+    <t>Particulate Matter, &gt; 2.5 um and &lt; 10um</t>
+  </si>
+  <si>
+    <t>Fungicides, unspecified</t>
+  </si>
+  <si>
+    <t>Hydrocarbons, unspecified</t>
+  </si>
+  <si>
+    <t>Thiocyanate</t>
+  </si>
+  <si>
+    <t>Tributyltin compounds</t>
+  </si>
+  <si>
+    <t>water::ocean</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -66,8 +446,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -382,12 +765,6716 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F0C42E2-D17A-554B-A2D9-4F73B84316EE}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:L375"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A330" workbookViewId="0">
+      <selection activeCell="G359" sqref="G359"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="35" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="2"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A9" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="str">
+        <f>B3</f>
+        <v>soft wood chips from forest, burned in furnace 1000kW</v>
+      </c>
+      <c r="B11" s="2">
+        <v>1</v>
+      </c>
+      <c r="C11" s="2" t="str">
+        <f>B4</f>
+        <v>RER</v>
+      </c>
+      <c r="D11" s="2" t="str">
+        <f>B8</f>
+        <v>megajoule</v>
+      </c>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G11" s="2" t="str">
+        <f>B6</f>
+        <v>heat</v>
+      </c>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12">
+        <f>1/(0.069808*19.1)</f>
+        <v>0.75000030000011997</v>
+      </c>
+      <c r="C12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F12" t="s">
+        <v>23</v>
+      </c>
+      <c r="G12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="2"/>
+      <c r="G15" s="2"/>
+      <c r="H15" s="2"/>
+      <c r="I15" s="2"/>
+      <c r="J15" s="2"/>
+      <c r="K15" s="2"/>
+      <c r="L15" s="2"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B16" s="2">
+        <v>1</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" s="2"/>
+      <c r="E16" s="2"/>
+      <c r="F16" s="2"/>
+      <c r="G16" s="2"/>
+      <c r="H16" s="2"/>
+      <c r="I16" s="2"/>
+      <c r="J16" s="2"/>
+      <c r="K16" s="2"/>
+      <c r="L16" s="2"/>
+    </row>
+    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="2"/>
+      <c r="D17" s="2"/>
+      <c r="E17" s="2"/>
+      <c r="F17" s="2"/>
+      <c r="G17" s="2"/>
+      <c r="H17" s="2"/>
+      <c r="I17" s="2"/>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C18" s="2"/>
+      <c r="D18" s="2"/>
+      <c r="E18" s="2"/>
+      <c r="F18" s="2"/>
+      <c r="G18" s="2"/>
+      <c r="H18" s="2"/>
+      <c r="I18" s="2"/>
+      <c r="J18" s="2"/>
+      <c r="K18" s="2"/>
+      <c r="L18" s="2"/>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" s="2"/>
+      <c r="E19" s="2"/>
+      <c r="F19" s="2"/>
+      <c r="G19" s="2"/>
+      <c r="H19" s="2"/>
+      <c r="I19" s="2"/>
+      <c r="J19" s="2"/>
+      <c r="K19" s="2"/>
+      <c r="L19" s="2"/>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A20" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B20" s="2"/>
+      <c r="C20" s="2"/>
+      <c r="D20" s="2"/>
+      <c r="E20" s="2"/>
+      <c r="F20" s="2"/>
+      <c r="G20" s="2"/>
+      <c r="H20" s="2"/>
+      <c r="I20" s="2"/>
+      <c r="J20" s="2"/>
+      <c r="K20" s="2"/>
+      <c r="L20" s="2"/>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H21" s="2"/>
+      <c r="I21" s="2"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="2"/>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A22" s="2" t="str">
+        <f>B14</f>
+        <v>wood pellet, burned in residential stove 9kW</v>
+      </c>
+      <c r="B22" s="2">
+        <v>1</v>
+      </c>
+      <c r="C22" s="2" t="str">
+        <f>B15</f>
+        <v>RER</v>
+      </c>
+      <c r="D22" s="2" t="str">
+        <f>B19</f>
+        <v>megajoule</v>
+      </c>
+      <c r="E22" s="2"/>
+      <c r="F22" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G22" s="2" t="str">
+        <f>B17</f>
+        <v>heat</v>
+      </c>
+      <c r="H22" s="2"/>
+      <c r="I22" s="2"/>
+      <c r="J22" s="2"/>
+      <c r="K22" s="2"/>
+      <c r="L22" s="2"/>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A23" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B23">
+        <f>1/(0.076236*19.1)</f>
+        <v>0.68676243431460693</v>
+      </c>
+      <c r="C23" t="s">
+        <v>22</v>
+      </c>
+      <c r="D23" t="s">
+        <v>17</v>
+      </c>
+      <c r="F23" t="s">
+        <v>23</v>
+      </c>
+      <c r="G23" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C25" s="2"/>
+      <c r="D25" s="2"/>
+      <c r="E25" s="2"/>
+      <c r="F25" s="2"/>
+      <c r="G25" s="2"/>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A26" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C26" s="2"/>
+      <c r="D26" s="2"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="2"/>
+      <c r="G26" s="2"/>
+      <c r="H26" s="2"/>
+      <c r="I26" s="2"/>
+      <c r="J26" s="2"/>
+      <c r="K26" s="2"/>
+      <c r="L26" s="2"/>
+    </row>
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A27" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B27" s="2">
+        <v>1</v>
+      </c>
+      <c r="C27" s="2"/>
+      <c r="D27" s="2"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="2"/>
+      <c r="G27" s="2"/>
+      <c r="H27" s="2"/>
+      <c r="I27" s="2"/>
+      <c r="J27" s="2"/>
+      <c r="K27" s="2"/>
+      <c r="L27" s="2"/>
+    </row>
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A28" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28" s="2"/>
+      <c r="D28" s="2"/>
+      <c r="E28" s="2"/>
+      <c r="F28" s="2"/>
+      <c r="G28" s="2"/>
+      <c r="H28" s="2"/>
+      <c r="I28" s="2"/>
+      <c r="J28" s="2"/>
+    </row>
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A29" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C29" s="2"/>
+      <c r="D29" s="2"/>
+      <c r="E29" s="2"/>
+      <c r="F29" s="2"/>
+      <c r="G29" s="2"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="2"/>
+      <c r="J29" s="2"/>
+      <c r="K29" s="2"/>
+      <c r="L29" s="2"/>
+    </row>
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A30" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C30" s="2"/>
+      <c r="D30" s="2"/>
+      <c r="E30" s="2"/>
+      <c r="F30" s="2"/>
+      <c r="G30" s="2"/>
+      <c r="H30" s="2"/>
+      <c r="I30" s="2"/>
+      <c r="J30" s="2"/>
+      <c r="K30" s="2"/>
+      <c r="L30" s="2"/>
+    </row>
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+      <c r="D31" s="2"/>
+      <c r="E31" s="2"/>
+      <c r="F31" s="2"/>
+      <c r="G31" s="2"/>
+      <c r="H31" s="2"/>
+      <c r="I31" s="2"/>
+      <c r="J31" s="2"/>
+      <c r="K31" s="2"/>
+      <c r="L31" s="2"/>
+    </row>
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H32" s="2"/>
+      <c r="I32" s="2"/>
+      <c r="J32" s="2"/>
+      <c r="K32" s="2"/>
+    </row>
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A33" s="2" t="str">
+        <f>B25</f>
+        <v>hydrogen, burned in residential boiler</v>
+      </c>
+      <c r="B33" s="2">
+        <v>1</v>
+      </c>
+      <c r="C33" s="2" t="str">
+        <f>B26</f>
+        <v>RER</v>
+      </c>
+      <c r="D33" s="2" t="str">
+        <f>B30</f>
+        <v>megajoule</v>
+      </c>
+      <c r="E33" s="2"/>
+      <c r="F33" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G33" s="2" t="str">
+        <f>B28</f>
+        <v>heat</v>
+      </c>
+      <c r="H33" s="2"/>
+      <c r="I33" s="2"/>
+      <c r="J33" s="2"/>
+      <c r="K33" s="2"/>
+      <c r="L33" s="2"/>
+    </row>
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A34" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B34">
+        <f>1/(0.00755*120)</f>
+        <v>1.1037527593818983</v>
+      </c>
+      <c r="C34" t="s">
+        <v>18</v>
+      </c>
+      <c r="D34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" t="s">
+        <v>23</v>
+      </c>
+      <c r="G34" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A37" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="C37" s="2"/>
+      <c r="D37" s="2"/>
+      <c r="E37" s="2"/>
+      <c r="F37" s="2"/>
+      <c r="G37" s="2"/>
+      <c r="H37" s="2"/>
+    </row>
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C38" s="2"/>
+      <c r="D38" s="2"/>
+      <c r="E38" s="2"/>
+      <c r="F38" s="2"/>
+      <c r="G38" s="2"/>
+      <c r="H38" s="2"/>
+      <c r="I38" s="2"/>
+      <c r="J38" s="2"/>
+      <c r="K38" s="2"/>
+      <c r="L38" s="2"/>
+    </row>
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B39" s="2">
+        <v>1</v>
+      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
+      <c r="E39" s="2"/>
+      <c r="F39" s="2"/>
+      <c r="G39" s="2"/>
+      <c r="H39" s="2"/>
+      <c r="I39" s="2"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="2"/>
+      <c r="L39" s="2"/>
+    </row>
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40" s="2"/>
+      <c r="D40" s="2"/>
+      <c r="E40" s="2"/>
+      <c r="F40" s="2"/>
+      <c r="G40" s="2"/>
+      <c r="H40" s="2"/>
+      <c r="I40" s="2"/>
+      <c r="J40" s="2"/>
+    </row>
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A41" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C41" s="2"/>
+      <c r="D41" s="2"/>
+      <c r="E41" s="2"/>
+      <c r="F41" s="2"/>
+      <c r="G41" s="2"/>
+      <c r="H41" s="2"/>
+      <c r="I41" s="2"/>
+      <c r="J41" s="2"/>
+      <c r="K41" s="2"/>
+      <c r="L41" s="2"/>
+    </row>
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A42" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C42" s="2"/>
+      <c r="D42" s="2"/>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2"/>
+      <c r="G42" s="2"/>
+      <c r="H42" s="2"/>
+      <c r="I42" s="2"/>
+      <c r="J42" s="2"/>
+      <c r="K42" s="2"/>
+      <c r="L42" s="2"/>
+    </row>
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+      <c r="D43" s="2"/>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2"/>
+      <c r="G43" s="2"/>
+      <c r="H43" s="2"/>
+      <c r="I43" s="2"/>
+      <c r="J43" s="2"/>
+      <c r="K43" s="2"/>
+      <c r="L43" s="2"/>
+    </row>
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E44" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H44" s="2"/>
+      <c r="I44" s="2"/>
+      <c r="J44" s="2"/>
+      <c r="K44" s="2"/>
+    </row>
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A45" s="2" t="str">
+        <f>B37</f>
+        <v>hydrogen, burned in gas turbine 1GW</v>
+      </c>
+      <c r="B45" s="2">
+        <v>1</v>
+      </c>
+      <c r="C45" s="2" t="str">
+        <f>B38</f>
+        <v>RER</v>
+      </c>
+      <c r="D45" s="2" t="str">
+        <f>B42</f>
+        <v>megajoule</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G45" s="2" t="str">
+        <f>B40</f>
+        <v>heat</v>
+      </c>
+      <c r="H45" s="2"/>
+      <c r="I45" s="2"/>
+      <c r="J45" s="2"/>
+      <c r="K45" s="2"/>
+      <c r="L45" s="2"/>
+    </row>
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A46" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B46">
+        <f>1/(0.00877*120)</f>
+        <v>0.9502090459901178</v>
+      </c>
+      <c r="C46" t="s">
+        <v>18</v>
+      </c>
+      <c r="D46" t="s">
+        <v>17</v>
+      </c>
+      <c r="F46" t="s">
+        <v>23</v>
+      </c>
+      <c r="G46" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C48" s="2"/>
+      <c r="D48" s="2"/>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2"/>
+      <c r="G48" s="2"/>
+      <c r="H48" s="2"/>
+    </row>
+    <row r="49" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A49" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C49" s="2"/>
+      <c r="D49" s="2"/>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2"/>
+      <c r="G49" s="2"/>
+      <c r="H49" s="2"/>
+      <c r="I49" s="2"/>
+      <c r="J49" s="2"/>
+      <c r="K49" s="2"/>
+      <c r="L49" s="2"/>
+    </row>
+    <row r="50" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A50" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B50" s="2">
+        <v>1</v>
+      </c>
+      <c r="C50" s="2"/>
+      <c r="D50" s="2"/>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2"/>
+      <c r="G50" s="2"/>
+      <c r="H50" s="2"/>
+      <c r="I50" s="2"/>
+      <c r="J50" s="2"/>
+      <c r="K50" s="2"/>
+      <c r="L50" s="2"/>
+    </row>
+    <row r="51" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A51" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51" s="2"/>
+      <c r="D51" s="2"/>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2"/>
+      <c r="G51" s="2"/>
+      <c r="H51" s="2"/>
+      <c r="I51" s="2"/>
+      <c r="J51" s="2"/>
+    </row>
+    <row r="52" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A52" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C52" s="2"/>
+      <c r="D52" s="2"/>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2"/>
+      <c r="G52" s="2"/>
+      <c r="H52" s="2"/>
+      <c r="I52" s="2"/>
+      <c r="J52" s="2"/>
+      <c r="K52" s="2"/>
+      <c r="L52" s="2"/>
+    </row>
+    <row r="53" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C53" s="2"/>
+      <c r="D53" s="2"/>
+      <c r="E53" s="2"/>
+      <c r="F53" s="2"/>
+      <c r="G53" s="2"/>
+      <c r="H53" s="2"/>
+      <c r="I53" s="2"/>
+      <c r="J53" s="2"/>
+      <c r="K53" s="2"/>
+      <c r="L53" s="2"/>
+    </row>
+    <row r="54" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+      <c r="D54" s="2"/>
+      <c r="E54" s="2"/>
+      <c r="F54" s="2"/>
+      <c r="G54" s="2"/>
+      <c r="H54" s="2"/>
+      <c r="I54" s="2"/>
+      <c r="J54" s="2"/>
+      <c r="K54" s="2"/>
+      <c r="L54" s="2"/>
+    </row>
+    <row r="55" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E55" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G55" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H55" s="2"/>
+      <c r="I55" s="2"/>
+      <c r="J55" s="2"/>
+      <c r="K55" s="2"/>
+    </row>
+    <row r="56" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A56" s="2" t="str">
+        <f>B48</f>
+        <v>hard coal, burned in hard coal industrial furnace 1-10MW</v>
+      </c>
+      <c r="B56" s="2">
+        <v>1</v>
+      </c>
+      <c r="C56" s="2" t="str">
+        <f>B49</f>
+        <v>RER</v>
+      </c>
+      <c r="D56" s="2" t="str">
+        <f>B53</f>
+        <v>megajoule</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G56" s="2" t="str">
+        <f>B51</f>
+        <v>heat</v>
+      </c>
+      <c r="H56" s="2"/>
+      <c r="I56" s="2"/>
+      <c r="J56" s="2"/>
+      <c r="K56" s="2"/>
+      <c r="L56" s="2"/>
+    </row>
+    <row r="57" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A57" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B57">
+        <v>0.8</v>
+      </c>
+      <c r="C57" t="s">
+        <v>27</v>
+      </c>
+      <c r="D57" t="s">
+        <v>17</v>
+      </c>
+      <c r="F57" t="s">
+        <v>23</v>
+      </c>
+      <c r="G57" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="59" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59" s="2"/>
+      <c r="D59" s="2"/>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2"/>
+      <c r="G59" s="2"/>
+      <c r="H59" s="2"/>
+    </row>
+    <row r="60" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A60" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C60" s="2"/>
+      <c r="D60" s="2"/>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2"/>
+      <c r="G60" s="2"/>
+      <c r="H60" s="2"/>
+      <c r="I60" s="2"/>
+      <c r="J60" s="2"/>
+      <c r="K60" s="2"/>
+      <c r="L60" s="2"/>
+    </row>
+    <row r="61" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A61" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B61" s="2">
+        <v>1</v>
+      </c>
+      <c r="C61" s="2"/>
+      <c r="D61" s="2"/>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2"/>
+      <c r="G61" s="2"/>
+      <c r="H61" s="2"/>
+      <c r="I61" s="2"/>
+      <c r="J61" s="2"/>
+      <c r="K61" s="2"/>
+      <c r="L61" s="2"/>
+    </row>
+    <row r="62" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A62" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62" s="2"/>
+      <c r="D62" s="2"/>
+      <c r="E62" s="2"/>
+      <c r="F62" s="2"/>
+      <c r="G62" s="2"/>
+      <c r="H62" s="2"/>
+      <c r="I62" s="2"/>
+      <c r="J62" s="2"/>
+    </row>
+    <row r="63" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A63" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C63" s="2"/>
+      <c r="D63" s="2"/>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2"/>
+      <c r="G63" s="2"/>
+      <c r="H63" s="2"/>
+      <c r="I63" s="2"/>
+      <c r="J63" s="2"/>
+      <c r="K63" s="2"/>
+      <c r="L63" s="2"/>
+    </row>
+    <row r="64" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A64" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C64" s="2"/>
+      <c r="D64" s="2"/>
+      <c r="E64" s="2"/>
+      <c r="F64" s="2"/>
+      <c r="G64" s="2"/>
+      <c r="H64" s="2"/>
+      <c r="I64" s="2"/>
+      <c r="J64" s="2"/>
+      <c r="K64" s="2"/>
+      <c r="L64" s="2"/>
+    </row>
+    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+      <c r="D65" s="2"/>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2"/>
+      <c r="G65" s="2"/>
+      <c r="H65" s="2"/>
+      <c r="I65" s="2"/>
+      <c r="J65" s="2"/>
+      <c r="K65" s="2"/>
+      <c r="L65" s="2"/>
+    </row>
+    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A66" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E66" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F66" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G66" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H66" s="2"/>
+      <c r="I66" s="2"/>
+      <c r="J66" s="2"/>
+      <c r="K66" s="2"/>
+    </row>
+    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A67" s="2" t="str">
+        <f>B59</f>
+        <v>hard coal briquettes, burned in stove 5-15kW</v>
+      </c>
+      <c r="B67" s="2">
+        <v>1</v>
+      </c>
+      <c r="C67" s="2" t="str">
+        <f>B60</f>
+        <v>RER</v>
+      </c>
+      <c r="D67" s="2" t="str">
+        <f>B64</f>
+        <v>megajoule</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G67" s="2" t="str">
+        <f>B62</f>
+        <v>heat</v>
+      </c>
+      <c r="H67" s="2"/>
+      <c r="I67" s="2"/>
+      <c r="J67" s="2"/>
+      <c r="K67" s="2"/>
+      <c r="L67" s="2"/>
+    </row>
+    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A68" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B68">
+        <f>1/1.43</f>
+        <v>0.69930069930069938</v>
+      </c>
+      <c r="C68" t="s">
+        <v>27</v>
+      </c>
+      <c r="D68" t="s">
+        <v>17</v>
+      </c>
+      <c r="F68" t="s">
+        <v>23</v>
+      </c>
+      <c r="G68" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C70" s="2"/>
+      <c r="D70" s="2"/>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2"/>
+      <c r="G70" s="2"/>
+      <c r="H70" s="2"/>
+    </row>
+    <row r="71" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A71" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C71" s="2"/>
+      <c r="D71" s="2"/>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2"/>
+      <c r="G71" s="2"/>
+      <c r="H71" s="2"/>
+      <c r="I71" s="2"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+    </row>
+    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A72" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B72" s="2">
+        <v>1</v>
+      </c>
+      <c r="C72" s="2"/>
+      <c r="D72" s="2"/>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2"/>
+      <c r="G72" s="2"/>
+      <c r="H72" s="2"/>
+      <c r="I72" s="2"/>
+      <c r="J72" s="2"/>
+      <c r="K72" s="2"/>
+      <c r="L72" s="2"/>
+    </row>
+    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A73" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73" s="2"/>
+      <c r="D73" s="2"/>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2"/>
+      <c r="G73" s="2"/>
+      <c r="H73" s="2"/>
+      <c r="I73" s="2"/>
+      <c r="J73" s="2"/>
+    </row>
+    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A74" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C74" s="2"/>
+      <c r="D74" s="2"/>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2"/>
+      <c r="G74" s="2"/>
+      <c r="H74" s="2"/>
+      <c r="I74" s="2"/>
+      <c r="J74" s="2"/>
+      <c r="K74" s="2"/>
+      <c r="L74" s="2"/>
+    </row>
+    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A75" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C75" s="2"/>
+      <c r="D75" s="2"/>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2"/>
+      <c r="G75" s="2"/>
+      <c r="H75" s="2"/>
+      <c r="I75" s="2"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="2"/>
+      <c r="L75" s="2"/>
+    </row>
+    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+      <c r="D76" s="2"/>
+      <c r="E76" s="2"/>
+      <c r="F76" s="2"/>
+      <c r="G76" s="2"/>
+      <c r="H76" s="2"/>
+      <c r="I76" s="2"/>
+      <c r="J76" s="2"/>
+      <c r="K76" s="2"/>
+      <c r="L76" s="2"/>
+    </row>
+    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A77" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E77" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F77" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G77" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H77" s="2"/>
+      <c r="I77" s="2"/>
+      <c r="J77" s="2"/>
+      <c r="K77" s="2"/>
+    </row>
+    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A78" s="2" t="str">
+        <f>B70</f>
+        <v>light fuel oil, burned in industrial furnace 1MW</v>
+      </c>
+      <c r="B78" s="2">
+        <v>1</v>
+      </c>
+      <c r="C78" s="2" t="str">
+        <f>B71</f>
+        <v>RER</v>
+      </c>
+      <c r="D78" s="2" t="str">
+        <f>B75</f>
+        <v>megajoule</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G78" s="2" t="str">
+        <f>B73</f>
+        <v>heat</v>
+      </c>
+      <c r="H78" s="2"/>
+      <c r="I78" s="2"/>
+      <c r="J78" s="2"/>
+      <c r="K78" s="2"/>
+      <c r="L78" s="2"/>
+    </row>
+    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A79" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B79">
+        <f>1/(0.024653*40.1)</f>
+        <v>1.0115464998316279</v>
+      </c>
+      <c r="C79" t="s">
+        <v>27</v>
+      </c>
+      <c r="D79" t="s">
+        <v>17</v>
+      </c>
+      <c r="F79" t="s">
+        <v>23</v>
+      </c>
+      <c r="G79" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C81" s="2"/>
+      <c r="D81" s="2"/>
+      <c r="E81" s="2"/>
+      <c r="F81" s="2"/>
+      <c r="G81" s="2"/>
+      <c r="H81" s="2"/>
+    </row>
+    <row r="82" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A82" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C82" s="2"/>
+      <c r="D82" s="2"/>
+      <c r="E82" s="2"/>
+      <c r="F82" s="2"/>
+      <c r="G82" s="2"/>
+      <c r="H82" s="2"/>
+      <c r="I82" s="2"/>
+      <c r="J82" s="2"/>
+      <c r="K82" s="2"/>
+      <c r="L82" s="2"/>
+    </row>
+    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A83" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B83" s="2">
+        <v>1</v>
+      </c>
+      <c r="C83" s="2"/>
+      <c r="D83" s="2"/>
+      <c r="E83" s="2"/>
+      <c r="F83" s="2"/>
+      <c r="G83" s="2"/>
+      <c r="H83" s="2"/>
+      <c r="I83" s="2"/>
+      <c r="J83" s="2"/>
+      <c r="K83" s="2"/>
+      <c r="L83" s="2"/>
+    </row>
+    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A84" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84" s="2"/>
+      <c r="D84" s="2"/>
+      <c r="E84" s="2"/>
+      <c r="F84" s="2"/>
+      <c r="G84" s="2"/>
+      <c r="H84" s="2"/>
+      <c r="I84" s="2"/>
+      <c r="J84" s="2"/>
+    </row>
+    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A85" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C85" s="2"/>
+      <c r="D85" s="2"/>
+      <c r="E85" s="2"/>
+      <c r="F85" s="2"/>
+      <c r="G85" s="2"/>
+      <c r="H85" s="2"/>
+      <c r="I85" s="2"/>
+      <c r="J85" s="2"/>
+      <c r="K85" s="2"/>
+      <c r="L85" s="2"/>
+    </row>
+    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A86" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C86" s="2"/>
+      <c r="D86" s="2"/>
+      <c r="E86" s="2"/>
+      <c r="F86" s="2"/>
+      <c r="G86" s="2"/>
+      <c r="H86" s="2"/>
+      <c r="I86" s="2"/>
+      <c r="J86" s="2"/>
+      <c r="K86" s="2"/>
+      <c r="L86" s="2"/>
+    </row>
+    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+      <c r="D87" s="2"/>
+      <c r="E87" s="2"/>
+      <c r="F87" s="2"/>
+      <c r="G87" s="2"/>
+      <c r="H87" s="2"/>
+      <c r="I87" s="2"/>
+      <c r="J87" s="2"/>
+      <c r="K87" s="2"/>
+      <c r="L87" s="2"/>
+    </row>
+    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A88" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E88" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G88" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H88" s="2"/>
+      <c r="I88" s="2"/>
+      <c r="J88" s="2"/>
+      <c r="K88" s="2"/>
+    </row>
+    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A89" s="2" t="str">
+        <f>B81</f>
+        <v>light fuel oil, burned in residential boiler 10kW</v>
+      </c>
+      <c r="B89" s="2">
+        <v>1</v>
+      </c>
+      <c r="C89" s="2" t="str">
+        <f>B82</f>
+        <v>RER</v>
+      </c>
+      <c r="D89" s="2" t="str">
+        <f>B86</f>
+        <v>megajoule</v>
+      </c>
+      <c r="E89" s="2"/>
+      <c r="F89" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G89" s="2" t="str">
+        <f>B84</f>
+        <v>heat</v>
+      </c>
+      <c r="H89" s="2"/>
+      <c r="I89" s="2"/>
+      <c r="J89" s="2"/>
+      <c r="K89" s="2"/>
+      <c r="L89" s="2"/>
+    </row>
+    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A90" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B90">
+        <f>1/(0.02342*40.1)</f>
+        <v>1.0648017019790403</v>
+      </c>
+      <c r="C90" t="s">
+        <v>27</v>
+      </c>
+      <c r="D90" t="s">
+        <v>17</v>
+      </c>
+      <c r="F90" t="s">
+        <v>23</v>
+      </c>
+      <c r="G90" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="C92" s="2"/>
+      <c r="D92" s="2"/>
+      <c r="E92" s="2"/>
+      <c r="F92" s="2"/>
+      <c r="G92" s="2"/>
+      <c r="H92" s="2"/>
+    </row>
+    <row r="93" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A93" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C93" s="2"/>
+      <c r="D93" s="2"/>
+      <c r="E93" s="2"/>
+      <c r="F93" s="2"/>
+      <c r="G93" s="2"/>
+      <c r="H93" s="2"/>
+      <c r="I93" s="2"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="2"/>
+      <c r="L93" s="2"/>
+    </row>
+    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A94" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B94" s="2">
+        <v>1</v>
+      </c>
+      <c r="C94" s="2"/>
+      <c r="D94" s="2"/>
+      <c r="E94" s="2"/>
+      <c r="F94" s="2"/>
+      <c r="G94" s="2"/>
+      <c r="H94" s="2"/>
+      <c r="I94" s="2"/>
+      <c r="J94" s="2"/>
+      <c r="K94" s="2"/>
+      <c r="L94" s="2"/>
+    </row>
+    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A95" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C95" s="2"/>
+      <c r="D95" s="2"/>
+      <c r="E95" s="2"/>
+      <c r="F95" s="2"/>
+      <c r="G95" s="2"/>
+      <c r="H95" s="2"/>
+      <c r="I95" s="2"/>
+      <c r="J95" s="2"/>
+    </row>
+    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A96" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C96" s="2"/>
+      <c r="D96" s="2"/>
+      <c r="E96" s="2"/>
+      <c r="F96" s="2"/>
+      <c r="G96" s="2"/>
+      <c r="H96" s="2"/>
+      <c r="I96" s="2"/>
+      <c r="J96" s="2"/>
+      <c r="K96" s="2"/>
+      <c r="L96" s="2"/>
+    </row>
+    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A97" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C97" s="2"/>
+      <c r="D97" s="2"/>
+      <c r="E97" s="2"/>
+      <c r="F97" s="2"/>
+      <c r="G97" s="2"/>
+      <c r="H97" s="2"/>
+      <c r="I97" s="2"/>
+      <c r="J97" s="2"/>
+      <c r="K97" s="2"/>
+      <c r="L97" s="2"/>
+    </row>
+    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+      <c r="D98" s="2"/>
+      <c r="E98" s="2"/>
+      <c r="F98" s="2"/>
+      <c r="G98" s="2"/>
+      <c r="H98" s="2"/>
+      <c r="I98" s="2"/>
+      <c r="J98" s="2"/>
+      <c r="K98" s="2"/>
+      <c r="L98" s="2"/>
+    </row>
+    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A99" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C99" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H99" s="2"/>
+      <c r="I99" s="2"/>
+      <c r="J99" s="2"/>
+      <c r="K99" s="2"/>
+    </row>
+    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A100" s="2" t="str">
+        <f>B92</f>
+        <v>propane, burned in industrial furnace &gt;100kW</v>
+      </c>
+      <c r="B100" s="2">
+        <v>1</v>
+      </c>
+      <c r="C100" s="2" t="str">
+        <f>B93</f>
+        <v>RER</v>
+      </c>
+      <c r="D100" s="2" t="str">
+        <f>B97</f>
+        <v>megajoule</v>
+      </c>
+      <c r="E100" s="2"/>
+      <c r="F100" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G100" s="2" t="str">
+        <f>B95</f>
+        <v>heat</v>
+      </c>
+      <c r="H100" s="2"/>
+      <c r="I100" s="2"/>
+      <c r="J100" s="2"/>
+      <c r="K100" s="2"/>
+      <c r="L100" s="2"/>
+    </row>
+    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A101" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B101">
+        <f>1/(0.022657*46.4)</f>
+        <v>0.95121702511060757</v>
+      </c>
+      <c r="C101" t="s">
+        <v>27</v>
+      </c>
+      <c r="D101" t="s">
+        <v>17</v>
+      </c>
+      <c r="F101" t="s">
+        <v>23</v>
+      </c>
+      <c r="G101" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A103" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C103" s="2"/>
+      <c r="D103" s="2"/>
+      <c r="E103" s="2"/>
+      <c r="F103" s="2"/>
+      <c r="G103" s="2"/>
+      <c r="H103" s="2"/>
+    </row>
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A104" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C104" s="2"/>
+      <c r="D104" s="2"/>
+      <c r="E104" s="2"/>
+      <c r="F104" s="2"/>
+      <c r="G104" s="2"/>
+      <c r="H104" s="2"/>
+      <c r="I104" s="2"/>
+      <c r="J104" s="2"/>
+      <c r="K104" s="2"/>
+      <c r="L104" s="2"/>
+    </row>
+    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A105" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B105" s="2">
+        <v>1</v>
+      </c>
+      <c r="C105" s="2"/>
+      <c r="D105" s="2"/>
+      <c r="E105" s="2"/>
+      <c r="F105" s="2"/>
+      <c r="G105" s="2"/>
+      <c r="H105" s="2"/>
+      <c r="I105" s="2"/>
+      <c r="J105" s="2"/>
+      <c r="K105" s="2"/>
+      <c r="L105" s="2"/>
+    </row>
+    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A106" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C106" s="2"/>
+      <c r="D106" s="2"/>
+      <c r="E106" s="2"/>
+      <c r="F106" s="2"/>
+      <c r="G106" s="2"/>
+      <c r="H106" s="2"/>
+      <c r="I106" s="2"/>
+      <c r="J106" s="2"/>
+    </row>
+    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A107" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C107" s="2"/>
+      <c r="D107" s="2"/>
+      <c r="E107" s="2"/>
+      <c r="F107" s="2"/>
+      <c r="G107" s="2"/>
+      <c r="H107" s="2"/>
+      <c r="I107" s="2"/>
+      <c r="J107" s="2"/>
+      <c r="K107" s="2"/>
+      <c r="L107" s="2"/>
+    </row>
+    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A108" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C108" s="2"/>
+      <c r="D108" s="2"/>
+      <c r="E108" s="2"/>
+      <c r="F108" s="2"/>
+      <c r="G108" s="2"/>
+      <c r="H108" s="2"/>
+      <c r="I108" s="2"/>
+      <c r="J108" s="2"/>
+      <c r="K108" s="2"/>
+      <c r="L108" s="2"/>
+    </row>
+    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+      <c r="D109" s="2"/>
+      <c r="E109" s="2"/>
+      <c r="F109" s="2"/>
+      <c r="G109" s="2"/>
+      <c r="H109" s="2"/>
+      <c r="I109" s="2"/>
+      <c r="J109" s="2"/>
+      <c r="K109" s="2"/>
+      <c r="L109" s="2"/>
+    </row>
+    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A110" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E110" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H110" s="2"/>
+      <c r="I110" s="2"/>
+      <c r="J110" s="2"/>
+      <c r="K110" s="2"/>
+    </row>
+    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A111" s="2" t="str">
+        <f>B103</f>
+        <v>methanol from biomass, burned in residential boiler</v>
+      </c>
+      <c r="B111" s="2">
+        <v>1</v>
+      </c>
+      <c r="C111" s="2" t="str">
+        <f>B104</f>
+        <v>RER</v>
+      </c>
+      <c r="D111" s="2" t="str">
+        <f>B108</f>
+        <v>megajoule</v>
+      </c>
+      <c r="E111" s="2"/>
+      <c r="F111" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G111" s="2" t="str">
+        <f>B106</f>
+        <v>heat</v>
+      </c>
+      <c r="H111" s="2"/>
+      <c r="I111" s="2"/>
+      <c r="J111" s="2"/>
+      <c r="K111" s="2"/>
+      <c r="L111" s="2"/>
+    </row>
+    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A112" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B112">
+        <f>1/(0.05556*20)</f>
+        <v>0.89992800575953924</v>
+      </c>
+      <c r="C112" t="s">
+        <v>27</v>
+      </c>
+      <c r="D112" t="s">
+        <v>17</v>
+      </c>
+      <c r="F112" t="s">
+        <v>23</v>
+      </c>
+      <c r="G112" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C114" s="2"/>
+      <c r="D114" s="2"/>
+      <c r="E114" s="2"/>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+      <c r="H114" s="2"/>
+    </row>
+    <row r="115" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A115" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C115" s="2"/>
+      <c r="D115" s="2"/>
+      <c r="E115" s="2"/>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+      <c r="H115" s="2"/>
+      <c r="I115" s="2"/>
+      <c r="J115" s="2"/>
+      <c r="K115" s="2"/>
+      <c r="L115" s="2"/>
+    </row>
+    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A116" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B116" s="2">
+        <v>1</v>
+      </c>
+      <c r="C116" s="2"/>
+      <c r="D116" s="2"/>
+      <c r="E116" s="2"/>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+      <c r="H116" s="2"/>
+      <c r="I116" s="2"/>
+      <c r="J116" s="2"/>
+      <c r="K116" s="2"/>
+      <c r="L116" s="2"/>
+    </row>
+    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A117" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C117" s="2"/>
+      <c r="D117" s="2"/>
+      <c r="E117" s="2"/>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+      <c r="H117" s="2"/>
+      <c r="I117" s="2"/>
+      <c r="J117" s="2"/>
+    </row>
+    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A118" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C118" s="2"/>
+      <c r="D118" s="2"/>
+      <c r="E118" s="2"/>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
+      <c r="H118" s="2"/>
+      <c r="I118" s="2"/>
+      <c r="J118" s="2"/>
+      <c r="K118" s="2"/>
+      <c r="L118" s="2"/>
+    </row>
+    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A119" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C119" s="2"/>
+      <c r="D119" s="2"/>
+      <c r="E119" s="2"/>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+      <c r="H119" s="2"/>
+      <c r="I119" s="2"/>
+      <c r="J119" s="2"/>
+      <c r="K119" s="2"/>
+      <c r="L119" s="2"/>
+    </row>
+    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
+      <c r="D120" s="2"/>
+      <c r="E120" s="2"/>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2"/>
+      <c r="H120" s="2"/>
+      <c r="I120" s="2"/>
+      <c r="J120" s="2"/>
+      <c r="K120" s="2"/>
+      <c r="L120" s="2"/>
+    </row>
+    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A121" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D121" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E121" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G121" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H121" s="2"/>
+      <c r="I121" s="2"/>
+      <c r="J121" s="2"/>
+      <c r="K121" s="2"/>
+    </row>
+    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A122" s="2" t="str">
+        <f>B114</f>
+        <v>methanol from coal, burned in residential boiler</v>
+      </c>
+      <c r="B122" s="2">
+        <v>1</v>
+      </c>
+      <c r="C122" s="2" t="str">
+        <f>B115</f>
+        <v>RER</v>
+      </c>
+      <c r="D122" s="2" t="str">
+        <f>B119</f>
+        <v>megajoule</v>
+      </c>
+      <c r="E122" s="2"/>
+      <c r="F122" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G122" s="2" t="str">
+        <f>B117</f>
+        <v>heat</v>
+      </c>
+      <c r="H122" s="2"/>
+      <c r="I122" s="2"/>
+      <c r="J122" s="2"/>
+      <c r="K122" s="2"/>
+      <c r="L122" s="2"/>
+    </row>
+    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A123" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B123">
+        <f>1/(0.05556*20)</f>
+        <v>0.89992800575953924</v>
+      </c>
+      <c r="C123" t="s">
+        <v>27</v>
+      </c>
+      <c r="D123" t="s">
+        <v>17</v>
+      </c>
+      <c r="F123" t="s">
+        <v>23</v>
+      </c>
+      <c r="G123" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C125" s="2"/>
+      <c r="D125" s="2"/>
+      <c r="E125" s="2"/>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
+      <c r="H125" s="2"/>
+    </row>
+    <row r="126" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A126" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C126" s="2"/>
+      <c r="D126" s="2"/>
+      <c r="E126" s="2"/>
+      <c r="F126" s="2"/>
+      <c r="G126" s="2"/>
+      <c r="H126" s="2"/>
+      <c r="I126" s="2"/>
+      <c r="J126" s="2"/>
+      <c r="K126" s="2"/>
+      <c r="L126" s="2"/>
+    </row>
+    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A127" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B127" s="2">
+        <v>1</v>
+      </c>
+      <c r="C127" s="2"/>
+      <c r="D127" s="2"/>
+      <c r="E127" s="2"/>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
+      <c r="H127" s="2"/>
+      <c r="I127" s="2"/>
+      <c r="J127" s="2"/>
+      <c r="K127" s="2"/>
+      <c r="L127" s="2"/>
+    </row>
+    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A128" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C128" s="2"/>
+      <c r="D128" s="2"/>
+      <c r="E128" s="2"/>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+      <c r="H128" s="2"/>
+      <c r="I128" s="2"/>
+      <c r="J128" s="2"/>
+    </row>
+    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A129" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C129" s="2"/>
+      <c r="D129" s="2"/>
+      <c r="E129" s="2"/>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+      <c r="H129" s="2"/>
+      <c r="I129" s="2"/>
+      <c r="J129" s="2"/>
+      <c r="K129" s="2"/>
+      <c r="L129" s="2"/>
+    </row>
+    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A130" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C130" s="2"/>
+      <c r="D130" s="2"/>
+      <c r="E130" s="2"/>
+      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
+      <c r="H130" s="2"/>
+      <c r="I130" s="2"/>
+      <c r="J130" s="2"/>
+      <c r="K130" s="2"/>
+      <c r="L130" s="2"/>
+    </row>
+    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B131" s="2"/>
+      <c r="C131" s="2"/>
+      <c r="D131" s="2"/>
+      <c r="E131" s="2"/>
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
+      <c r="H131" s="2"/>
+      <c r="I131" s="2"/>
+      <c r="J131" s="2"/>
+      <c r="K131" s="2"/>
+      <c r="L131" s="2"/>
+    </row>
+    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A132" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D132" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E132" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F132" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G132" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H132" s="2"/>
+      <c r="I132" s="2"/>
+      <c r="J132" s="2"/>
+      <c r="K132" s="2"/>
+    </row>
+    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A133" s="2" t="str">
+        <f>B125</f>
+        <v>diesel, burned in passenger car</v>
+      </c>
+      <c r="B133" s="2">
+        <v>1</v>
+      </c>
+      <c r="C133" s="2" t="str">
+        <f>B126</f>
+        <v>RER</v>
+      </c>
+      <c r="D133" s="2" t="str">
+        <f>B130</f>
+        <v>megajoule</v>
+      </c>
+      <c r="E133" s="2"/>
+      <c r="F133" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G133" s="2" t="str">
+        <f>B128</f>
+        <v>heat</v>
+      </c>
+      <c r="H133" s="2"/>
+      <c r="I133" s="2"/>
+      <c r="J133" s="2"/>
+      <c r="K133" s="2"/>
+      <c r="L133" s="2"/>
+    </row>
+    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A134" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B134">
+        <f>1/43</f>
+        <v>2.3255813953488372E-2</v>
+      </c>
+      <c r="C134" t="s">
+        <v>27</v>
+      </c>
+      <c r="D134" t="s">
+        <v>9</v>
+      </c>
+      <c r="F134" t="s">
+        <v>23</v>
+      </c>
+      <c r="G134" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A135" t="s">
+        <v>47</v>
+      </c>
+      <c r="B135" s="3">
+        <v>7.1455665432553858E-7</v>
+      </c>
+      <c r="D135" t="s">
+        <v>9</v>
+      </c>
+      <c r="E135" t="s">
+        <v>14</v>
+      </c>
+      <c r="F135" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H135" s="3"/>
+    </row>
+    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A136" t="s">
+        <v>48</v>
+      </c>
+      <c r="B136" s="3">
+        <v>3.2468920124586623E-7</v>
+      </c>
+      <c r="D136" t="s">
+        <v>9</v>
+      </c>
+      <c r="E136" t="s">
+        <v>14</v>
+      </c>
+      <c r="F136" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H136" s="3"/>
+    </row>
+    <row r="137" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A137" t="s">
+        <v>49</v>
+      </c>
+      <c r="B137" s="3">
+        <v>3.9534349472964383E-7</v>
+      </c>
+      <c r="D137" t="s">
+        <v>9</v>
+      </c>
+      <c r="E137" t="s">
+        <v>14</v>
+      </c>
+      <c r="F137" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H137" s="3"/>
+    </row>
+    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A138" t="s">
+        <v>50</v>
+      </c>
+      <c r="B138" s="3">
+        <v>3.7209280955662761E-7</v>
+      </c>
+      <c r="D138" t="s">
+        <v>9</v>
+      </c>
+      <c r="E138" t="s">
+        <v>14</v>
+      </c>
+      <c r="F138" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H138" s="3"/>
+    </row>
+    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A139" t="s">
+        <v>51</v>
+      </c>
+      <c r="B139" s="3">
+        <v>9.4995966427857817E-8</v>
+      </c>
+      <c r="D139" t="s">
+        <v>9</v>
+      </c>
+      <c r="E139" t="s">
+        <v>14</v>
+      </c>
+      <c r="F139" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H139" s="3"/>
+    </row>
+    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A140" t="s">
+        <v>52</v>
+      </c>
+      <c r="B140" s="3">
+        <v>2.186743705223342E-7</v>
+      </c>
+      <c r="D140" t="s">
+        <v>9</v>
+      </c>
+      <c r="E140" t="s">
+        <v>14</v>
+      </c>
+      <c r="F140" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H140" s="3"/>
+    </row>
+    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A141" t="s">
+        <v>53</v>
+      </c>
+      <c r="B141" s="3">
+        <v>1.2147463123534157E-8</v>
+      </c>
+      <c r="D141" t="s">
+        <v>9</v>
+      </c>
+      <c r="E141" t="s">
+        <v>14</v>
+      </c>
+      <c r="F141" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H141" s="3"/>
+    </row>
+    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A142" t="s">
+        <v>54</v>
+      </c>
+      <c r="B142" s="3">
+        <v>2.3255800597289225E-10</v>
+      </c>
+      <c r="D142" t="s">
+        <v>9</v>
+      </c>
+      <c r="E142" t="s">
+        <v>14</v>
+      </c>
+      <c r="F142" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H142" s="3"/>
+    </row>
+    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A143" t="s">
+        <v>55</v>
+      </c>
+      <c r="B143">
+        <f>B134*3.15</f>
+        <v>7.3255813953488375E-2</v>
+      </c>
+      <c r="D143" t="s">
+        <v>9</v>
+      </c>
+      <c r="E143" t="s">
+        <v>14</v>
+      </c>
+      <c r="F143" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H143" s="3"/>
+    </row>
+    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A144" t="s">
+        <v>56</v>
+      </c>
+      <c r="B144" s="3">
+        <v>2.1069404153243686E-5</v>
+      </c>
+      <c r="D144" t="s">
+        <v>9</v>
+      </c>
+      <c r="E144" t="s">
+        <v>14</v>
+      </c>
+      <c r="F144" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H144" s="3"/>
+    </row>
+    <row r="145" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A145" t="s">
+        <v>57</v>
+      </c>
+      <c r="B145" s="3">
+        <v>1.1627900298644613E-9</v>
+      </c>
+      <c r="D145" t="s">
+        <v>9</v>
+      </c>
+      <c r="E145" t="s">
+        <v>14</v>
+      </c>
+      <c r="F145" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H145" s="3"/>
+    </row>
+    <row r="146" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A146" t="s">
+        <v>58</v>
+      </c>
+      <c r="B146" s="3">
+        <v>2.3255800597289222E-12</v>
+      </c>
+      <c r="D146" t="s">
+        <v>9</v>
+      </c>
+      <c r="E146" t="s">
+        <v>14</v>
+      </c>
+      <c r="F146" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H146" s="3"/>
+    </row>
+    <row r="147" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A147" t="s">
+        <v>59</v>
+      </c>
+      <c r="B147" s="3">
+        <v>3.9534861015391682E-8</v>
+      </c>
+      <c r="D147" t="s">
+        <v>9</v>
+      </c>
+      <c r="E147" t="s">
+        <v>14</v>
+      </c>
+      <c r="F147" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H147" s="3"/>
+    </row>
+    <row r="148" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A148" t="s">
+        <v>60</v>
+      </c>
+      <c r="B148" s="3">
+        <v>7.1789570411210658E-8</v>
+      </c>
+      <c r="D148" t="s">
+        <v>9</v>
+      </c>
+      <c r="E148" t="s">
+        <v>14</v>
+      </c>
+      <c r="F148" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H148" s="3"/>
+    </row>
+    <row r="149" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A149" t="s">
+        <v>61</v>
+      </c>
+      <c r="B149" s="3">
+        <v>1.1627900298644611E-6</v>
+      </c>
+      <c r="D149" t="s">
+        <v>9</v>
+      </c>
+      <c r="E149" t="s">
+        <v>14</v>
+      </c>
+      <c r="F149" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H149" s="3"/>
+    </row>
+    <row r="150" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A150" t="s">
+        <v>62</v>
+      </c>
+      <c r="B150" s="3">
+        <v>3.646242366932188E-8</v>
+      </c>
+      <c r="D150" t="s">
+        <v>9</v>
+      </c>
+      <c r="E150" t="s">
+        <v>14</v>
+      </c>
+      <c r="F150" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H150" s="3"/>
+    </row>
+    <row r="151" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A151" t="s">
+        <v>63</v>
+      </c>
+      <c r="B151" s="3">
+        <v>1.2114072625668476E-6</v>
+      </c>
+      <c r="D151" t="s">
+        <v>9</v>
+      </c>
+      <c r="E151" t="s">
+        <v>14</v>
+      </c>
+      <c r="F151" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H151" s="3"/>
+    </row>
+    <row r="152" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A152" t="s">
+        <v>64</v>
+      </c>
+      <c r="B152" s="3">
+        <v>1.3252688602888143E-6</v>
+      </c>
+      <c r="D152" t="s">
+        <v>9</v>
+      </c>
+      <c r="E152" t="s">
+        <v>14</v>
+      </c>
+      <c r="F152" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H152" s="3"/>
+    </row>
+    <row r="153" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A153" t="s">
+        <v>65</v>
+      </c>
+      <c r="B153" s="3">
+        <v>2.2087814338146904E-8</v>
+      </c>
+      <c r="D153" t="s">
+        <v>9</v>
+      </c>
+      <c r="E153" t="s">
+        <v>14</v>
+      </c>
+      <c r="F153" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H153" s="3"/>
+    </row>
+    <row r="154" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A154" t="s">
+        <v>66</v>
+      </c>
+      <c r="B154" s="3">
+        <v>1.9186035492763611E-15</v>
+      </c>
+      <c r="D154" t="s">
+        <v>9</v>
+      </c>
+      <c r="E154" t="s">
+        <v>14</v>
+      </c>
+      <c r="F154" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H154" s="3"/>
+    </row>
+    <row r="155" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A155" t="s">
+        <v>67</v>
+      </c>
+      <c r="B155" s="3">
+        <v>4.6511601194578451E-13</v>
+      </c>
+      <c r="D155" t="s">
+        <v>9</v>
+      </c>
+      <c r="E155" t="s">
+        <v>14</v>
+      </c>
+      <c r="F155" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H155" s="3"/>
+    </row>
+    <row r="156" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A156" t="s">
+        <v>68</v>
+      </c>
+      <c r="B156" s="3">
+        <v>6.6447090752701953E-7</v>
+      </c>
+      <c r="D156" t="s">
+        <v>9</v>
+      </c>
+      <c r="E156" t="s">
+        <v>14</v>
+      </c>
+      <c r="F156" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H156" s="3"/>
+    </row>
+    <row r="157" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A157" t="s">
+        <v>69</v>
+      </c>
+      <c r="B157" s="3">
+        <v>1.3252688602888143E-7</v>
+      </c>
+      <c r="D157" t="s">
+        <v>9</v>
+      </c>
+      <c r="E157" t="s">
+        <v>14</v>
+      </c>
+      <c r="F157" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H157" s="3"/>
+    </row>
+    <row r="158" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A158" t="s">
+        <v>70</v>
+      </c>
+      <c r="B158" s="3">
+        <v>5.8566933256401625E-6</v>
+      </c>
+      <c r="D158" t="s">
+        <v>9</v>
+      </c>
+      <c r="E158" t="s">
+        <v>14</v>
+      </c>
+      <c r="F158" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H158" s="3"/>
+    </row>
+    <row r="159" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A159" t="s">
+        <v>71</v>
+      </c>
+      <c r="B159" s="3">
+        <v>1.6279060418102458E-9</v>
+      </c>
+      <c r="D159" t="s">
+        <v>9</v>
+      </c>
+      <c r="E159" t="s">
+        <v>14</v>
+      </c>
+      <c r="F159" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H159" s="3"/>
+    </row>
+    <row r="160" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A160" t="s">
+        <v>72</v>
+      </c>
+      <c r="B160">
+        <v>2.2614048584510013E-4</v>
+      </c>
+      <c r="D160" t="s">
+        <v>9</v>
+      </c>
+      <c r="E160" t="s">
+        <v>14</v>
+      </c>
+      <c r="F160" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H160" s="3"/>
+    </row>
+    <row r="161" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A161" t="s">
+        <v>73</v>
+      </c>
+      <c r="B161" s="3">
+        <v>4.2883696301401334E-9</v>
+      </c>
+      <c r="D161" t="s">
+        <v>9</v>
+      </c>
+      <c r="E161" t="s">
+        <v>14</v>
+      </c>
+      <c r="F161" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H161" s="3"/>
+    </row>
+    <row r="162" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A162" t="s">
+        <v>74</v>
+      </c>
+      <c r="B162" s="3">
+        <v>6.3929447213629726E-7</v>
+      </c>
+      <c r="D162" t="s">
+        <v>9</v>
+      </c>
+      <c r="E162" t="s">
+        <v>14</v>
+      </c>
+      <c r="F162" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H162" s="3"/>
+    </row>
+    <row r="163" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A163" t="s">
+        <v>75</v>
+      </c>
+      <c r="B163" s="3">
+        <v>4.417562867629381E-9</v>
+      </c>
+      <c r="D163" t="s">
+        <v>9</v>
+      </c>
+      <c r="E163" t="s">
+        <v>14</v>
+      </c>
+      <c r="F163" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H163" s="3"/>
+    </row>
+    <row r="164" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A164" t="s">
+        <v>76</v>
+      </c>
+      <c r="B164" s="3">
+        <v>1.2147463123534157E-8</v>
+      </c>
+      <c r="D164" t="s">
+        <v>9</v>
+      </c>
+      <c r="E164" t="s">
+        <v>14</v>
+      </c>
+      <c r="F164" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H164" s="3"/>
+    </row>
+    <row r="165" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A165" t="s">
+        <v>77</v>
+      </c>
+      <c r="B165" s="3">
+        <v>3.9768082958024133E-7</v>
+      </c>
+      <c r="D165" t="s">
+        <v>9</v>
+      </c>
+      <c r="E165" t="s">
+        <v>14</v>
+      </c>
+      <c r="F165" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H165" s="3"/>
+    </row>
+    <row r="166" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A166" t="s">
+        <v>78</v>
+      </c>
+      <c r="B166" s="3">
+        <v>2.3255800597289225E-10</v>
+      </c>
+      <c r="D166" t="s">
+        <v>9</v>
+      </c>
+      <c r="E166" t="s">
+        <v>14</v>
+      </c>
+      <c r="F166" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H166" s="3"/>
+    </row>
+    <row r="167" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A167" t="s">
+        <v>79</v>
+      </c>
+      <c r="B167" s="3">
+        <v>4.0869969387591558E-8</v>
+      </c>
+      <c r="D167" t="s">
+        <v>9</v>
+      </c>
+      <c r="E167" t="s">
+        <v>14</v>
+      </c>
+      <c r="F167" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H167" s="3"/>
+    </row>
+    <row r="168" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A168" t="s">
+        <v>80</v>
+      </c>
+      <c r="B168" s="3">
+        <v>4.651160119457845E-7</v>
+      </c>
+      <c r="D168" t="s">
+        <v>9</v>
+      </c>
+      <c r="E168" t="s">
+        <v>14</v>
+      </c>
+      <c r="F168" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H168" s="3"/>
+    </row>
+    <row r="169" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A169" t="s">
+        <v>81</v>
+      </c>
+      <c r="B169" s="3">
+        <v>7.619711612948033E-8</v>
+      </c>
+      <c r="D169" t="s">
+        <v>9</v>
+      </c>
+      <c r="E169" t="s">
+        <v>14</v>
+      </c>
+      <c r="F169" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H169" s="3"/>
+    </row>
+    <row r="170" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A170" t="s">
+        <v>82</v>
+      </c>
+      <c r="B170" s="3">
+        <v>2.3255800597289226E-8</v>
+      </c>
+      <c r="D170" t="s">
+        <v>9</v>
+      </c>
+      <c r="E170" t="s">
+        <v>14</v>
+      </c>
+      <c r="F170" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H170" s="3"/>
+    </row>
+    <row r="171" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A171" t="s">
+        <v>83</v>
+      </c>
+      <c r="B171" s="3">
+        <v>6.7382024692940973E-8</v>
+      </c>
+      <c r="D171" t="s">
+        <v>9</v>
+      </c>
+      <c r="E171" t="s">
+        <v>14</v>
+      </c>
+      <c r="F171" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H171" s="3"/>
+    </row>
+    <row r="172" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A172" t="s">
+        <v>84</v>
+      </c>
+      <c r="B172" s="3">
+        <v>2.9821053643838246E-8</v>
+      </c>
+      <c r="D172" t="s">
+        <v>9</v>
+      </c>
+      <c r="E172" t="s">
+        <v>14</v>
+      </c>
+      <c r="F172" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H172" s="3"/>
+    </row>
+    <row r="173" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="F173" s="2"/>
+      <c r="H173" s="3"/>
+    </row>
+    <row r="174" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A174" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C174" s="2"/>
+      <c r="D174" s="2"/>
+      <c r="E174" s="2"/>
+      <c r="F174" s="2"/>
+      <c r="G174" s="2"/>
+      <c r="H174" s="2"/>
+    </row>
+    <row r="175" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A175" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C175" s="2"/>
+      <c r="D175" s="2"/>
+      <c r="E175" s="2"/>
+      <c r="F175" s="2"/>
+      <c r="G175" s="2"/>
+      <c r="H175" s="2"/>
+      <c r="I175" s="2"/>
+      <c r="J175" s="2"/>
+      <c r="K175" s="2"/>
+      <c r="L175" s="2"/>
+    </row>
+    <row r="176" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A176" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B176" s="2">
+        <v>1</v>
+      </c>
+      <c r="C176" s="2"/>
+      <c r="D176" s="2"/>
+      <c r="E176" s="2"/>
+      <c r="F176" s="2"/>
+      <c r="G176" s="2"/>
+      <c r="H176" s="2"/>
+      <c r="I176" s="2"/>
+      <c r="J176" s="2"/>
+      <c r="K176" s="2"/>
+      <c r="L176" s="2"/>
+    </row>
+    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A177" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C177" s="2"/>
+      <c r="D177" s="2"/>
+      <c r="E177" s="2"/>
+      <c r="F177" s="2"/>
+      <c r="G177" s="2"/>
+      <c r="H177" s="2"/>
+      <c r="I177" s="2"/>
+      <c r="J177" s="2"/>
+    </row>
+    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A178" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C178" s="2"/>
+      <c r="D178" s="2"/>
+      <c r="E178" s="2"/>
+      <c r="F178" s="2"/>
+      <c r="G178" s="2"/>
+      <c r="H178" s="2"/>
+      <c r="I178" s="2"/>
+      <c r="J178" s="2"/>
+      <c r="K178" s="2"/>
+      <c r="L178" s="2"/>
+    </row>
+    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A179" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C179" s="2"/>
+      <c r="D179" s="2"/>
+      <c r="E179" s="2"/>
+      <c r="F179" s="2"/>
+      <c r="G179" s="2"/>
+      <c r="H179" s="2"/>
+      <c r="I179" s="2"/>
+      <c r="J179" s="2"/>
+      <c r="K179" s="2"/>
+      <c r="L179" s="2"/>
+    </row>
+    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A180" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B180" s="2"/>
+      <c r="C180" s="2"/>
+      <c r="D180" s="2"/>
+      <c r="E180" s="2"/>
+      <c r="F180" s="2"/>
+      <c r="G180" s="2"/>
+      <c r="H180" s="2"/>
+      <c r="I180" s="2"/>
+      <c r="J180" s="2"/>
+      <c r="K180" s="2"/>
+      <c r="L180" s="2"/>
+    </row>
+    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A181" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D181" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E181" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F181" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G181" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H181" s="2"/>
+      <c r="I181" s="2"/>
+      <c r="J181" s="2"/>
+      <c r="K181" s="2"/>
+    </row>
+    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A182" s="2" t="str">
+        <f>B174</f>
+        <v>petrol, burned in passenger car</v>
+      </c>
+      <c r="B182" s="2">
+        <v>1</v>
+      </c>
+      <c r="C182" s="2" t="str">
+        <f>B175</f>
+        <v>RER</v>
+      </c>
+      <c r="D182" s="2" t="str">
+        <f>B179</f>
+        <v>megajoule</v>
+      </c>
+      <c r="E182" s="2"/>
+      <c r="F182" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G182" s="2" t="str">
+        <f>B177</f>
+        <v>heat</v>
+      </c>
+      <c r="H182" s="2"/>
+      <c r="I182" s="2"/>
+      <c r="J182" s="2"/>
+      <c r="K182" s="2"/>
+      <c r="L182" s="2"/>
+    </row>
+    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A183" t="s">
+        <v>85</v>
+      </c>
+      <c r="B183">
+        <f>1/42.6</f>
+        <v>2.3474178403755867E-2</v>
+      </c>
+      <c r="C183" t="s">
+        <v>27</v>
+      </c>
+      <c r="D183" t="s">
+        <v>9</v>
+      </c>
+      <c r="F183" t="s">
+        <v>23</v>
+      </c>
+      <c r="G183" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A184" t="s">
+        <v>87</v>
+      </c>
+      <c r="B184" s="3">
+        <v>1.4547114129662022E-7</v>
+      </c>
+      <c r="D184" t="s">
+        <v>9</v>
+      </c>
+      <c r="E184" t="s">
+        <v>14</v>
+      </c>
+      <c r="F184" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H184" s="3"/>
+    </row>
+    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A185" t="s">
+        <v>88</v>
+      </c>
+      <c r="B185" s="3">
+        <v>2.3599288167039204E-6</v>
+      </c>
+      <c r="D185" t="s">
+        <v>9</v>
+      </c>
+      <c r="E185" t="s">
+        <v>14</v>
+      </c>
+      <c r="F185" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H185" s="3"/>
+    </row>
+    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A186" t="s">
+        <v>47</v>
+      </c>
+      <c r="B186" s="3">
+        <v>6.4176573052336623E-8</v>
+      </c>
+      <c r="D186" t="s">
+        <v>9</v>
+      </c>
+      <c r="E186" t="s">
+        <v>14</v>
+      </c>
+      <c r="F186" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H186" s="3"/>
+    </row>
+    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A187" t="s">
+        <v>48</v>
+      </c>
+      <c r="B187" s="3">
+        <v>5.2181249284002014E-8</v>
+      </c>
+      <c r="D187" t="s">
+        <v>9</v>
+      </c>
+      <c r="E187" t="s">
+        <v>14</v>
+      </c>
+      <c r="F187" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H187" s="3"/>
+    </row>
+    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A188" t="s">
+        <v>49</v>
+      </c>
+      <c r="B188" s="3">
+        <v>1.6258913648856724E-8</v>
+      </c>
+      <c r="D188" t="s">
+        <v>9</v>
+      </c>
+      <c r="E188" t="s">
+        <v>14</v>
+      </c>
+      <c r="F188" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H188" s="3"/>
+    </row>
+    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A189" t="s">
+        <v>50</v>
+      </c>
+      <c r="B189" s="3">
+        <v>7.0422535211267627E-7</v>
+      </c>
+      <c r="D189" t="s">
+        <v>9</v>
+      </c>
+      <c r="E189" t="s">
+        <v>14</v>
+      </c>
+      <c r="F189" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H189" s="3"/>
+    </row>
+    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A190" t="s">
+        <v>51</v>
+      </c>
+      <c r="B190" s="3">
+        <v>1.8823431144155847E-8</v>
+      </c>
+      <c r="D190" t="s">
+        <v>9</v>
+      </c>
+      <c r="E190" t="s">
+        <v>14</v>
+      </c>
+      <c r="F190" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H190" s="3"/>
+    </row>
+    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A191" t="s">
+        <v>52</v>
+      </c>
+      <c r="B191" s="3">
+        <v>1.2876677795875375E-6</v>
+      </c>
+      <c r="D191" t="s">
+        <v>9</v>
+      </c>
+      <c r="E191" t="s">
+        <v>14</v>
+      </c>
+      <c r="F191" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H191" s="3"/>
+    </row>
+    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A192" t="s">
+        <v>53</v>
+      </c>
+      <c r="B192" s="3">
+        <v>2.4210190597681178E-6</v>
+      </c>
+      <c r="D192" t="s">
+        <v>9</v>
+      </c>
+      <c r="E192" t="s">
+        <v>14</v>
+      </c>
+      <c r="F192" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H192" s="3"/>
+    </row>
+    <row r="193" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A193" t="s">
+        <v>54</v>
+      </c>
+      <c r="B193" s="3">
+        <v>2.3474178403755876E-10</v>
+      </c>
+      <c r="D193" t="s">
+        <v>9</v>
+      </c>
+      <c r="E193" t="s">
+        <v>14</v>
+      </c>
+      <c r="F193" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H193" s="3"/>
+    </row>
+    <row r="194" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A194" t="s">
+        <v>55</v>
+      </c>
+      <c r="B194">
+        <v>7.4647887323943687E-2</v>
+      </c>
+      <c r="D194" t="s">
+        <v>9</v>
+      </c>
+      <c r="E194" t="s">
+        <v>14</v>
+      </c>
+      <c r="F194" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H194" s="3"/>
+    </row>
+    <row r="195" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A195" t="s">
+        <v>56</v>
+      </c>
+      <c r="B195">
+        <v>1.2822587476495615E-4</v>
+      </c>
+      <c r="D195" t="s">
+        <v>9</v>
+      </c>
+      <c r="E195" t="s">
+        <v>14</v>
+      </c>
+      <c r="F195" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H195" s="3"/>
+    </row>
+    <row r="196" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A196" t="s">
+        <v>57</v>
+      </c>
+      <c r="B196" s="3">
+        <v>1.173708920187794E-9</v>
+      </c>
+      <c r="D196" t="s">
+        <v>9</v>
+      </c>
+      <c r="E196" t="s">
+        <v>14</v>
+      </c>
+      <c r="F196" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H196" s="3"/>
+    </row>
+    <row r="197" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A197" t="s">
+        <v>58</v>
+      </c>
+      <c r="B197" s="3">
+        <v>2.3474178403755881E-12</v>
+      </c>
+      <c r="D197" t="s">
+        <v>9</v>
+      </c>
+      <c r="E197" t="s">
+        <v>14</v>
+      </c>
+      <c r="F197" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H197" s="3"/>
+    </row>
+    <row r="198" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A198" t="s">
+        <v>59</v>
+      </c>
+      <c r="B198" s="3">
+        <v>3.9906103286384993E-8</v>
+      </c>
+      <c r="D198" t="s">
+        <v>9</v>
+      </c>
+      <c r="E198" t="s">
+        <v>14</v>
+      </c>
+      <c r="F198" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H198" s="3"/>
+    </row>
+    <row r="199" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A199" t="s">
+        <v>60</v>
+      </c>
+      <c r="B199" s="3">
+        <v>9.7553481893140337E-8</v>
+      </c>
+      <c r="D199" t="s">
+        <v>9</v>
+      </c>
+      <c r="E199" t="s">
+        <v>14</v>
+      </c>
+      <c r="F199" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H199" s="3"/>
+    </row>
+    <row r="200" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A200" t="s">
+        <v>61</v>
+      </c>
+      <c r="B200" s="3">
+        <v>3.0516431924882642E-6</v>
+      </c>
+      <c r="D200" t="s">
+        <v>9</v>
+      </c>
+      <c r="E200" t="s">
+        <v>14</v>
+      </c>
+      <c r="F200" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H200" s="3"/>
+    </row>
+    <row r="201" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A201" t="s">
+        <v>62</v>
+      </c>
+      <c r="B201" s="3">
+        <v>3.738595604189168E-7</v>
+      </c>
+      <c r="D201" t="s">
+        <v>9</v>
+      </c>
+      <c r="E201" t="s">
+        <v>14</v>
+      </c>
+      <c r="F201" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H201" s="3"/>
+    </row>
+    <row r="202" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A202" t="s">
+        <v>89</v>
+      </c>
+      <c r="B202" s="3">
+        <v>8.4158173387917866E-9</v>
+      </c>
+      <c r="D202" t="s">
+        <v>9</v>
+      </c>
+      <c r="E202" t="s">
+        <v>14</v>
+      </c>
+      <c r="F202" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H202" s="3"/>
+    </row>
+    <row r="203" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A203" t="s">
+        <v>63</v>
+      </c>
+      <c r="B203" s="3">
+        <v>6.2458409966156062E-7</v>
+      </c>
+      <c r="D203" t="s">
+        <v>9</v>
+      </c>
+      <c r="E203" t="s">
+        <v>14</v>
+      </c>
+      <c r="F203" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H203" s="3"/>
+    </row>
+    <row r="204" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A204" t="s">
+        <v>64</v>
+      </c>
+      <c r="B204" s="3">
+        <v>1.4547114129662022E-7</v>
+      </c>
+      <c r="D204" t="s">
+        <v>9</v>
+      </c>
+      <c r="E204" t="s">
+        <v>14</v>
+      </c>
+      <c r="F204" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H204" s="3"/>
+    </row>
+    <row r="205" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A205" t="s">
+        <v>65</v>
+      </c>
+      <c r="B205" s="3">
+        <v>6.3317491509246337E-8</v>
+      </c>
+      <c r="D205" t="s">
+        <v>9</v>
+      </c>
+      <c r="E205" t="s">
+        <v>14</v>
+      </c>
+      <c r="F205" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H205" s="3"/>
+    </row>
+    <row r="206" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A206" t="s">
+        <v>90</v>
+      </c>
+      <c r="B206" s="3">
+        <v>1.3777122524373701E-7</v>
+      </c>
+      <c r="D206" t="s">
+        <v>9</v>
+      </c>
+      <c r="E206" t="s">
+        <v>14</v>
+      </c>
+      <c r="F206" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H206" s="3"/>
+    </row>
+    <row r="207" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A207" t="s">
+        <v>66</v>
+      </c>
+      <c r="B207" s="3">
+        <v>3.5211267605633819E-11</v>
+      </c>
+      <c r="D207" t="s">
+        <v>9</v>
+      </c>
+      <c r="E207" t="s">
+        <v>14</v>
+      </c>
+      <c r="F207" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H207" s="3"/>
+    </row>
+    <row r="208" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A208" t="s">
+        <v>67</v>
+      </c>
+      <c r="B208" s="3">
+        <v>1.6431924882629114E-12</v>
+      </c>
+      <c r="D208" t="s">
+        <v>9</v>
+      </c>
+      <c r="E208" t="s">
+        <v>14</v>
+      </c>
+      <c r="F208" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H208" s="3"/>
+    </row>
+    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A209" t="s">
+        <v>68</v>
+      </c>
+      <c r="B209" s="3">
+        <v>5.7558463387048561E-6</v>
+      </c>
+      <c r="D209" t="s">
+        <v>9</v>
+      </c>
+      <c r="E209" t="s">
+        <v>14</v>
+      </c>
+      <c r="F209" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H209" s="3"/>
+    </row>
+    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A210" t="s">
+        <v>69</v>
+      </c>
+      <c r="B210" s="3">
+        <v>4.2794987979867499E-9</v>
+      </c>
+      <c r="D210" t="s">
+        <v>9</v>
+      </c>
+      <c r="E210" t="s">
+        <v>14</v>
+      </c>
+      <c r="F210" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H210" s="3"/>
+    </row>
+    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A211" t="s">
+        <v>70</v>
+      </c>
+      <c r="B211" s="3">
+        <v>2.1817489411000107E-5</v>
+      </c>
+      <c r="D211" t="s">
+        <v>9</v>
+      </c>
+      <c r="E211" t="s">
+        <v>14</v>
+      </c>
+      <c r="F211" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H211" s="3"/>
+    </row>
+    <row r="212" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A212" t="s">
+        <v>71</v>
+      </c>
+      <c r="B212" s="3">
+        <v>1.6431924882629115E-9</v>
+      </c>
+      <c r="D212" t="s">
+        <v>9</v>
+      </c>
+      <c r="E212" t="s">
+        <v>14</v>
+      </c>
+      <c r="F212" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H212" s="3"/>
+    </row>
+    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A213" t="s">
+        <v>72</v>
+      </c>
+      <c r="B213" s="3">
+        <v>1.0423522722828692E-5</v>
+      </c>
+      <c r="D213" t="s">
+        <v>9</v>
+      </c>
+      <c r="E213" t="s">
+        <v>14</v>
+      </c>
+      <c r="F213" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H213" s="3"/>
+    </row>
+    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A214" t="s">
+        <v>73</v>
+      </c>
+      <c r="B214" s="3">
+        <v>8.1690140845070448E-10</v>
+      </c>
+      <c r="D214" t="s">
+        <v>9</v>
+      </c>
+      <c r="E214" t="s">
+        <v>14</v>
+      </c>
+      <c r="F214" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H214" s="3"/>
+    </row>
+    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A215" t="s">
+        <v>74</v>
+      </c>
+      <c r="B215" s="3">
+        <v>3.3122366161369572E-7</v>
+      </c>
+      <c r="D215" t="s">
+        <v>9</v>
+      </c>
+      <c r="E215" t="s">
+        <v>14</v>
+      </c>
+      <c r="F215" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H215" s="3"/>
+    </row>
+    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A216" t="s">
+        <v>75</v>
+      </c>
+      <c r="B216" s="3">
+        <v>2.7827878429139121E-6</v>
+      </c>
+      <c r="D216" t="s">
+        <v>9</v>
+      </c>
+      <c r="E216" t="s">
+        <v>14</v>
+      </c>
+      <c r="F216" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H216" s="3"/>
+    </row>
+    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A217" t="s">
+        <v>76</v>
+      </c>
+      <c r="B217" s="3">
+        <v>1.789116858072825E-6</v>
+      </c>
+      <c r="D217" t="s">
+        <v>9</v>
+      </c>
+      <c r="E217" t="s">
+        <v>14</v>
+      </c>
+      <c r="F217" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H217" s="3"/>
+    </row>
+    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A218" t="s">
+        <v>91</v>
+      </c>
+      <c r="B218" s="3">
+        <v>4.7122213530248159E-8</v>
+      </c>
+      <c r="D218" t="s">
+        <v>9</v>
+      </c>
+      <c r="E218" t="s">
+        <v>14</v>
+      </c>
+      <c r="F218" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H218" s="3"/>
+    </row>
+    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A219" t="s">
+        <v>77</v>
+      </c>
+      <c r="B219" s="3">
+        <v>3.2676916472359795E-7</v>
+      </c>
+      <c r="D219" t="s">
+        <v>9</v>
+      </c>
+      <c r="E219" t="s">
+        <v>14</v>
+      </c>
+      <c r="F219" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H219" s="3"/>
+    </row>
+    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A220" t="s">
+        <v>78</v>
+      </c>
+      <c r="B220" s="3">
+        <v>2.3474178403755876E-10</v>
+      </c>
+      <c r="D220" t="s">
+        <v>9</v>
+      </c>
+      <c r="E220" t="s">
+        <v>14</v>
+      </c>
+      <c r="F220" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H220" s="3"/>
+    </row>
+    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A221" t="s">
+        <v>79</v>
+      </c>
+      <c r="B221" s="3">
+        <v>8.6417239667896019E-8</v>
+      </c>
+      <c r="D221" t="s">
+        <v>9</v>
+      </c>
+      <c r="E221" t="s">
+        <v>14</v>
+      </c>
+      <c r="F221" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H221" s="3"/>
+    </row>
+    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A222" t="s">
+        <v>80</v>
+      </c>
+      <c r="B222" s="3">
+        <v>4.6948356807511755E-7</v>
+      </c>
+      <c r="D222" t="s">
+        <v>9</v>
+      </c>
+      <c r="E222" t="s">
+        <v>14</v>
+      </c>
+      <c r="F222" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H222" s="3"/>
+    </row>
+    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A223" t="s">
+        <v>81</v>
+      </c>
+      <c r="B223" s="3">
+        <v>2.4137009577343855E-6</v>
+      </c>
+      <c r="D223" t="s">
+        <v>9</v>
+      </c>
+      <c r="E223" t="s">
+        <v>14</v>
+      </c>
+      <c r="F223" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H223" s="3"/>
+    </row>
+    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A224" t="s">
+        <v>82</v>
+      </c>
+      <c r="B224" s="3">
+        <v>2.3474178403755879E-8</v>
+      </c>
+      <c r="D224" t="s">
+        <v>9</v>
+      </c>
+      <c r="E224" t="s">
+        <v>14</v>
+      </c>
+      <c r="F224" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H224" s="3"/>
+    </row>
+    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A225" t="s">
+        <v>83</v>
+      </c>
+      <c r="B225" s="3">
+        <v>1.0417159155842839E-6</v>
+      </c>
+      <c r="D225" t="s">
+        <v>9</v>
+      </c>
+      <c r="E225" t="s">
+        <v>14</v>
+      </c>
+      <c r="F225" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H225" s="3"/>
+    </row>
+    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A226" t="s">
+        <v>84</v>
+      </c>
+      <c r="B226" s="3">
+        <v>2.4967455068997787E-7</v>
+      </c>
+      <c r="D226" t="s">
+        <v>9</v>
+      </c>
+      <c r="E226" t="s">
+        <v>14</v>
+      </c>
+      <c r="F226" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H226" s="3"/>
+    </row>
+    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A228" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C228" s="2"/>
+      <c r="D228" s="2"/>
+      <c r="E228" s="2"/>
+      <c r="F228" s="2"/>
+      <c r="G228" s="2"/>
+      <c r="H228" s="2"/>
+    </row>
+    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A229" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B229" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C229" s="2"/>
+      <c r="D229" s="2"/>
+      <c r="E229" s="2"/>
+      <c r="F229" s="2"/>
+      <c r="G229" s="2"/>
+      <c r="H229" s="2"/>
+      <c r="I229" s="2"/>
+      <c r="J229" s="2"/>
+      <c r="K229" s="2"/>
+      <c r="L229" s="2"/>
+    </row>
+    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A230" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B230" s="2">
+        <v>1</v>
+      </c>
+      <c r="C230" s="2"/>
+      <c r="D230" s="2"/>
+      <c r="E230" s="2"/>
+      <c r="F230" s="2"/>
+      <c r="G230" s="2"/>
+      <c r="H230" s="2"/>
+      <c r="I230" s="2"/>
+      <c r="J230" s="2"/>
+      <c r="K230" s="2"/>
+      <c r="L230" s="2"/>
+    </row>
+    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A231" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B231" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C231" s="2"/>
+      <c r="D231" s="2"/>
+      <c r="E231" s="2"/>
+      <c r="F231" s="2"/>
+      <c r="G231" s="2"/>
+      <c r="H231" s="2"/>
+      <c r="I231" s="2"/>
+      <c r="J231" s="2"/>
+    </row>
+    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A232" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B232" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C232" s="2"/>
+      <c r="D232" s="2"/>
+      <c r="E232" s="2"/>
+      <c r="F232" s="2"/>
+      <c r="G232" s="2"/>
+      <c r="H232" s="2"/>
+      <c r="I232" s="2"/>
+      <c r="J232" s="2"/>
+      <c r="K232" s="2"/>
+      <c r="L232" s="2"/>
+    </row>
+    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A233" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B233" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C233" s="2"/>
+      <c r="D233" s="2"/>
+      <c r="E233" s="2"/>
+      <c r="F233" s="2"/>
+      <c r="G233" s="2"/>
+      <c r="H233" s="2"/>
+      <c r="I233" s="2"/>
+      <c r="J233" s="2"/>
+      <c r="K233" s="2"/>
+      <c r="L233" s="2"/>
+    </row>
+    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A234" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B234" s="2"/>
+      <c r="C234" s="2"/>
+      <c r="D234" s="2"/>
+      <c r="E234" s="2"/>
+      <c r="F234" s="2"/>
+      <c r="G234" s="2"/>
+      <c r="H234" s="2"/>
+      <c r="I234" s="2"/>
+      <c r="J234" s="2"/>
+      <c r="K234" s="2"/>
+      <c r="L234" s="2"/>
+    </row>
+    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A235" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B235" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C235" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D235" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E235" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F235" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G235" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H235" s="2"/>
+      <c r="I235" s="2"/>
+      <c r="J235" s="2"/>
+      <c r="K235" s="2"/>
+    </row>
+    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A236" s="2" t="str">
+        <f>B228</f>
+        <v>diesel, burned in heavy-duty vehicle</v>
+      </c>
+      <c r="B236" s="2">
+        <v>1</v>
+      </c>
+      <c r="C236" s="2" t="str">
+        <f>B229</f>
+        <v>RER</v>
+      </c>
+      <c r="D236" s="2" t="str">
+        <f>B233</f>
+        <v>megajoule</v>
+      </c>
+      <c r="E236" s="2"/>
+      <c r="F236" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G236" s="2" t="str">
+        <f>B231</f>
+        <v>heat</v>
+      </c>
+      <c r="H236" s="2"/>
+      <c r="I236" s="2"/>
+      <c r="J236" s="2"/>
+      <c r="K236" s="2"/>
+      <c r="L236" s="2"/>
+    </row>
+    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A237" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B237">
+        <f>1/43</f>
+        <v>2.3255813953488372E-2</v>
+      </c>
+      <c r="C237" t="s">
+        <v>27</v>
+      </c>
+      <c r="D237" t="s">
+        <v>9</v>
+      </c>
+      <c r="F237" t="s">
+        <v>23</v>
+      </c>
+      <c r="G237" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A238" t="s">
+        <v>47</v>
+      </c>
+      <c r="B238" s="3">
+        <v>9.0891902402005496E-8</v>
+      </c>
+      <c r="D238" t="s">
+        <v>9</v>
+      </c>
+      <c r="E238" t="s">
+        <v>14</v>
+      </c>
+      <c r="F238" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H238" s="3"/>
+      <c r="J238" s="3"/>
+    </row>
+    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A239" t="s">
+        <v>49</v>
+      </c>
+      <c r="B239" s="3">
+        <v>3.5203209464194309E-8</v>
+      </c>
+      <c r="D239" t="s">
+        <v>9</v>
+      </c>
+      <c r="E239" t="s">
+        <v>14</v>
+      </c>
+      <c r="F239" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H239" s="3"/>
+    </row>
+    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A240" t="s">
+        <v>50</v>
+      </c>
+      <c r="B240" s="3">
+        <v>2.2775546498939349E-7</v>
+      </c>
+      <c r="D240" t="s">
+        <v>9</v>
+      </c>
+      <c r="E240" t="s">
+        <v>14</v>
+      </c>
+      <c r="F240" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H240" s="3"/>
+    </row>
+    <row r="241" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A241" t="s">
+        <v>95</v>
+      </c>
+      <c r="B241" s="3">
+        <v>2.3255813953488445E-12</v>
+      </c>
+      <c r="D241" t="s">
+        <v>9</v>
+      </c>
+      <c r="E241" t="s">
+        <v>14</v>
+      </c>
+      <c r="F241" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H241" s="3"/>
+    </row>
+    <row r="242" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A242" t="s">
+        <v>51</v>
+      </c>
+      <c r="B242" s="3">
+        <v>2.7247681901736397E-8</v>
+      </c>
+      <c r="D242" t="s">
+        <v>9</v>
+      </c>
+      <c r="E242" t="s">
+        <v>14</v>
+      </c>
+      <c r="F242" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H242" s="3"/>
+    </row>
+    <row r="243" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A243" t="s">
+        <v>52</v>
+      </c>
+      <c r="B243" s="3">
+        <v>1.3922173234392214E-9</v>
+      </c>
+      <c r="D243" t="s">
+        <v>9</v>
+      </c>
+      <c r="E243" t="s">
+        <v>14</v>
+      </c>
+      <c r="F243" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H243" s="3"/>
+    </row>
+    <row r="244" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A244" t="s">
+        <v>53</v>
+      </c>
+      <c r="B244" s="3">
+        <v>2.9833228359550366E-9</v>
+      </c>
+      <c r="D244" t="s">
+        <v>9</v>
+      </c>
+      <c r="E244" t="s">
+        <v>14</v>
+      </c>
+      <c r="F244" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H244" s="3"/>
+    </row>
+    <row r="245" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A245" t="s">
+        <v>54</v>
+      </c>
+      <c r="B245" s="3">
+        <v>2.0232558139597954E-10</v>
+      </c>
+      <c r="D245" t="s">
+        <v>9</v>
+      </c>
+      <c r="E245" t="s">
+        <v>14</v>
+      </c>
+      <c r="F245" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H245" s="3"/>
+    </row>
+    <row r="246" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A246" t="s">
+        <v>55</v>
+      </c>
+      <c r="B246">
+        <v>6.9708852499276011E-2</v>
+      </c>
+      <c r="D246" t="s">
+        <v>9</v>
+      </c>
+      <c r="E246" t="s">
+        <v>14</v>
+      </c>
+      <c r="F246" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H246" s="3"/>
+      <c r="I246" s="3"/>
+    </row>
+    <row r="247" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A247" t="s">
+        <v>56</v>
+      </c>
+      <c r="B247" s="3">
+        <v>6.3521092350262397E-5</v>
+      </c>
+      <c r="D247" t="s">
+        <v>9</v>
+      </c>
+      <c r="E247" t="s">
+        <v>14</v>
+      </c>
+      <c r="F247" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H247" s="3"/>
+    </row>
+    <row r="248" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A248" t="s">
+        <v>57</v>
+      </c>
+      <c r="B248" s="3">
+        <v>6.9767441860586501E-10</v>
+      </c>
+      <c r="D248" t="s">
+        <v>9</v>
+      </c>
+      <c r="E248" t="s">
+        <v>14</v>
+      </c>
+      <c r="F248" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H248" s="3"/>
+    </row>
+    <row r="249" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A249" t="s">
+        <v>58</v>
+      </c>
+      <c r="B249" s="3">
+        <v>1.3953488372165768E-12</v>
+      </c>
+      <c r="D249" t="s">
+        <v>9</v>
+      </c>
+      <c r="E249" t="s">
+        <v>14</v>
+      </c>
+      <c r="F249" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H249" s="3"/>
+    </row>
+    <row r="250" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A250" t="s">
+        <v>59</v>
+      </c>
+      <c r="B250" s="3">
+        <v>4.9302325581458507E-10</v>
+      </c>
+      <c r="D250" t="s">
+        <v>9</v>
+      </c>
+      <c r="E250" t="s">
+        <v>14</v>
+      </c>
+      <c r="F250" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H250" s="3"/>
+    </row>
+    <row r="251" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A251" t="s">
+        <v>61</v>
+      </c>
+      <c r="B251" s="3">
+        <v>3.7969387682723317E-6</v>
+      </c>
+      <c r="D251" t="s">
+        <v>9</v>
+      </c>
+      <c r="E251" t="s">
+        <v>14</v>
+      </c>
+      <c r="F251" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H251" s="3"/>
+    </row>
+    <row r="252" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A252" t="s">
+        <v>62</v>
+      </c>
+      <c r="B252" s="3">
+        <v>5.966645671897956E-10</v>
+      </c>
+      <c r="D252" t="s">
+        <v>9</v>
+      </c>
+      <c r="E252" t="s">
+        <v>14</v>
+      </c>
+      <c r="F252" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H252" s="3"/>
+    </row>
+    <row r="253" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A253" t="s">
+        <v>64</v>
+      </c>
+      <c r="B253" s="3">
+        <v>1.6706607881343357E-7</v>
+      </c>
+      <c r="D253" t="s">
+        <v>9</v>
+      </c>
+      <c r="E253" t="s">
+        <v>14</v>
+      </c>
+      <c r="F253" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H253" s="3"/>
+    </row>
+    <row r="254" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A254" t="s">
+        <v>65</v>
+      </c>
+      <c r="B254" s="3">
+        <v>5.9666456718979566E-9</v>
+      </c>
+      <c r="D254" t="s">
+        <v>9</v>
+      </c>
+      <c r="E254" t="s">
+        <v>14</v>
+      </c>
+      <c r="F254" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H254" s="3"/>
+    </row>
+    <row r="255" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A255" t="s">
+        <v>66</v>
+      </c>
+      <c r="B255" s="3">
+        <v>1.2116279069793652E-9</v>
+      </c>
+      <c r="D255" t="s">
+        <v>9</v>
+      </c>
+      <c r="E255" t="s">
+        <v>14</v>
+      </c>
+      <c r="F255" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H255" s="3"/>
+    </row>
+    <row r="256" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A256" t="s">
+        <v>67</v>
+      </c>
+      <c r="B256" s="3">
+        <v>1.2325581395334337E-10</v>
+      </c>
+      <c r="D256" t="s">
+        <v>9</v>
+      </c>
+      <c r="E256" t="s">
+        <v>14</v>
+      </c>
+      <c r="F256" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H256" s="3"/>
+    </row>
+    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A257" t="s">
+        <v>68</v>
+      </c>
+      <c r="B257" s="3">
+        <v>4.890693292186907E-8</v>
+      </c>
+      <c r="D257" t="s">
+        <v>9</v>
+      </c>
+      <c r="E257" t="s">
+        <v>14</v>
+      </c>
+      <c r="F257" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H257" s="3"/>
+    </row>
+    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A258" t="s">
+        <v>70</v>
+      </c>
+      <c r="B258" s="3">
+        <v>1.6155687597619975E-6</v>
+      </c>
+      <c r="D258" t="s">
+        <v>9</v>
+      </c>
+      <c r="E258" t="s">
+        <v>14</v>
+      </c>
+      <c r="F258" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H258" s="3"/>
+    </row>
+    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A259" t="s">
+        <v>71</v>
+      </c>
+      <c r="B259" s="3">
+        <v>2.0465116279127991E-10</v>
+      </c>
+      <c r="D259" t="s">
+        <v>9</v>
+      </c>
+      <c r="E259" t="s">
+        <v>14</v>
+      </c>
+      <c r="F259" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H259" s="3"/>
+    </row>
+    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A260" t="s">
+        <v>72</v>
+      </c>
+      <c r="B260" s="3">
+        <v>3.1855518160413698E-5</v>
+      </c>
+      <c r="D260" t="s">
+        <v>9</v>
+      </c>
+      <c r="E260" t="s">
+        <v>14</v>
+      </c>
+      <c r="F260" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H260" s="3"/>
+    </row>
+    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A261" t="s">
+        <v>73</v>
+      </c>
+      <c r="B261" s="3">
+        <v>1.8186046511685154E-9</v>
+      </c>
+      <c r="D261" t="s">
+        <v>9</v>
+      </c>
+      <c r="E261" t="s">
+        <v>14</v>
+      </c>
+      <c r="F261" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H261" s="3"/>
+    </row>
+    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A262" t="s">
+        <v>74</v>
+      </c>
+      <c r="B262" s="3">
+        <v>2.8746541895445575E-7</v>
+      </c>
+      <c r="D262" t="s">
+        <v>9</v>
+      </c>
+      <c r="E262" t="s">
+        <v>14</v>
+      </c>
+      <c r="F262" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H262" s="3"/>
+    </row>
+    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A263" t="s">
+        <v>75</v>
+      </c>
+      <c r="B263" s="3">
+        <v>1.193329134380803E-9</v>
+      </c>
+      <c r="D263" t="s">
+        <v>9</v>
+      </c>
+      <c r="E263" t="s">
+        <v>14</v>
+      </c>
+      <c r="F263" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H263" s="3"/>
+    </row>
+    <row r="264" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A264" t="s">
+        <v>76</v>
+      </c>
+      <c r="B264" s="3">
+        <v>1.9888818906326523E-9</v>
+      </c>
+      <c r="D264" t="s">
+        <v>9</v>
+      </c>
+      <c r="E264" t="s">
+        <v>14</v>
+      </c>
+      <c r="F264" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H264" s="3"/>
+    </row>
+    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A265" t="s">
+        <v>78</v>
+      </c>
+      <c r="B265" s="3">
+        <v>2.3255813953488445E-12</v>
+      </c>
+      <c r="D265" t="s">
+        <v>9</v>
+      </c>
+      <c r="E265" t="s">
+        <v>14</v>
+      </c>
+      <c r="F265" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H265" s="3"/>
+    </row>
+    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A266" t="s">
+        <v>79</v>
+      </c>
+      <c r="B266" s="3">
+        <v>1.1137738587550121E-8</v>
+      </c>
+      <c r="D266" t="s">
+        <v>9</v>
+      </c>
+      <c r="E266" t="s">
+        <v>14</v>
+      </c>
+      <c r="F266" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H266" s="3"/>
+    </row>
+    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A267" t="s">
+        <v>80</v>
+      </c>
+      <c r="B267" s="3">
+        <v>3.7893614887488559E-7</v>
+      </c>
+      <c r="D267" t="s">
+        <v>9</v>
+      </c>
+      <c r="E267" t="s">
+        <v>14</v>
+      </c>
+      <c r="F267" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H267" s="3"/>
+    </row>
+    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A268" t="s">
+        <v>81</v>
+      </c>
+      <c r="B268" s="3">
+        <v>1.9888818906326521E-10</v>
+      </c>
+      <c r="D268" t="s">
+        <v>9</v>
+      </c>
+      <c r="E268" t="s">
+        <v>14</v>
+      </c>
+      <c r="F268" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H268" s="3"/>
+    </row>
+    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A269" t="s">
+        <v>82</v>
+      </c>
+      <c r="B269" s="3">
+        <v>4.04186046512172E-8</v>
+      </c>
+      <c r="D269" t="s">
+        <v>9</v>
+      </c>
+      <c r="E269" t="s">
+        <v>14</v>
+      </c>
+      <c r="F269" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H269" s="3"/>
+    </row>
+    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A270" t="s">
+        <v>83</v>
+      </c>
+      <c r="B270" s="3">
+        <v>1.9491042528173333E-8</v>
+      </c>
+      <c r="D270" t="s">
+        <v>9</v>
+      </c>
+      <c r="E270" t="s">
+        <v>14</v>
+      </c>
+      <c r="F270" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H270" s="3"/>
+    </row>
+    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A271" t="s">
+        <v>84</v>
+      </c>
+      <c r="B271" s="3">
+        <v>7.9555275625427259E-9</v>
+      </c>
+      <c r="D271" t="s">
+        <v>9</v>
+      </c>
+      <c r="E271" t="s">
+        <v>14</v>
+      </c>
+      <c r="F271" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H271" s="3"/>
+    </row>
+    <row r="273" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A273" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C273" s="2"/>
+      <c r="D273" s="2"/>
+      <c r="E273" s="2"/>
+      <c r="F273" s="2"/>
+      <c r="G273" s="2"/>
+      <c r="H273" s="2"/>
+    </row>
+    <row r="274" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A274" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B274" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C274" s="2"/>
+      <c r="D274" s="2"/>
+      <c r="E274" s="2"/>
+      <c r="F274" s="2"/>
+      <c r="G274" s="2"/>
+      <c r="H274" s="2"/>
+      <c r="I274" s="2"/>
+      <c r="J274" s="2"/>
+      <c r="K274" s="2"/>
+      <c r="L274" s="2"/>
+    </row>
+    <row r="275" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A275" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B275" s="2">
+        <v>1</v>
+      </c>
+      <c r="C275" s="2"/>
+      <c r="D275" s="2"/>
+      <c r="E275" s="2"/>
+      <c r="F275" s="2"/>
+      <c r="G275" s="2"/>
+      <c r="H275" s="2"/>
+      <c r="I275" s="2"/>
+      <c r="J275" s="2"/>
+      <c r="K275" s="2"/>
+      <c r="L275" s="2"/>
+    </row>
+    <row r="276" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A276" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B276" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C276" s="2"/>
+      <c r="D276" s="2"/>
+      <c r="E276" s="2"/>
+      <c r="F276" s="2"/>
+      <c r="G276" s="2"/>
+      <c r="H276" s="2"/>
+      <c r="I276" s="2"/>
+      <c r="J276" s="2"/>
+    </row>
+    <row r="277" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A277" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B277" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C277" s="2"/>
+      <c r="D277" s="2"/>
+      <c r="E277" s="2"/>
+      <c r="F277" s="2"/>
+      <c r="G277" s="2"/>
+      <c r="H277" s="2"/>
+      <c r="I277" s="2"/>
+      <c r="J277" s="2"/>
+      <c r="K277" s="2"/>
+      <c r="L277" s="2"/>
+    </row>
+    <row r="278" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A278" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B278" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C278" s="2"/>
+      <c r="D278" s="2"/>
+      <c r="E278" s="2"/>
+      <c r="F278" s="2"/>
+      <c r="G278" s="2"/>
+      <c r="H278" s="2"/>
+      <c r="I278" s="2"/>
+      <c r="J278" s="2"/>
+      <c r="K278" s="2"/>
+      <c r="L278" s="2"/>
+    </row>
+    <row r="279" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A279" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B279" s="2"/>
+      <c r="C279" s="2"/>
+      <c r="D279" s="2"/>
+      <c r="E279" s="2"/>
+      <c r="F279" s="2"/>
+      <c r="G279" s="2"/>
+      <c r="H279" s="2"/>
+      <c r="I279" s="2"/>
+      <c r="J279" s="2"/>
+      <c r="K279" s="2"/>
+      <c r="L279" s="2"/>
+    </row>
+    <row r="280" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A280" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B280" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C280" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D280" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E280" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F280" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G280" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H280" s="2"/>
+      <c r="I280" s="2"/>
+      <c r="J280" s="2"/>
+      <c r="K280" s="2"/>
+    </row>
+    <row r="281" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A281" s="2" t="str">
+        <f>B273</f>
+        <v>compressed gas, burned in passenger car</v>
+      </c>
+      <c r="B281" s="2">
+        <v>1</v>
+      </c>
+      <c r="C281" s="2" t="str">
+        <f>B274</f>
+        <v>RER</v>
+      </c>
+      <c r="D281" s="2" t="str">
+        <f>B278</f>
+        <v>megajoule</v>
+      </c>
+      <c r="E281" s="2"/>
+      <c r="F281" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G281" s="2" t="str">
+        <f>B276</f>
+        <v>heat</v>
+      </c>
+      <c r="H281" s="2"/>
+      <c r="I281" s="2"/>
+      <c r="J281" s="2"/>
+      <c r="K281" s="2"/>
+      <c r="L281" s="2"/>
+    </row>
+    <row r="282" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A282" t="s">
+        <v>97</v>
+      </c>
+      <c r="B282">
+        <f>1/36</f>
+        <v>2.7777777777777776E-2</v>
+      </c>
+      <c r="C282" t="s">
+        <v>27</v>
+      </c>
+      <c r="D282" t="s">
+        <v>99</v>
+      </c>
+      <c r="F282" t="s">
+        <v>23</v>
+      </c>
+      <c r="G282" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="283" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A283" t="s">
+        <v>50</v>
+      </c>
+      <c r="B283" s="3">
+        <v>4.4166666666666577E-6</v>
+      </c>
+      <c r="D283" t="s">
+        <v>9</v>
+      </c>
+      <c r="E283" t="s">
+        <v>14</v>
+      </c>
+      <c r="F283" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H283" s="3"/>
+    </row>
+    <row r="284" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A284" t="s">
+        <v>52</v>
+      </c>
+      <c r="B284" s="3">
+        <v>7.5082705379565517E-7</v>
+      </c>
+      <c r="D284" t="s">
+        <v>9</v>
+      </c>
+      <c r="E284" t="s">
+        <v>14</v>
+      </c>
+      <c r="F284" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H284" s="3"/>
+    </row>
+    <row r="285" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A285" t="s">
+        <v>55</v>
+      </c>
+      <c r="B285">
+        <v>5.5944444444444442E-2</v>
+      </c>
+      <c r="D285" t="s">
+        <v>9</v>
+      </c>
+      <c r="E285" t="s">
+        <v>14</v>
+      </c>
+      <c r="F285" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H285" s="3"/>
+    </row>
+    <row r="286" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A286" t="s">
+        <v>56</v>
+      </c>
+      <c r="B286">
+        <v>2.6360440412565261E-4</v>
+      </c>
+      <c r="D286" t="s">
+        <v>9</v>
+      </c>
+      <c r="E286" t="s">
+        <v>14</v>
+      </c>
+      <c r="F286" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H286" s="3"/>
+    </row>
+    <row r="287" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A287" t="s">
+        <v>61</v>
+      </c>
+      <c r="B287" s="3">
+        <v>9.6666666666666532E-7</v>
+      </c>
+      <c r="D287" t="s">
+        <v>9</v>
+      </c>
+      <c r="E287" t="s">
+        <v>14</v>
+      </c>
+      <c r="F287" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H287" s="3"/>
+    </row>
+    <row r="288" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A288" t="s">
+        <v>67</v>
+      </c>
+      <c r="B288" s="3">
+        <v>2.7750000000000002E-10</v>
+      </c>
+      <c r="D288" t="s">
+        <v>9</v>
+      </c>
+      <c r="E288" t="s">
+        <v>14</v>
+      </c>
+      <c r="F288" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H288" s="3"/>
+    </row>
+    <row r="289" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A289" t="s">
+        <v>68</v>
+      </c>
+      <c r="B289" s="3">
+        <v>1.606690212560312E-5</v>
+      </c>
+      <c r="D289" t="s">
+        <v>9</v>
+      </c>
+      <c r="E289" t="s">
+        <v>14</v>
+      </c>
+      <c r="F289" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H289" s="3"/>
+    </row>
+    <row r="290" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A290" t="s">
+        <v>70</v>
+      </c>
+      <c r="B290" s="3">
+        <v>6.8382126269474045E-6</v>
+      </c>
+      <c r="D290" t="s">
+        <v>9</v>
+      </c>
+      <c r="E290" t="s">
+        <v>14</v>
+      </c>
+      <c r="F290" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H290" s="3"/>
+    </row>
+    <row r="291" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A291" t="s">
+        <v>72</v>
+      </c>
+      <c r="B291" s="3">
+        <v>2.9605693862641999E-6</v>
+      </c>
+      <c r="D291" t="s">
+        <v>9</v>
+      </c>
+      <c r="E291" t="s">
+        <v>14</v>
+      </c>
+      <c r="F291" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H291" s="3"/>
+    </row>
+    <row r="292" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A292" t="s">
+        <v>74</v>
+      </c>
+      <c r="B292" s="3">
+        <v>1.4636237937232238E-7</v>
+      </c>
+      <c r="D292" t="s">
+        <v>9</v>
+      </c>
+      <c r="E292" t="s">
+        <v>14</v>
+      </c>
+      <c r="F292" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H292" s="3"/>
+    </row>
+    <row r="293" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A293" t="s">
+        <v>80</v>
+      </c>
+      <c r="B293" s="3">
+        <v>5.6430000000000142E-7</v>
+      </c>
+      <c r="D293" t="s">
+        <v>9</v>
+      </c>
+      <c r="E293" t="s">
+        <v>14</v>
+      </c>
+      <c r="F293" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H293" s="3"/>
+    </row>
+    <row r="294" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A294" t="s">
+        <v>81</v>
+      </c>
+      <c r="B294" s="3">
+        <v>2.2336471011856279E-6</v>
+      </c>
+      <c r="D294" t="s">
+        <v>9</v>
+      </c>
+      <c r="E294" t="s">
+        <v>14</v>
+      </c>
+      <c r="F294" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H294" s="3"/>
+    </row>
+    <row r="296" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A296" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C296" s="2"/>
+      <c r="D296" s="2"/>
+      <c r="E296" s="2"/>
+      <c r="F296" s="2"/>
+      <c r="G296" s="2"/>
+      <c r="H296" s="2"/>
+    </row>
+    <row r="297" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A297" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B297" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C297" s="2"/>
+      <c r="D297" s="2"/>
+      <c r="E297" s="2"/>
+      <c r="F297" s="2"/>
+      <c r="G297" s="2"/>
+      <c r="H297" s="2"/>
+      <c r="I297" s="2"/>
+      <c r="J297" s="2"/>
+      <c r="K297" s="2"/>
+      <c r="L297" s="2"/>
+    </row>
+    <row r="298" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A298" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B298" s="2">
+        <v>1</v>
+      </c>
+      <c r="C298" s="2"/>
+      <c r="D298" s="2"/>
+      <c r="E298" s="2"/>
+      <c r="F298" s="2"/>
+      <c r="G298" s="2"/>
+      <c r="H298" s="2"/>
+      <c r="I298" s="2"/>
+      <c r="J298" s="2"/>
+      <c r="K298" s="2"/>
+      <c r="L298" s="2"/>
+    </row>
+    <row r="299" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A299" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B299" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C299" s="2"/>
+      <c r="D299" s="2"/>
+      <c r="E299" s="2"/>
+      <c r="F299" s="2"/>
+      <c r="G299" s="2"/>
+      <c r="H299" s="2"/>
+      <c r="I299" s="2"/>
+      <c r="J299" s="2"/>
+    </row>
+    <row r="300" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A300" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B300" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C300" s="2"/>
+      <c r="D300" s="2"/>
+      <c r="E300" s="2"/>
+      <c r="F300" s="2"/>
+      <c r="G300" s="2"/>
+      <c r="H300" s="2"/>
+      <c r="I300" s="2"/>
+      <c r="J300" s="2"/>
+      <c r="K300" s="2"/>
+      <c r="L300" s="2"/>
+    </row>
+    <row r="301" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A301" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B301" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C301" s="2"/>
+      <c r="D301" s="2"/>
+      <c r="E301" s="2"/>
+      <c r="F301" s="2"/>
+      <c r="G301" s="2"/>
+      <c r="H301" s="2"/>
+      <c r="I301" s="2"/>
+      <c r="J301" s="2"/>
+      <c r="K301" s="2"/>
+      <c r="L301" s="2"/>
+    </row>
+    <row r="302" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A302" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B302" s="2"/>
+      <c r="C302" s="2"/>
+      <c r="D302" s="2"/>
+      <c r="E302" s="2"/>
+      <c r="F302" s="2"/>
+      <c r="G302" s="2"/>
+      <c r="H302" s="2"/>
+      <c r="I302" s="2"/>
+      <c r="J302" s="2"/>
+      <c r="K302" s="2"/>
+      <c r="L302" s="2"/>
+    </row>
+    <row r="303" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A303" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B303" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C303" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D303" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E303" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F303" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G303" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H303" s="2"/>
+      <c r="I303" s="2"/>
+      <c r="J303" s="2"/>
+      <c r="K303" s="2"/>
+    </row>
+    <row r="304" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A304" s="2" t="str">
+        <f>B296</f>
+        <v>kerosene, burned in aircraft</v>
+      </c>
+      <c r="B304" s="2">
+        <v>1</v>
+      </c>
+      <c r="C304" s="2" t="str">
+        <f>B297</f>
+        <v>RER</v>
+      </c>
+      <c r="D304" s="2" t="str">
+        <f>B301</f>
+        <v>megajoule</v>
+      </c>
+      <c r="E304" s="2"/>
+      <c r="F304" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G304" s="2" t="str">
+        <f>B299</f>
+        <v>heat</v>
+      </c>
+      <c r="H304" s="2"/>
+      <c r="I304" s="2"/>
+      <c r="J304" s="2"/>
+      <c r="K304" s="2"/>
+      <c r="L304" s="2"/>
+    </row>
+    <row r="305" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A305" t="s">
+        <v>101</v>
+      </c>
+      <c r="B305">
+        <f>1/43</f>
+        <v>2.3255813953488372E-2</v>
+      </c>
+      <c r="C305" t="s">
+        <v>27</v>
+      </c>
+      <c r="D305" t="s">
+        <v>9</v>
+      </c>
+      <c r="F305" t="s">
+        <v>23</v>
+      </c>
+      <c r="G305" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="306" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>54</v>
+      </c>
+      <c r="B306" s="3">
+        <v>2.1198518564846293E-10</v>
+      </c>
+      <c r="D306" t="s">
+        <v>9</v>
+      </c>
+      <c r="E306" t="s">
+        <v>104</v>
+      </c>
+      <c r="F306" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H306" s="3"/>
+    </row>
+    <row r="307" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>54</v>
+      </c>
+      <c r="B307" s="3">
+        <v>2.0573376279857471E-11</v>
+      </c>
+      <c r="D307" t="s">
+        <v>9</v>
+      </c>
+      <c r="E307" t="s">
+        <v>105</v>
+      </c>
+      <c r="F307" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H307" s="3"/>
+    </row>
+    <row r="308" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A308" t="s">
+        <v>55</v>
+      </c>
+      <c r="B308">
+        <v>6.6068583902493483E-2</v>
+      </c>
+      <c r="D308" t="s">
+        <v>9</v>
+      </c>
+      <c r="E308" t="s">
+        <v>104</v>
+      </c>
+      <c r="F308" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H308" s="3"/>
+    </row>
+    <row r="309" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A309" t="s">
+        <v>55</v>
+      </c>
+      <c r="B309">
+        <v>6.4120361938797945E-3</v>
+      </c>
+      <c r="D309" t="s">
+        <v>9</v>
+      </c>
+      <c r="E309" t="s">
+        <v>105</v>
+      </c>
+      <c r="F309" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H309" s="3"/>
+    </row>
+    <row r="310" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A310" t="s">
+        <v>56</v>
+      </c>
+      <c r="B310" s="3">
+        <v>4.9620580872355555E-5</v>
+      </c>
+      <c r="D310" t="s">
+        <v>9</v>
+      </c>
+      <c r="E310" t="s">
+        <v>104</v>
+      </c>
+      <c r="F310" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H310" s="3"/>
+    </row>
+    <row r="311" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A311" t="s">
+        <v>56</v>
+      </c>
+      <c r="B311" s="3">
+        <v>4.8157339611827094E-6</v>
+      </c>
+      <c r="D311" t="s">
+        <v>9</v>
+      </c>
+      <c r="E311" t="s">
+        <v>105</v>
+      </c>
+      <c r="F311" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H311" s="3"/>
+    </row>
+    <row r="312" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A312" t="s">
+        <v>57</v>
+      </c>
+      <c r="B312" s="3">
+        <v>1.0599259282423148E-9</v>
+      </c>
+      <c r="D312" t="s">
+        <v>9</v>
+      </c>
+      <c r="E312" t="s">
+        <v>104</v>
+      </c>
+      <c r="F312" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H312" s="3"/>
+    </row>
+    <row r="313" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A313" t="s">
+        <v>57</v>
+      </c>
+      <c r="B313" s="3">
+        <v>1.0286688139928735E-10</v>
+      </c>
+      <c r="D313" t="s">
+        <v>9</v>
+      </c>
+      <c r="E313" t="s">
+        <v>105</v>
+      </c>
+      <c r="F313" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H313" s="3"/>
+    </row>
+    <row r="314" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A314" t="s">
+        <v>59</v>
+      </c>
+      <c r="B314" s="3">
+        <v>3.6037375961879753E-8</v>
+      </c>
+      <c r="D314" t="s">
+        <v>9</v>
+      </c>
+      <c r="E314" t="s">
+        <v>104</v>
+      </c>
+      <c r="F314" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H314" s="3"/>
+    </row>
+    <row r="315" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A315" t="s">
+        <v>59</v>
+      </c>
+      <c r="B315" s="3">
+        <v>3.4974704476304713E-9</v>
+      </c>
+      <c r="D315" t="s">
+        <v>9</v>
+      </c>
+      <c r="E315" t="s">
+        <v>105</v>
+      </c>
+      <c r="F315" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H315" s="3"/>
+    </row>
+    <row r="316" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A316" t="s">
+        <v>66</v>
+      </c>
+      <c r="B316" s="3">
+        <v>4.2396949131060127E-7</v>
+      </c>
+      <c r="D316" t="s">
+        <v>9</v>
+      </c>
+      <c r="E316" t="s">
+        <v>104</v>
+      </c>
+      <c r="F316" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H316" s="3"/>
+    </row>
+    <row r="317" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A317" t="s">
+        <v>66</v>
+      </c>
+      <c r="B317" s="3">
+        <v>4.1146752559714943E-8</v>
+      </c>
+      <c r="D317" t="s">
+        <v>9</v>
+      </c>
+      <c r="E317" t="s">
+        <v>105</v>
+      </c>
+      <c r="F317" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H317" s="3"/>
+    </row>
+    <row r="318" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A318" t="s">
+        <v>67</v>
+      </c>
+      <c r="B318" s="3">
+        <v>1.4838945395665915E-12</v>
+      </c>
+      <c r="D318" t="s">
+        <v>9</v>
+      </c>
+      <c r="E318" t="s">
+        <v>104</v>
+      </c>
+      <c r="F318" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H318" s="3"/>
+    </row>
+    <row r="319" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A319" t="s">
+        <v>67</v>
+      </c>
+      <c r="B319" s="3">
+        <v>1.4401328196447244E-13</v>
+      </c>
+      <c r="D319" t="s">
+        <v>9</v>
+      </c>
+      <c r="E319" t="s">
+        <v>105</v>
+      </c>
+      <c r="F319" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H319" s="3"/>
+    </row>
+    <row r="320" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A320" t="s">
+        <v>70</v>
+      </c>
+      <c r="B320" s="3">
+        <v>4.9290146007471967E-6</v>
+      </c>
+      <c r="D320" t="s">
+        <v>9</v>
+      </c>
+      <c r="E320" t="s">
+        <v>104</v>
+      </c>
+      <c r="F320" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H320" s="3"/>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A321" t="s">
+        <v>70</v>
+      </c>
+      <c r="B321" s="3">
+        <v>4.7836672595146453E-7</v>
+      </c>
+      <c r="D321" t="s">
+        <v>9</v>
+      </c>
+      <c r="E321" t="s">
+        <v>105</v>
+      </c>
+      <c r="F321" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H321" s="3"/>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A322" t="s">
+        <v>71</v>
+      </c>
+      <c r="B322" s="3">
+        <v>1.4838945395665916E-9</v>
+      </c>
+      <c r="D322" t="s">
+        <v>9</v>
+      </c>
+      <c r="E322" t="s">
+        <v>104</v>
+      </c>
+      <c r="F322" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H322" s="3"/>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A323" t="s">
+        <v>71</v>
+      </c>
+      <c r="B323" s="3">
+        <v>1.4401328196447246E-10</v>
+      </c>
+      <c r="D323" t="s">
+        <v>9</v>
+      </c>
+      <c r="E323" t="s">
+        <v>105</v>
+      </c>
+      <c r="F323" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H323" s="3"/>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A324" t="s">
+        <v>72</v>
+      </c>
+      <c r="B324">
+        <v>3.0006653682198702E-4</v>
+      </c>
+      <c r="D324" t="s">
+        <v>9</v>
+      </c>
+      <c r="E324" t="s">
+        <v>104</v>
+      </c>
+      <c r="F324" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H324" s="3"/>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A325" t="s">
+        <v>72</v>
+      </c>
+      <c r="B325" s="3">
+        <v>2.9121827432823326E-5</v>
+      </c>
+      <c r="D325" t="s">
+        <v>9</v>
+      </c>
+      <c r="E325" t="s">
+        <v>105</v>
+      </c>
+      <c r="F325" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H325" s="3"/>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A326" t="s">
+        <v>74</v>
+      </c>
+      <c r="B326" s="3">
+        <v>3.8963858482936672E-6</v>
+      </c>
+      <c r="D326" t="s">
+        <v>9</v>
+      </c>
+      <c r="E326" t="s">
+        <v>104</v>
+      </c>
+      <c r="F326" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H326" s="3"/>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A327" t="s">
+        <v>74</v>
+      </c>
+      <c r="B327" s="3">
+        <v>3.7814860338919342E-7</v>
+      </c>
+      <c r="D327" t="s">
+        <v>9</v>
+      </c>
+      <c r="E327" t="s">
+        <v>105</v>
+      </c>
+      <c r="F327" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H327" s="3"/>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A328" t="s">
+        <v>78</v>
+      </c>
+      <c r="B328" s="3">
+        <v>2.1198518564846293E-10</v>
+      </c>
+      <c r="D328" t="s">
+        <v>9</v>
+      </c>
+      <c r="E328" t="s">
+        <v>104</v>
+      </c>
+      <c r="F328" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H328" s="3"/>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A329" t="s">
+        <v>78</v>
+      </c>
+      <c r="B329" s="3">
+        <v>2.0573376279857471E-11</v>
+      </c>
+      <c r="D329" t="s">
+        <v>9</v>
+      </c>
+      <c r="E329" t="s">
+        <v>105</v>
+      </c>
+      <c r="F329" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H329" s="3"/>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A330" t="s">
+        <v>80</v>
+      </c>
+      <c r="B330" s="3">
+        <v>1.7806699275346112E-5</v>
+      </c>
+      <c r="D330" t="s">
+        <v>9</v>
+      </c>
+      <c r="E330" t="s">
+        <v>104</v>
+      </c>
+      <c r="F330" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H330" s="3"/>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A331" t="s">
+        <v>80</v>
+      </c>
+      <c r="B331" s="3">
+        <v>1.7281611435463185E-6</v>
+      </c>
+      <c r="D331" t="s">
+        <v>9</v>
+      </c>
+      <c r="E331" t="s">
+        <v>105</v>
+      </c>
+      <c r="F331" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H331" s="3"/>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A332" t="s">
+        <v>103</v>
+      </c>
+      <c r="B332" s="3">
+        <v>1.6219731937580282E-7</v>
+      </c>
+      <c r="D332" t="s">
+        <v>9</v>
+      </c>
+      <c r="E332" t="s">
+        <v>104</v>
+      </c>
+      <c r="F332" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H332" s="3"/>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A333" t="s">
+        <v>103</v>
+      </c>
+      <c r="B333" s="3">
+        <v>1.574145937016555E-8</v>
+      </c>
+      <c r="D333" t="s">
+        <v>9</v>
+      </c>
+      <c r="E333" t="s">
+        <v>105</v>
+      </c>
+      <c r="F333" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H333" s="3"/>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A334" t="s">
+        <v>82</v>
+      </c>
+      <c r="B334" s="3">
+        <v>2.1198518564846295E-7</v>
+      </c>
+      <c r="D334" t="s">
+        <v>9</v>
+      </c>
+      <c r="E334" t="s">
+        <v>104</v>
+      </c>
+      <c r="F334" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H334" s="3"/>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A335" t="s">
+        <v>82</v>
+      </c>
+      <c r="B335" s="3">
+        <v>2.0573376279857471E-8</v>
+      </c>
+      <c r="D335" t="s">
+        <v>9</v>
+      </c>
+      <c r="E335" t="s">
+        <v>105</v>
+      </c>
+      <c r="F335" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H335" s="3"/>
+    </row>
+    <row r="337" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A337" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B337" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C337" s="2"/>
+      <c r="D337" s="2"/>
+      <c r="E337" s="2"/>
+      <c r="F337" s="2"/>
+      <c r="G337" s="2"/>
+      <c r="H337" s="2"/>
+    </row>
+    <row r="338" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A338" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B338" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C338" s="2"/>
+      <c r="D338" s="2"/>
+      <c r="E338" s="2"/>
+      <c r="F338" s="2"/>
+      <c r="G338" s="2"/>
+      <c r="H338" s="2"/>
+      <c r="I338" s="2"/>
+      <c r="J338" s="2"/>
+      <c r="K338" s="2"/>
+      <c r="L338" s="2"/>
+    </row>
+    <row r="339" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A339" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B339" s="2">
+        <v>1</v>
+      </c>
+      <c r="C339" s="2"/>
+      <c r="D339" s="2"/>
+      <c r="E339" s="2"/>
+      <c r="F339" s="2"/>
+      <c r="G339" s="2"/>
+      <c r="H339" s="2"/>
+      <c r="I339" s="2"/>
+      <c r="J339" s="2"/>
+      <c r="K339" s="2"/>
+      <c r="L339" s="2"/>
+    </row>
+    <row r="340" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A340" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B340" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C340" s="2"/>
+      <c r="D340" s="2"/>
+      <c r="E340" s="2"/>
+      <c r="F340" s="2"/>
+      <c r="G340" s="2"/>
+      <c r="H340" s="2"/>
+      <c r="I340" s="2"/>
+      <c r="J340" s="2"/>
+    </row>
+    <row r="341" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A341" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B341" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C341" s="2"/>
+      <c r="D341" s="2"/>
+      <c r="E341" s="2"/>
+      <c r="F341" s="2"/>
+      <c r="G341" s="2"/>
+      <c r="H341" s="2"/>
+      <c r="I341" s="2"/>
+      <c r="J341" s="2"/>
+      <c r="K341" s="2"/>
+      <c r="L341" s="2"/>
+    </row>
+    <row r="342" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A342" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B342" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C342" s="2"/>
+      <c r="D342" s="2"/>
+      <c r="E342" s="2"/>
+      <c r="F342" s="2"/>
+      <c r="G342" s="2"/>
+      <c r="H342" s="2"/>
+      <c r="I342" s="2"/>
+      <c r="J342" s="2"/>
+      <c r="K342" s="2"/>
+      <c r="L342" s="2"/>
+    </row>
+    <row r="343" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A343" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B343" s="2"/>
+      <c r="C343" s="2"/>
+      <c r="D343" s="2"/>
+      <c r="E343" s="2"/>
+      <c r="F343" s="2"/>
+      <c r="G343" s="2"/>
+      <c r="H343" s="2"/>
+      <c r="I343" s="2"/>
+      <c r="J343" s="2"/>
+      <c r="K343" s="2"/>
+      <c r="L343" s="2"/>
+    </row>
+    <row r="344" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A344" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B344" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C344" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D344" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E344" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F344" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G344" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H344" s="2"/>
+      <c r="I344" s="2"/>
+      <c r="J344" s="2"/>
+      <c r="K344" s="2"/>
+    </row>
+    <row r="345" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A345" s="2" t="str">
+        <f>B337</f>
+        <v>heavy fuel oil, burned in container ship</v>
+      </c>
+      <c r="B345" s="2">
+        <v>1</v>
+      </c>
+      <c r="C345" s="2" t="str">
+        <f>B338</f>
+        <v>RER</v>
+      </c>
+      <c r="D345" s="2" t="str">
+        <f>B342</f>
+        <v>megajoule</v>
+      </c>
+      <c r="E345" s="2"/>
+      <c r="F345" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G345" s="2" t="str">
+        <f>B340</f>
+        <v>heat</v>
+      </c>
+      <c r="H345" s="2"/>
+      <c r="I345" s="2"/>
+      <c r="J345" s="2"/>
+      <c r="K345" s="2"/>
+      <c r="L345" s="2"/>
+    </row>
+    <row r="346" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A346" t="s">
+        <v>107</v>
+      </c>
+      <c r="B346">
+        <f>1/39</f>
+        <v>2.564102564102564E-2</v>
+      </c>
+      <c r="C346" t="s">
+        <v>18</v>
+      </c>
+      <c r="D346" t="s">
+        <v>9</v>
+      </c>
+      <c r="F346" t="s">
+        <v>108</v>
+      </c>
+      <c r="G346" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="347" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A347" t="s">
+        <v>50</v>
+      </c>
+      <c r="B347" s="3">
+        <v>1.0256365433645409E-5</v>
+      </c>
+      <c r="D347" t="s">
+        <v>9</v>
+      </c>
+      <c r="E347" t="s">
+        <v>105</v>
+      </c>
+      <c r="F347" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H347" s="3"/>
+    </row>
+    <row r="348" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A348" t="s">
+        <v>95</v>
+      </c>
+      <c r="B348" s="3">
+        <v>9.6449727337009339E-9</v>
+      </c>
+      <c r="D348" t="s">
+        <v>9</v>
+      </c>
+      <c r="E348" t="s">
+        <v>105</v>
+      </c>
+      <c r="F348" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H348" s="3"/>
+    </row>
+    <row r="349" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A349" t="s">
+        <v>54</v>
+      </c>
+      <c r="B349" s="3">
+        <v>6.2721921074364377E-10</v>
+      </c>
+      <c r="D349" t="s">
+        <v>9</v>
+      </c>
+      <c r="E349" t="s">
+        <v>105</v>
+      </c>
+      <c r="F349" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H349" s="3"/>
+    </row>
+    <row r="350" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A350" t="s">
+        <v>55</v>
+      </c>
+      <c r="B350">
+        <v>7.9939098901879183E-2</v>
+      </c>
+      <c r="D350" t="s">
+        <v>9</v>
+      </c>
+      <c r="E350" t="s">
+        <v>105</v>
+      </c>
+      <c r="F350" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H350" s="3"/>
+    </row>
+    <row r="351" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A351" t="s">
+        <v>56</v>
+      </c>
+      <c r="B351" s="3">
+        <v>6.8728477177939384E-5</v>
+      </c>
+      <c r="D351" t="s">
+        <v>9</v>
+      </c>
+      <c r="E351" t="s">
+        <v>105</v>
+      </c>
+      <c r="F351" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H351" s="3"/>
+      <c r="K351" s="3"/>
+    </row>
+    <row r="352" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A352" t="s">
+        <v>57</v>
+      </c>
+      <c r="B352" s="3">
+        <v>4.0039462777159148E-9</v>
+      </c>
+      <c r="D352" t="s">
+        <v>9</v>
+      </c>
+      <c r="E352" t="s">
+        <v>105</v>
+      </c>
+      <c r="F352" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H352" s="3"/>
+      <c r="K352" s="3"/>
+    </row>
+    <row r="353" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A353" t="s">
+        <v>59</v>
+      </c>
+      <c r="B353" s="3">
+        <v>9.6449727337009339E-9</v>
+      </c>
+      <c r="D353" t="s">
+        <v>9</v>
+      </c>
+      <c r="E353" t="s">
+        <v>105</v>
+      </c>
+      <c r="F353" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H353" s="3"/>
+      <c r="K353" s="3"/>
+    </row>
+    <row r="354" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A354" t="s">
+        <v>61</v>
+      </c>
+      <c r="B354" s="3">
+        <v>4.0793809536092252E-6</v>
+      </c>
+      <c r="D354" t="s">
+        <v>9</v>
+      </c>
+      <c r="E354" t="s">
+        <v>105</v>
+      </c>
+      <c r="F354" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H354" s="3"/>
+      <c r="K354" s="3"/>
+    </row>
+    <row r="355" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A355" t="s">
+        <v>110</v>
+      </c>
+      <c r="B355" s="3">
+        <v>2.5641066388993793E-14</v>
+      </c>
+      <c r="D355" t="s">
+        <v>9</v>
+      </c>
+      <c r="E355" t="s">
+        <v>105</v>
+      </c>
+      <c r="F355" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H355" s="3"/>
+    </row>
+    <row r="356" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A356" t="s">
+        <v>111</v>
+      </c>
+      <c r="B356" s="3">
+        <v>1.4988121356087533E-6</v>
+      </c>
+      <c r="D356" t="s">
+        <v>9</v>
+      </c>
+      <c r="E356" t="s">
+        <v>105</v>
+      </c>
+      <c r="F356" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H356" s="3"/>
+    </row>
+    <row r="357" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A357" t="s">
+        <v>112</v>
+      </c>
+      <c r="B357" s="3">
+        <v>1.4988121356087536E-7</v>
+      </c>
+      <c r="D357" t="s">
+        <v>9</v>
+      </c>
+      <c r="E357" t="s">
+        <v>105</v>
+      </c>
+      <c r="F357" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H357" s="3"/>
+    </row>
+    <row r="358" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A358" t="s">
+        <v>66</v>
+      </c>
+      <c r="B358" s="3">
+        <v>4.4181493731679086E-9</v>
+      </c>
+      <c r="D358" t="s">
+        <v>9</v>
+      </c>
+      <c r="E358" t="s">
+        <v>105</v>
+      </c>
+      <c r="F358" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H358" s="3"/>
+    </row>
+    <row r="359" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A359" t="s">
+        <v>67</v>
+      </c>
+      <c r="B359" s="3">
+        <v>7.2386626011604185E-10</v>
+      </c>
+      <c r="D359" t="s">
+        <v>9</v>
+      </c>
+      <c r="E359" t="s">
+        <v>105</v>
+      </c>
+      <c r="F359" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H359" s="3"/>
+    </row>
+    <row r="360" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A360" t="s">
+        <v>68</v>
+      </c>
+      <c r="B360" s="3">
+        <v>1.3879471014768287E-6</v>
+      </c>
+      <c r="D360" t="s">
+        <v>9</v>
+      </c>
+      <c r="E360" t="s">
+        <v>105</v>
+      </c>
+      <c r="F360" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H360" s="3"/>
+    </row>
+    <row r="361" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A361" t="s">
+        <v>70</v>
+      </c>
+      <c r="B361" s="3">
+        <v>6.9408357025220894E-5</v>
+      </c>
+      <c r="D361" t="s">
+        <v>9</v>
+      </c>
+      <c r="E361" t="s">
+        <v>105</v>
+      </c>
+      <c r="F361" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H361" s="3"/>
+    </row>
+    <row r="362" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A362" t="s">
+        <v>71</v>
+      </c>
+      <c r="B362" s="3">
+        <v>5.5818502193524422E-7</v>
+      </c>
+      <c r="D362" t="s">
+        <v>9</v>
+      </c>
+      <c r="E362" t="s">
+        <v>105</v>
+      </c>
+      <c r="F362" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H362" s="3"/>
+    </row>
+    <row r="363" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A363" t="s">
+        <v>72</v>
+      </c>
+      <c r="B363">
+        <v>1.9128828001645137E-3</v>
+      </c>
+      <c r="D363" t="s">
+        <v>9</v>
+      </c>
+      <c r="E363" t="s">
+        <v>105</v>
+      </c>
+      <c r="F363" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H363" s="3"/>
+    </row>
+    <row r="364" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A364" t="s">
+        <v>73</v>
+      </c>
+      <c r="B364" s="3">
+        <v>5.12820309080674E-8</v>
+      </c>
+      <c r="D364" t="s">
+        <v>9</v>
+      </c>
+      <c r="E364" t="s">
+        <v>105</v>
+      </c>
+      <c r="F364" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H364" s="3"/>
+    </row>
+    <row r="365" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A365" t="s">
+        <v>74</v>
+      </c>
+      <c r="B365" s="3">
+        <v>4.4996554963039493E-5</v>
+      </c>
+      <c r="D365" t="s">
+        <v>9</v>
+      </c>
+      <c r="E365" t="s">
+        <v>105</v>
+      </c>
+      <c r="F365" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H365" s="3"/>
+    </row>
+    <row r="366" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A366" t="s">
+        <v>113</v>
+      </c>
+      <c r="B366" s="3">
+        <v>6.428083646287935E-5</v>
+      </c>
+      <c r="D366" t="s">
+        <v>9</v>
+      </c>
+      <c r="E366" t="s">
+        <v>105</v>
+      </c>
+      <c r="F366" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H366" s="3"/>
+    </row>
+    <row r="367" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A367" t="s">
+        <v>114</v>
+      </c>
+      <c r="B367" s="3">
+        <v>5.1424648796319438E-5</v>
+      </c>
+      <c r="D367" t="s">
+        <v>9</v>
+      </c>
+      <c r="E367" t="s">
+        <v>105</v>
+      </c>
+      <c r="F367" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H367" s="3"/>
+    </row>
+    <row r="368" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="A368" t="s">
+        <v>78</v>
+      </c>
+      <c r="B368" s="3">
+        <v>8.8362885593437998E-9</v>
+      </c>
+      <c r="D368" t="s">
+        <v>9</v>
+      </c>
+      <c r="E368" t="s">
+        <v>105</v>
+      </c>
+      <c r="F368" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H368" s="3"/>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A369" t="s">
+        <v>80</v>
+      </c>
+      <c r="B369">
+        <v>1.1659114234524397E-3</v>
+      </c>
+      <c r="D369" t="s">
+        <v>9</v>
+      </c>
+      <c r="E369" t="s">
+        <v>105</v>
+      </c>
+      <c r="F369" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H369" s="3"/>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A370" t="s">
+        <v>82</v>
+      </c>
+      <c r="B370" s="3">
+        <v>2.0260399075004886E-8</v>
+      </c>
+      <c r="D370" t="s">
+        <v>9</v>
+      </c>
+      <c r="E370" t="s">
+        <v>105</v>
+      </c>
+      <c r="F370" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H370" s="3"/>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A371" t="s">
+        <v>59</v>
+      </c>
+      <c r="B371" s="3">
+        <v>1.6520143085674979E-9</v>
+      </c>
+      <c r="D371" t="s">
+        <v>9</v>
+      </c>
+      <c r="E371" t="s">
+        <v>119</v>
+      </c>
+      <c r="F371" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H371" s="3"/>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A372" t="s">
+        <v>115</v>
+      </c>
+      <c r="B372" s="3">
+        <v>1.5836494051346807E-10</v>
+      </c>
+      <c r="D372" t="s">
+        <v>9</v>
+      </c>
+      <c r="E372" t="s">
+        <v>119</v>
+      </c>
+      <c r="F372" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H372" s="3"/>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A373" t="s">
+        <v>116</v>
+      </c>
+      <c r="B373" s="3">
+        <v>4.5524750499172942E-7</v>
+      </c>
+      <c r="D373" t="s">
+        <v>9</v>
+      </c>
+      <c r="E373" t="s">
+        <v>119</v>
+      </c>
+      <c r="F373" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H373" s="3"/>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A374" t="s">
+        <v>117</v>
+      </c>
+      <c r="B374" s="3">
+        <v>2.6394088838964563E-11</v>
+      </c>
+      <c r="D374" t="s">
+        <v>9</v>
+      </c>
+      <c r="E374" t="s">
+        <v>119</v>
+      </c>
+      <c r="F374" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H374" s="3"/>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A375" t="s">
+        <v>118</v>
+      </c>
+      <c r="B375" s="3">
+        <v>2.4156210432449703E-10</v>
+      </c>
+      <c r="D375" t="s">
+        <v>9</v>
+      </c>
+      <c r="E375" t="s">
+        <v>119</v>
+      </c>
+      <c r="F375" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H375" s="3"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/premise/data/energy/lci-heat.xlsx
+++ b/premise/data/energy/lci-heat.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD482456-9F4B-B042-AE56-0922FFD2CA75}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C8A13A26-7B89-1846-B457-7C6BB57516D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1180" yWindow="2120" windowWidth="22780" windowHeight="17520" xr2:uid="{B8299F2D-33B8-E148-B485-6429887DEB23}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2051" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2168" uniqueCount="151">
   <si>
     <t>database</t>
   </si>
@@ -474,15 +474,34 @@
   </si>
   <si>
     <t>diesel blend, burned in heavy-duty vehicle</t>
+  </si>
+  <si>
+    <t>diesel, burned in passenger train</t>
+  </si>
+  <si>
+    <t>Xylene</t>
+  </si>
+  <si>
+    <t>Iron ion</t>
+  </si>
+  <si>
+    <t>soil</t>
+  </si>
+  <si>
+    <t>market for diesel</t>
+  </si>
+  <si>
+    <t>diesel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="167" formatCode="0.000000"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -534,7 +553,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -552,6 +571,7 @@
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -866,10 +886,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F0C42E2-D17A-554B-A2D9-4F73B84316EE}">
-  <dimension ref="A1:O628"/>
+  <dimension ref="A1:O663"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F81" sqref="F81"/>
+    <sheetView tabSelected="1" topLeftCell="A626" workbookViewId="0">
+      <selection activeCell="G641" sqref="G641"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -12136,6 +12156,618 @@
       </c>
       <c r="L628" s="6"/>
     </row>
+    <row r="631" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A631" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B631" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C631" s="2"/>
+      <c r="D631" s="2"/>
+      <c r="E631" s="2"/>
+      <c r="F631" s="2"/>
+      <c r="G631" s="2"/>
+      <c r="H631" s="2"/>
+    </row>
+    <row r="632" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A632" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B632" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C632" s="2"/>
+      <c r="D632" s="2"/>
+      <c r="E632" s="2"/>
+      <c r="F632" s="2"/>
+      <c r="G632" s="2"/>
+      <c r="H632" s="2"/>
+      <c r="I632" s="2"/>
+      <c r="J632" s="2"/>
+      <c r="K632" s="2"/>
+      <c r="L632" s="2"/>
+    </row>
+    <row r="633" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A633" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B633" s="2">
+        <v>1</v>
+      </c>
+      <c r="C633" s="2"/>
+      <c r="D633" s="2"/>
+      <c r="E633" s="2"/>
+      <c r="F633" s="2"/>
+      <c r="G633" s="2"/>
+      <c r="H633" s="2"/>
+      <c r="I633" s="2"/>
+      <c r="J633" s="2"/>
+      <c r="K633" s="2"/>
+      <c r="L633" s="2"/>
+    </row>
+    <row r="634" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A634" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B634" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C634" s="2"/>
+      <c r="D634" s="2"/>
+      <c r="E634" s="2"/>
+      <c r="F634" s="2"/>
+      <c r="G634" s="2"/>
+      <c r="H634" s="2"/>
+      <c r="I634" s="2"/>
+      <c r="J634" s="2"/>
+    </row>
+    <row r="635" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A635" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="B635" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="C635" s="2"/>
+      <c r="D635" s="2"/>
+      <c r="E635" s="2"/>
+      <c r="F635" s="2"/>
+      <c r="G635" s="2"/>
+      <c r="H635" s="2"/>
+      <c r="I635" s="2"/>
+      <c r="J635" s="2"/>
+      <c r="K635" s="2"/>
+      <c r="L635" s="2"/>
+    </row>
+    <row r="636" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A636" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="B636" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C636" s="2"/>
+      <c r="D636" s="2"/>
+      <c r="E636" s="2"/>
+      <c r="F636" s="2"/>
+      <c r="G636" s="2"/>
+      <c r="H636" s="2"/>
+      <c r="I636" s="2"/>
+      <c r="J636" s="2"/>
+      <c r="K636" s="2"/>
+      <c r="L636" s="2"/>
+    </row>
+    <row r="637" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A637" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B637" s="2"/>
+      <c r="C637" s="2"/>
+      <c r="D637" s="2"/>
+      <c r="E637" s="2"/>
+      <c r="F637" s="2"/>
+      <c r="G637" s="2"/>
+      <c r="H637" s="2"/>
+      <c r="I637" s="2"/>
+      <c r="J637" s="2"/>
+      <c r="K637" s="2"/>
+      <c r="L637" s="2"/>
+    </row>
+    <row r="638" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A638" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B638" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C638" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D638" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E638" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F638" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G638" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="H638" s="2"/>
+      <c r="I638" s="2"/>
+      <c r="J638" s="2"/>
+      <c r="K638" s="2"/>
+    </row>
+    <row r="639" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A639" s="2" t="str">
+        <f>B631</f>
+        <v>diesel, burned in passenger train</v>
+      </c>
+      <c r="B639" s="2">
+        <v>1</v>
+      </c>
+      <c r="C639" s="2" t="str">
+        <f>B632</f>
+        <v>RER</v>
+      </c>
+      <c r="D639" s="2" t="str">
+        <f>B636</f>
+        <v>megajoule</v>
+      </c>
+      <c r="E639" s="2"/>
+      <c r="F639" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G639" s="2" t="str">
+        <f>B634</f>
+        <v>heat</v>
+      </c>
+      <c r="H639" s="2"/>
+      <c r="I639" s="2"/>
+      <c r="J639" s="2"/>
+      <c r="K639" s="2"/>
+      <c r="L639" s="2"/>
+    </row>
+    <row r="640" spans="1:12" x14ac:dyDescent="0.2">
+      <c r="A640" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B640" s="11">
+        <f>1/43</f>
+        <v>2.3255813953488372E-2</v>
+      </c>
+      <c r="C640" t="s">
+        <v>27</v>
+      </c>
+      <c r="D640" t="s">
+        <v>9</v>
+      </c>
+      <c r="F640" t="s">
+        <v>23</v>
+      </c>
+      <c r="G640" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="641" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A641" t="s">
+        <v>50</v>
+      </c>
+      <c r="B641" s="3">
+        <v>4.6511627906976748E-7</v>
+      </c>
+      <c r="D641" t="s">
+        <v>9</v>
+      </c>
+      <c r="E641" t="s">
+        <v>122</v>
+      </c>
+      <c r="F641" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H641" s="3"/>
+      <c r="I641" s="3"/>
+    </row>
+    <row r="642" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A642" t="s">
+        <v>52</v>
+      </c>
+      <c r="B642" s="3">
+        <v>2.3255813953488372E-6</v>
+      </c>
+      <c r="D642" t="s">
+        <v>9</v>
+      </c>
+      <c r="E642" t="s">
+        <v>122</v>
+      </c>
+      <c r="F642" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H642" s="3"/>
+      <c r="I642" s="3"/>
+    </row>
+    <row r="643" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A643" t="s">
+        <v>54</v>
+      </c>
+      <c r="B643" s="3">
+        <v>2.3255813953488374E-10</v>
+      </c>
+      <c r="D643" t="s">
+        <v>9</v>
+      </c>
+      <c r="E643" t="s">
+        <v>122</v>
+      </c>
+      <c r="F643" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I643" s="3"/>
+    </row>
+    <row r="644" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A644" t="s">
+        <v>55</v>
+      </c>
+      <c r="B644">
+        <v>7.3027602695066293E-2</v>
+      </c>
+      <c r="D644" t="s">
+        <v>9</v>
+      </c>
+      <c r="E644" t="s">
+        <v>122</v>
+      </c>
+      <c r="F644" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I644" s="3"/>
+    </row>
+    <row r="645" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A645" t="s">
+        <v>56</v>
+      </c>
+      <c r="B645">
+        <v>3.6731145403173224E-4</v>
+      </c>
+      <c r="D645" t="s">
+        <v>9</v>
+      </c>
+      <c r="E645" t="s">
+        <v>122</v>
+      </c>
+      <c r="F645" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I645" s="3"/>
+    </row>
+    <row r="646" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A646" t="s">
+        <v>57</v>
+      </c>
+      <c r="B646" s="3">
+        <v>1.160617257118018E-9</v>
+      </c>
+      <c r="D646" t="s">
+        <v>9</v>
+      </c>
+      <c r="E646" t="s">
+        <v>122</v>
+      </c>
+      <c r="F646" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I646" s="3"/>
+    </row>
+    <row r="647" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A647" t="s">
+        <v>59</v>
+      </c>
+      <c r="B647" s="3">
+        <v>3.9556618126494245E-8</v>
+      </c>
+      <c r="D647" t="s">
+        <v>9</v>
+      </c>
+      <c r="E647" t="s">
+        <v>122</v>
+      </c>
+      <c r="F647" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I647" s="3"/>
+    </row>
+    <row r="648" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A648" t="s">
+        <v>61</v>
+      </c>
+      <c r="B648" s="3">
+        <v>2.3255813953488372E-6</v>
+      </c>
+      <c r="D648" t="s">
+        <v>9</v>
+      </c>
+      <c r="E648" t="s">
+        <v>122</v>
+      </c>
+      <c r="F648" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I648" s="3"/>
+    </row>
+    <row r="649" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A649" t="s">
+        <v>66</v>
+      </c>
+      <c r="B649" s="3">
+        <v>2.5429254509889156E-12</v>
+      </c>
+      <c r="D649" t="s">
+        <v>9</v>
+      </c>
+      <c r="E649" t="s">
+        <v>122</v>
+      </c>
+      <c r="F649" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I649" s="3"/>
+    </row>
+    <row r="650" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A650" t="s">
+        <v>67</v>
+      </c>
+      <c r="B650" s="3">
+        <v>4.651162790697675E-13</v>
+      </c>
+      <c r="D650" t="s">
+        <v>9</v>
+      </c>
+      <c r="E650" t="s">
+        <v>122</v>
+      </c>
+      <c r="F650" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I650" s="3"/>
+    </row>
+    <row r="651" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A651" t="s">
+        <v>68</v>
+      </c>
+      <c r="B651" s="3">
+        <v>3.0210823733970879E-6</v>
+      </c>
+      <c r="D651" t="s">
+        <v>9</v>
+      </c>
+      <c r="E651" t="s">
+        <v>122</v>
+      </c>
+      <c r="F651" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I651" s="3"/>
+    </row>
+    <row r="652" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A652" t="s">
+        <v>70</v>
+      </c>
+      <c r="B652" s="3">
+        <v>1.1758313410128234E-4</v>
+      </c>
+      <c r="D652" t="s">
+        <v>9</v>
+      </c>
+      <c r="E652" t="s">
+        <v>122</v>
+      </c>
+      <c r="F652" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I652" s="3"/>
+    </row>
+    <row r="653" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A653" t="s">
+        <v>71</v>
+      </c>
+      <c r="B653" s="3">
+        <v>1.6235600956313845E-9</v>
+      </c>
+      <c r="D653" t="s">
+        <v>9</v>
+      </c>
+      <c r="E653" t="s">
+        <v>122</v>
+      </c>
+      <c r="F653" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I653" s="3"/>
+    </row>
+    <row r="654" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A654" t="s">
+        <v>72</v>
+      </c>
+      <c r="B654">
+        <v>1.2758096066072594E-3</v>
+      </c>
+      <c r="D654" t="s">
+        <v>9</v>
+      </c>
+      <c r="E654" t="s">
+        <v>122</v>
+      </c>
+      <c r="F654" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I654" s="3"/>
+    </row>
+    <row r="655" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A655" t="s">
+        <v>74</v>
+      </c>
+      <c r="B655" s="3">
+        <v>2.9836991958269943E-5</v>
+      </c>
+      <c r="D655" t="s">
+        <v>9</v>
+      </c>
+      <c r="E655" t="s">
+        <v>122</v>
+      </c>
+      <c r="F655" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I655" s="3"/>
+    </row>
+    <row r="656" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A656" t="s">
+        <v>110</v>
+      </c>
+      <c r="B656" s="3">
+        <v>3.5524885894370795E-5</v>
+      </c>
+      <c r="D656" t="s">
+        <v>9</v>
+      </c>
+      <c r="E656" t="s">
+        <v>122</v>
+      </c>
+      <c r="F656" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I656" s="3"/>
+    </row>
+    <row r="657" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A657" t="s">
+        <v>111</v>
+      </c>
+      <c r="B657" s="3">
+        <v>1.6163877417952619E-5</v>
+      </c>
+      <c r="D657" t="s">
+        <v>9</v>
+      </c>
+      <c r="E657" t="s">
+        <v>122</v>
+      </c>
+      <c r="F657" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I657" s="3"/>
+    </row>
+    <row r="658" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A658" t="s">
+        <v>78</v>
+      </c>
+      <c r="B658" s="3">
+        <v>2.3255813953488374E-10</v>
+      </c>
+      <c r="D658" t="s">
+        <v>9</v>
+      </c>
+      <c r="E658" t="s">
+        <v>122</v>
+      </c>
+      <c r="F658" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I658" s="3"/>
+    </row>
+    <row r="659" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A659" t="s">
+        <v>80</v>
+      </c>
+      <c r="B659" s="3">
+        <v>1.3931753966529016E-5</v>
+      </c>
+      <c r="D659" t="s">
+        <v>9</v>
+      </c>
+      <c r="E659" t="s">
+        <v>122</v>
+      </c>
+      <c r="F659" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I659" s="3"/>
+    </row>
+    <row r="660" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A660" t="s">
+        <v>81</v>
+      </c>
+      <c r="B660" s="3">
+        <v>9.2805911758313421E-7</v>
+      </c>
+      <c r="D660" t="s">
+        <v>9</v>
+      </c>
+      <c r="E660" t="s">
+        <v>122</v>
+      </c>
+      <c r="F660" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I660" s="3"/>
+    </row>
+    <row r="661" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A661" t="s">
+        <v>146</v>
+      </c>
+      <c r="B661" s="3">
+        <v>9.2805911758313421E-7</v>
+      </c>
+      <c r="D661" t="s">
+        <v>9</v>
+      </c>
+      <c r="E661" t="s">
+        <v>122</v>
+      </c>
+      <c r="F661" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I661" s="3"/>
+    </row>
+    <row r="662" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A662" t="s">
+        <v>82</v>
+      </c>
+      <c r="B662" s="3">
+        <v>2.3255813953488372E-8</v>
+      </c>
+      <c r="D662" t="s">
+        <v>9</v>
+      </c>
+      <c r="E662" t="s">
+        <v>122</v>
+      </c>
+      <c r="F662" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I662" s="3"/>
+    </row>
+    <row r="663" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A663" t="s">
+        <v>147</v>
+      </c>
+      <c r="B663" s="3">
+        <v>1.3084112149532712E-4</v>
+      </c>
+      <c r="D663" t="s">
+        <v>9</v>
+      </c>
+      <c r="E663" t="s">
+        <v>148</v>
+      </c>
+      <c r="F663" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I663" s="3"/>
+    </row>
   </sheetData>
   <autoFilter ref="A1:O628" xr:uid="{9F0C42E2-D17A-554B-A2D9-4F73B84316EE}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/premise/data/energy/lci-heat.xlsx
+++ b/premise/data/energy/lci-heat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11028"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BFE1DDC8-E91B-7743-A024-0938BCDADE72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3F01E9-3591-DE44-98C4-9A49739B0D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1180" yWindow="2120" windowWidth="22780" windowHeight="17520" xr2:uid="{B8299F2D-33B8-E148-B485-6429887DEB23}"/>
+    <workbookView xWindow="12160" yWindow="2120" windowWidth="22780" windowHeight="17520" xr2:uid="{B8299F2D-33B8-E148-B485-6429887DEB23}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -401,9 +401,6 @@
     <t>fuel cell system, 1 kWe, proton exchange membrane (PEM)</t>
   </si>
   <si>
-    <t>hydrogen supply, distributed by pipeline, produced by Electrolysis, PEM using electricity from grid</t>
-  </si>
-  <si>
     <t>hydrogen, gaseous, from pipeline</t>
   </si>
   <si>
@@ -531,6 +528,9 @@
   </si>
   <si>
     <t>electric motor, electric passenger car</t>
+  </si>
+  <si>
+    <t>hydrogen supply, distributed by pipeline</t>
   </si>
 </sst>
 </file>
@@ -928,8 +928,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F0C42E2-D17A-554B-A2D9-4F73B84316EE}">
   <dimension ref="A1:O700"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A287" workbookViewId="0">
-      <selection activeCell="F305" sqref="F305"/>
+    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
+      <selection activeCell="A65" sqref="A65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1734,7 +1734,7 @@
         <v>2</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -1928,14 +1928,14 @@
     </row>
     <row r="57" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>120</v>
+        <v>163</v>
       </c>
       <c r="B57" s="8">
         <f>0.01676/2</f>
         <v>8.3800000000000003E-3</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>18</v>
+        <v>118</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>9</v>
@@ -1944,14 +1944,14 @@
         <v>23</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="J57" s="7"/>
       <c r="O57" s="6"/>
     </row>
     <row r="58" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B58" s="5">
         <f>0.56%*B57</f>
@@ -1961,7 +1961,7 @@
         <v>9</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>15</v>
@@ -1981,7 +1981,7 @@
         <v>98</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>15</v>
@@ -2955,7 +2955,7 @@
         <v>0.95121702511060757</v>
       </c>
       <c r="C114" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D114" t="s">
         <v>17</v>
@@ -3536,7 +3536,7 @@
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B147">
         <f>1/43</f>
@@ -3557,7 +3557,7 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B148">
         <f>150/200000/2.15</f>
@@ -3573,7 +3573,7 @@
         <v>23</v>
       </c>
       <c r="G148" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.2">
@@ -4270,7 +4270,7 @@
         <v>2</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
@@ -4442,7 +4442,7 @@
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B197">
         <f>1/43</f>
@@ -4458,12 +4458,12 @@
         <v>23</v>
       </c>
       <c r="G197" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B198">
         <f>150/200000/2.15</f>
@@ -4479,7 +4479,7 @@
         <v>23</v>
       </c>
       <c r="G198" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.2">
@@ -4628,7 +4628,7 @@
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B207">
         <f>B197*3.15</f>
@@ -4647,7 +4647,7 @@
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B208" s="3">
         <v>2.1069404153243686E-5</v>
@@ -5348,7 +5348,7 @@
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B247">
         <f>1/42.6</f>
@@ -5369,7 +5369,7 @@
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B248">
         <f>150/200000/2.15</f>
@@ -5385,7 +5385,7 @@
         <v>23</v>
       </c>
       <c r="G248" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.2">
@@ -6339,7 +6339,7 @@
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B302">
         <f>1/43</f>
@@ -6360,7 +6360,7 @@
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B303">
         <f>1000/1000000/8.57</f>
@@ -6376,7 +6376,7 @@
         <v>23</v>
       </c>
       <c r="G303" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.2">
@@ -6998,7 +6998,7 @@
         <v>2</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C339" s="2"/>
       <c r="D339" s="2"/>
@@ -7191,7 +7191,7 @@
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A349" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B349">
         <f>1000/1000000/8.57</f>
@@ -7207,7 +7207,7 @@
         <v>23</v>
       </c>
       <c r="G349" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.2">
@@ -7829,7 +7829,7 @@
         <v>2</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C385" s="2"/>
       <c r="D385" s="2"/>
@@ -8001,7 +8001,7 @@
     </row>
     <row r="394" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A394" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B394">
         <f>1/43</f>
@@ -8017,12 +8017,12 @@
         <v>23</v>
       </c>
       <c r="G394" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="395" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A395" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B395">
         <f>1000/1000000/8.57</f>
@@ -8038,7 +8038,7 @@
         <v>23</v>
       </c>
       <c r="G395" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="396" spans="1:12" x14ac:dyDescent="0.2">
@@ -8188,7 +8188,7 @@
     </row>
     <row r="404" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B404">
         <v>6.9708852499276011E-2</v>
@@ -8207,7 +8207,7 @@
     </row>
     <row r="405" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B405" s="3">
         <v>6.3521092350262397E-5</v>
@@ -8660,7 +8660,7 @@
         <v>2</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="C431" s="2"/>
       <c r="D431" s="2"/>
@@ -8832,7 +8832,7 @@
     </row>
     <row r="440" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A440" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B440">
         <f>1/43</f>
@@ -8848,12 +8848,12 @@
         <v>23</v>
       </c>
       <c r="G440" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="441" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A441" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B441">
         <f>1000/1000000/8.57</f>
@@ -8869,7 +8869,7 @@
         <v>23</v>
       </c>
       <c r="G441" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="442" spans="1:12" x14ac:dyDescent="0.2">
@@ -9684,7 +9684,7 @@
     </row>
     <row r="487" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A487" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B487">
         <f>150/200000/2.15</f>
@@ -9700,7 +9700,7 @@
         <v>23</v>
       </c>
       <c r="G487" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="488" spans="1:12" x14ac:dyDescent="0.2">
@@ -10660,7 +10660,7 @@
         <v>2</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C542" s="2"/>
       <c r="D542" s="2"/>
@@ -10832,7 +10832,7 @@
     </row>
     <row r="551" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B551">
         <f>1/43</f>
@@ -10848,7 +10848,7 @@
         <v>23</v>
       </c>
       <c r="G551" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="552" spans="1:12" x14ac:dyDescent="0.2">
@@ -10889,7 +10889,7 @@
     </row>
     <row r="554" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B554">
         <f>0.0660685839024935+0.00641203619387979</f>
@@ -10908,7 +10908,7 @@
     </row>
     <row r="555" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B555" s="3">
         <f>0.0000496205808723556+4.81573396118271E-06</f>
@@ -11534,7 +11534,7 @@
     </row>
     <row r="590" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B590">
         <f>1/39</f>
@@ -12084,7 +12084,7 @@
         <v>2</v>
       </c>
       <c r="B622" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C622" s="2"/>
       <c r="D622" s="2"/>
@@ -12256,13 +12256,13 @@
     </row>
     <row r="631" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B631" s="10">
         <v>5.5555555555555601E-2</v>
       </c>
       <c r="C631" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D631" t="s">
         <v>9</v>
@@ -12271,7 +12271,7 @@
         <v>23</v>
       </c>
       <c r="G631" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="632" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
@@ -12286,7 +12286,7 @@
         <v>98</v>
       </c>
       <c r="E632" s="4" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F632" s="4" t="s">
         <v>15</v>
@@ -12295,7 +12295,7 @@
     </row>
     <row r="633" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A633" s="4" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B633" s="9">
         <v>7.6222222222222233E-2</v>
@@ -12313,7 +12313,7 @@
     </row>
     <row r="634" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A634" s="4" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B634" s="9">
         <v>9.0000000000000002E-6</v>
@@ -12369,7 +12369,7 @@
         <v>2</v>
       </c>
       <c r="B639" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C639" s="2"/>
       <c r="D639" s="2"/>
@@ -12541,7 +12541,7 @@
     </row>
     <row r="648" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A648" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="B648" s="11">
         <f>1/43</f>
@@ -12557,7 +12557,7 @@
         <v>23</v>
       </c>
       <c r="G648" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="649" spans="1:12" x14ac:dyDescent="0.2">
@@ -12571,7 +12571,7 @@
         <v>9</v>
       </c>
       <c r="E649" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F649" s="2" t="s">
         <v>15</v>
@@ -12590,7 +12590,7 @@
         <v>9</v>
       </c>
       <c r="E650" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F650" s="2" t="s">
         <v>15</v>
@@ -12609,7 +12609,7 @@
         <v>9</v>
       </c>
       <c r="E651" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F651" s="2" t="s">
         <v>15</v>
@@ -12627,7 +12627,7 @@
         <v>9</v>
       </c>
       <c r="E652" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F652" s="2" t="s">
         <v>15</v>
@@ -12645,7 +12645,7 @@
         <v>9</v>
       </c>
       <c r="E653" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F653" s="2" t="s">
         <v>15</v>
@@ -12663,7 +12663,7 @@
         <v>9</v>
       </c>
       <c r="E654" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F654" s="2" t="s">
         <v>15</v>
@@ -12681,7 +12681,7 @@
         <v>9</v>
       </c>
       <c r="E655" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F655" s="2" t="s">
         <v>15</v>
@@ -12699,7 +12699,7 @@
         <v>9</v>
       </c>
       <c r="E656" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F656" s="2" t="s">
         <v>15</v>
@@ -12717,7 +12717,7 @@
         <v>9</v>
       </c>
       <c r="E657" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F657" s="2" t="s">
         <v>15</v>
@@ -12735,7 +12735,7 @@
         <v>9</v>
       </c>
       <c r="E658" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F658" s="2" t="s">
         <v>15</v>
@@ -12753,7 +12753,7 @@
         <v>9</v>
       </c>
       <c r="E659" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F659" s="2" t="s">
         <v>15</v>
@@ -12771,7 +12771,7 @@
         <v>9</v>
       </c>
       <c r="E660" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F660" s="2" t="s">
         <v>15</v>
@@ -12789,7 +12789,7 @@
         <v>9</v>
       </c>
       <c r="E661" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F661" s="2" t="s">
         <v>15</v>
@@ -12807,7 +12807,7 @@
         <v>9</v>
       </c>
       <c r="E662" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F662" s="2" t="s">
         <v>15</v>
@@ -12825,7 +12825,7 @@
         <v>9</v>
       </c>
       <c r="E663" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F663" s="2" t="s">
         <v>15</v>
@@ -12843,7 +12843,7 @@
         <v>9</v>
       </c>
       <c r="E664" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F664" s="2" t="s">
         <v>15</v>
@@ -12861,7 +12861,7 @@
         <v>9</v>
       </c>
       <c r="E665" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F665" s="2" t="s">
         <v>15</v>
@@ -12879,7 +12879,7 @@
         <v>9</v>
       </c>
       <c r="E666" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F666" s="2" t="s">
         <v>15</v>
@@ -12897,7 +12897,7 @@
         <v>9</v>
       </c>
       <c r="E667" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F667" s="2" t="s">
         <v>15</v>
@@ -12915,7 +12915,7 @@
         <v>9</v>
       </c>
       <c r="E668" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F668" s="2" t="s">
         <v>15</v>
@@ -12924,7 +12924,7 @@
     </row>
     <row r="669" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B669" s="3">
         <v>9.2805911758313421E-7</v>
@@ -12933,7 +12933,7 @@
         <v>9</v>
       </c>
       <c r="E669" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F669" s="2" t="s">
         <v>15</v>
@@ -12951,7 +12951,7 @@
         <v>9</v>
       </c>
       <c r="E670" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="F670" s="2" t="s">
         <v>15</v>
@@ -12960,7 +12960,7 @@
     </row>
     <row r="671" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B671" s="3">
         <v>1.3084112149532712E-4</v>
@@ -12969,7 +12969,7 @@
         <v>9</v>
       </c>
       <c r="E671" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F671" s="2" t="s">
         <v>15</v>
@@ -12981,7 +12981,7 @@
         <v>2</v>
       </c>
       <c r="B673" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C673" s="2"/>
       <c r="D673" s="2"/>
@@ -13031,7 +13031,7 @@
         <v>5</v>
       </c>
       <c r="B676" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C676" s="2"/>
       <c r="D676" s="2"/>
@@ -13065,7 +13065,7 @@
         <v>8</v>
       </c>
       <c r="B678" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C678" s="2"/>
       <c r="D678" s="2"/>
@@ -13153,7 +13153,7 @@
     </row>
     <row r="682" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A682" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B682">
         <f>1</f>
@@ -13163,18 +13163,18 @@
         <v>18</v>
       </c>
       <c r="D682" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F682" t="s">
         <v>23</v>
       </c>
       <c r="G682" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="683" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A683" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B683">
         <f>100/200000/0.2</f>
@@ -13190,12 +13190,12 @@
         <v>23</v>
       </c>
       <c r="G683" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="684" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A684" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B684" s="3">
         <v>2.5000000000000001E-4</v>
@@ -13210,13 +13210,13 @@
         <v>23</v>
       </c>
       <c r="G684" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H684" s="3"/>
     </row>
     <row r="685" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A685" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B685">
         <v>1.0714285714285715E-4</v>
@@ -13231,7 +13231,7 @@
         <v>23</v>
       </c>
       <c r="G685" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I685" s="12"/>
     </row>
@@ -13240,7 +13240,7 @@
         <v>2</v>
       </c>
       <c r="B688" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C688" s="2"/>
       <c r="D688" s="2"/>
@@ -13290,7 +13290,7 @@
         <v>5</v>
       </c>
       <c r="B691" s="2" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C691" s="2"/>
       <c r="D691" s="2"/>
@@ -13324,7 +13324,7 @@
         <v>8</v>
       </c>
       <c r="B693" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C693" s="2"/>
       <c r="D693" s="2"/>
@@ -13412,7 +13412,7 @@
     </row>
     <row r="697" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A697" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B697">
         <v>1</v>
@@ -13421,18 +13421,18 @@
         <v>18</v>
       </c>
       <c r="D697" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F697" t="s">
         <v>23</v>
       </c>
       <c r="G697" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="698" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A698" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B698">
         <f>330/1000000/0.2</f>
@@ -13448,12 +13448,12 @@
         <v>23</v>
       </c>
       <c r="G698" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="699" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A699" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B699" s="3">
         <v>2.5000000000000005E-3</v>
@@ -13468,13 +13468,13 @@
         <v>23</v>
       </c>
       <c r="G699" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H699" s="3"/>
     </row>
     <row r="700" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A700" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B700">
         <v>1.0714285714285717E-3</v>
@@ -13489,7 +13489,7 @@
         <v>23</v>
       </c>
       <c r="G700" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="I700" s="12"/>
     </row>

--- a/premise/data/energy/lci-heat.xlsx
+++ b/premise/data/energy/lci-heat.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10414"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F3F01E9-3591-DE44-98C4-9A49739B0D7B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD4F022-8A05-AB43-AA72-90D342B8CC83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12160" yWindow="2120" windowWidth="22780" windowHeight="17520" xr2:uid="{B8299F2D-33B8-E148-B485-6429887DEB23}"/>
+    <workbookView xWindow="7460" yWindow="2120" windowWidth="22780" windowHeight="17520" xr2:uid="{B8299F2D-33B8-E148-B485-6429887DEB23}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$636</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$O$700</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2288" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2288" uniqueCount="165">
   <si>
     <t>database</t>
   </si>
@@ -503,15 +503,6 @@
     <t>electricity, low voltage</t>
   </si>
   <si>
-    <t>battery cell, NMC-811</t>
-  </si>
-  <si>
-    <t>battery cell</t>
-  </si>
-  <si>
-    <t>battery BoP</t>
-  </si>
-  <si>
     <t>electricity, used in heavy-duty vehicle</t>
   </si>
   <si>
@@ -531,6 +522,18 @@
   </si>
   <si>
     <t>hydrogen supply, distributed by pipeline</t>
+  </si>
+  <si>
+    <t>market for battery management system, for Li-ion battery</t>
+  </si>
+  <si>
+    <t>battery management system, for Li-ion battery</t>
+  </si>
+  <si>
+    <t>market for battery cell, Li-ion, NMC811</t>
+  </si>
+  <si>
+    <t>battery cell, Li-ion, NMC811</t>
   </si>
 </sst>
 </file>
@@ -630,9 +633,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -670,7 +673,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -776,7 +779,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -918,7 +921,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -928,8 +931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F0C42E2-D17A-554B-A2D9-4F73B84316EE}">
   <dimension ref="A1:O700"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A38" workbookViewId="0">
-      <selection activeCell="A65" sqref="A65"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G701" sqref="G701"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1928,7 +1931,7 @@
     </row>
     <row r="57" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B57" s="8">
         <f>0.01676/2</f>
@@ -3557,7 +3560,7 @@
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B148">
         <f>150/200000/2.15</f>
@@ -3573,7 +3576,7 @@
         <v>23</v>
       </c>
       <c r="G148" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.2">
@@ -4463,7 +4466,7 @@
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B198">
         <f>150/200000/2.15</f>
@@ -4479,7 +4482,7 @@
         <v>23</v>
       </c>
       <c r="G198" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.2">
@@ -5369,7 +5372,7 @@
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B248">
         <f>150/200000/2.15</f>
@@ -5385,7 +5388,7 @@
         <v>23</v>
       </c>
       <c r="G248" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.2">
@@ -6360,7 +6363,7 @@
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B303">
         <f>1000/1000000/8.57</f>
@@ -6376,7 +6379,7 @@
         <v>23</v>
       </c>
       <c r="G303" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.2">
@@ -7191,7 +7194,7 @@
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A349" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B349">
         <f>1000/1000000/8.57</f>
@@ -7207,7 +7210,7 @@
         <v>23</v>
       </c>
       <c r="G349" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.2">
@@ -8022,7 +8025,7 @@
     </row>
     <row r="395" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A395" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B395">
         <f>1000/1000000/8.57</f>
@@ -8038,7 +8041,7 @@
         <v>23</v>
       </c>
       <c r="G395" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="396" spans="1:12" x14ac:dyDescent="0.2">
@@ -8853,7 +8856,7 @@
     </row>
     <row r="441" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A441" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B441">
         <f>1000/1000000/8.57</f>
@@ -8869,7 +8872,7 @@
         <v>23</v>
       </c>
       <c r="G441" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="442" spans="1:12" x14ac:dyDescent="0.2">
@@ -9684,7 +9687,7 @@
     </row>
     <row r="487" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A487" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B487">
         <f>150/200000/2.15</f>
@@ -9700,7 +9703,7 @@
         <v>23</v>
       </c>
       <c r="G487" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="488" spans="1:12" x14ac:dyDescent="0.2">
@@ -13174,7 +13177,7 @@
     </row>
     <row r="683" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A683" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B683">
         <f>100/200000/0.2</f>
@@ -13190,12 +13193,12 @@
         <v>23</v>
       </c>
       <c r="G683" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="684" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A684" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="B684" s="3">
         <v>2.5000000000000001E-4</v>
@@ -13210,13 +13213,13 @@
         <v>23</v>
       </c>
       <c r="G684" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="H684" s="3"/>
     </row>
     <row r="685" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A685" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B685">
         <v>1.0714285714285715E-4</v>
@@ -13231,7 +13234,7 @@
         <v>23</v>
       </c>
       <c r="G685" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="I685" s="12"/>
     </row>
@@ -13240,7 +13243,7 @@
         <v>2</v>
       </c>
       <c r="B688" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C688" s="2"/>
       <c r="D688" s="2"/>
@@ -13432,7 +13435,7 @@
     </row>
     <row r="698" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A698" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B698">
         <f>330/1000000/0.2</f>
@@ -13448,12 +13451,12 @@
         <v>23</v>
       </c>
       <c r="G698" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="699" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A699" s="2" t="s">
-        <v>154</v>
+        <v>163</v>
       </c>
       <c r="B699" s="3">
         <v>2.5000000000000005E-3</v>
@@ -13468,13 +13471,13 @@
         <v>23</v>
       </c>
       <c r="G699" t="s">
-        <v>155</v>
+        <v>164</v>
       </c>
       <c r="H699" s="3"/>
     </row>
     <row r="700" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A700" s="2" t="s">
-        <v>156</v>
+        <v>161</v>
       </c>
       <c r="B700">
         <v>1.0714285714285717E-3</v>
@@ -13489,12 +13492,12 @@
         <v>23</v>
       </c>
       <c r="G700" s="2" t="s">
-        <v>156</v>
+        <v>162</v>
       </c>
       <c r="I700" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O636" xr:uid="{9F0C42E2-D17A-554B-A2D9-4F73B84316EE}"/>
+  <autoFilter ref="A1:O700" xr:uid="{9F0C42E2-D17A-554B-A2D9-4F73B84316EE}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/premise/data/energy/lci-heat.xlsx
+++ b/premise/data/energy/lci-heat.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/GitHub/premise/premise/data/energy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/romain/Github/premise/premise/data/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7DD4F022-8A05-AB43-AA72-90D342B8CC83}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52848EAC-2133-B84A-9BF0-2534E20E722B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7460" yWindow="2120" windowWidth="22780" windowHeight="17520" xr2:uid="{B8299F2D-33B8-E148-B485-6429887DEB23}"/>
   </bookViews>
@@ -221,9 +221,6 @@
     <t>Copper ion</t>
   </si>
   <si>
-    <t>Cyclohexane (for all cycloalkanes)</t>
-  </si>
-  <si>
     <t>Dinitrogen monoxide</t>
   </si>
   <si>
@@ -302,9 +299,6 @@
     <t>1-Pentene</t>
   </si>
   <si>
-    <t>2-Methylpentane</t>
-  </si>
-  <si>
     <t>Ethylene</t>
   </si>
   <si>
@@ -440,9 +434,6 @@
     <t>heavy fuel oil production, petroleum refinery operation</t>
   </si>
   <si>
-    <t>methanol production, from synthetic gas</t>
-  </si>
-  <si>
     <t>methanol, from biomass</t>
   </si>
   <si>
@@ -534,6 +525,15 @@
   </si>
   <si>
     <t>battery cell, Li-ion, NMC811</t>
+  </si>
+  <si>
+    <t>methanol production, biomass gasification</t>
+  </si>
+  <si>
+    <t>Isohexane</t>
+  </si>
+  <si>
+    <t>Hydrocarbons, aliphatic, alkanes, cyclic</t>
   </si>
 </sst>
 </file>
@@ -929,10 +929,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F0C42E2-D17A-554B-A2D9-4F73B84316EE}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:O700"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G701" sqref="G701"/>
+      <selection activeCell="A701" sqref="A701"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -948,7 +949,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -962,7 +964,7 @@
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
@@ -980,7 +982,7 @@
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
@@ -998,7 +1000,7 @@
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
@@ -1014,7 +1016,7 @@
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
@@ -1032,7 +1034,7 @@
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -1050,7 +1052,7 @@
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -1066,7 +1068,7 @@
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>11</v>
       </c>
@@ -1093,7 +1095,7 @@
       <c r="J10" s="2"/>
       <c r="K10" s="2"/>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="str">
         <f>B3</f>
         <v>soft wood chips from forest, burned in furnace 1000kW</v>
@@ -1123,7 +1125,7 @@
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>20</v>
       </c>
@@ -1144,7 +1146,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="14" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>2</v>
       </c>
@@ -1158,7 +1161,7 @@
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>3</v>
       </c>
@@ -1176,7 +1179,7 @@
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>4</v>
       </c>
@@ -1194,7 +1197,7 @@
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>5</v>
       </c>
@@ -1210,7 +1213,7 @@
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>6</v>
       </c>
@@ -1228,7 +1231,7 @@
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>8</v>
       </c>
@@ -1246,7 +1249,7 @@
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>10</v>
       </c>
@@ -1262,7 +1265,7 @@
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
         <v>11</v>
       </c>
@@ -1289,7 +1292,7 @@
       <c r="J21" s="2"/>
       <c r="K21" s="2"/>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="str">
         <f>B14</f>
         <v>wood pellet, burned in residential stove 9kW</v>
@@ -1319,7 +1322,7 @@
       <c r="K22" s="2"/>
       <c r="L22" s="2"/>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
@@ -1340,7 +1343,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
         <v>2</v>
       </c>
@@ -1354,7 +1358,7 @@
       <c r="G25" s="2"/>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
         <v>3</v>
       </c>
@@ -1372,7 +1376,7 @@
       <c r="K26" s="2"/>
       <c r="L26" s="2"/>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
         <v>4</v>
       </c>
@@ -1390,7 +1394,7 @@
       <c r="K27" s="2"/>
       <c r="L27" s="2"/>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>5</v>
       </c>
@@ -1406,7 +1410,7 @@
       <c r="I28" s="2"/>
       <c r="J28" s="2"/>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
         <v>6</v>
       </c>
@@ -1424,7 +1428,7 @@
       <c r="K29" s="2"/>
       <c r="L29" s="2"/>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
         <v>8</v>
       </c>
@@ -1442,7 +1446,7 @@
       <c r="K30" s="2"/>
       <c r="L30" s="2"/>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
         <v>10</v>
       </c>
@@ -1458,7 +1462,7 @@
       <c r="K31" s="2"/>
       <c r="L31" s="2"/>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
         <v>11</v>
       </c>
@@ -1485,7 +1489,7 @@
       <c r="J32" s="2"/>
       <c r="K32" s="2"/>
     </row>
-    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="str">
         <f>B25</f>
         <v>hydrogen, burned in residential boiler</v>
@@ -1515,7 +1519,7 @@
       <c r="K33" s="2"/>
       <c r="L33" s="2"/>
     </row>
-    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
         <v>24</v>
       </c>
@@ -1536,7 +1540,8 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
         <v>2</v>
       </c>
@@ -1550,7 +1555,7 @@
       <c r="G36" s="2"/>
       <c r="H36" s="2"/>
     </row>
-    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
         <v>3</v>
       </c>
@@ -1568,7 +1573,7 @@
       <c r="K37" s="2"/>
       <c r="L37" s="2"/>
     </row>
-    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
         <v>4</v>
       </c>
@@ -1586,7 +1591,7 @@
       <c r="K38" s="2"/>
       <c r="L38" s="2"/>
     </row>
-    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
         <v>5</v>
       </c>
@@ -1602,7 +1607,7 @@
       <c r="I39" s="2"/>
       <c r="J39" s="2"/>
     </row>
-    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
         <v>6</v>
       </c>
@@ -1620,7 +1625,7 @@
       <c r="K40" s="2"/>
       <c r="L40" s="2"/>
     </row>
-    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
         <v>8</v>
       </c>
@@ -1638,7 +1643,7 @@
       <c r="K41" s="2"/>
       <c r="L41" s="2"/>
     </row>
-    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
         <v>10</v>
       </c>
@@ -1654,7 +1659,7 @@
       <c r="K42" s="2"/>
       <c r="L42" s="2"/>
     </row>
-    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
         <v>11</v>
       </c>
@@ -1681,7 +1686,7 @@
       <c r="J43" s="2"/>
       <c r="K43" s="2"/>
     </row>
-    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="str">
         <f>B36</f>
         <v>hydrogen, burned in gas turbine 1GW</v>
@@ -1711,7 +1716,7 @@
       <c r="K44" s="2"/>
       <c r="L44" s="2"/>
     </row>
-    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
         <v>24</v>
       </c>
@@ -1732,12 +1737,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="47" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="2"/>
@@ -1746,7 +1752,7 @@
       <c r="G47" s="2"/>
       <c r="H47" s="2"/>
     </row>
-    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
         <v>3</v>
       </c>
@@ -1764,7 +1770,7 @@
       <c r="K48" s="2"/>
       <c r="L48" s="2"/>
     </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
         <v>4</v>
       </c>
@@ -1782,7 +1788,7 @@
       <c r="K49" s="2"/>
       <c r="L49" s="2"/>
     </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>5</v>
       </c>
@@ -1798,7 +1804,7 @@
       <c r="I50" s="2"/>
       <c r="J50" s="2"/>
     </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
         <v>6</v>
       </c>
@@ -1816,7 +1822,7 @@
       <c r="K51" s="2"/>
       <c r="L51" s="2"/>
     </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" s="2" t="s">
         <v>8</v>
       </c>
@@ -1834,7 +1840,7 @@
       <c r="K52" s="2"/>
       <c r="L52" s="2"/>
     </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
         <v>10</v>
       </c>
@@ -1850,7 +1856,7 @@
       <c r="K53" s="2"/>
       <c r="L53" s="2"/>
     </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>11</v>
       </c>
@@ -1877,7 +1883,7 @@
       <c r="J54" s="2"/>
       <c r="K54" s="2"/>
     </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" s="2" t="str">
         <f>B47</f>
         <v>hydrogen, converted in 1kWe fuel cell</v>
@@ -1907,16 +1913,16 @@
       <c r="K55" s="2"/>
       <c r="L55" s="2"/>
     </row>
-    <row r="56" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:15" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" s="4" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B56" s="5">
         <f>0.00000507/2</f>
         <v>2.5349999999999999E-6</v>
       </c>
       <c r="C56" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D56" s="4" t="s">
         <v>8</v>
@@ -1925,20 +1931,20 @@
         <v>23</v>
       </c>
       <c r="G56" s="4" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O56" s="6"/>
     </row>
-    <row r="57" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:15" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" s="2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B57" s="8">
         <f>0.01676/2</f>
         <v>8.3800000000000003E-3</v>
       </c>
       <c r="C57" s="4" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D57" s="4" t="s">
         <v>9</v>
@@ -1947,14 +1953,14 @@
         <v>23</v>
       </c>
       <c r="G57" s="4" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="J57" s="7"/>
       <c r="O57" s="6"/>
     </row>
-    <row r="58" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:15" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" s="2" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B58" s="5">
         <f>0.56%*B57</f>
@@ -1964,7 +1970,7 @@
         <v>9</v>
       </c>
       <c r="E58" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>15</v>
@@ -1972,26 +1978,27 @@
       <c r="J58" s="7"/>
       <c r="O58" s="6"/>
     </row>
-    <row r="59" spans="1:15" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:15" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" s="2" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B59" s="9">
         <f>B57*9/1000</f>
         <v>7.5420000000000006E-5</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>15</v>
       </c>
       <c r="O59" s="6"/>
     </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:15" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="61" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
         <v>2</v>
       </c>
@@ -2005,7 +2012,7 @@
       <c r="G61" s="2"/>
       <c r="H61" s="2"/>
     </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A62" s="2" t="s">
         <v>3</v>
       </c>
@@ -2023,7 +2030,7 @@
       <c r="K62" s="2"/>
       <c r="L62" s="2"/>
     </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A63" s="2" t="s">
         <v>4</v>
       </c>
@@ -2041,7 +2048,7 @@
       <c r="K63" s="2"/>
       <c r="L63" s="2"/>
     </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:15" hidden="1" x14ac:dyDescent="0.2">
       <c r="A64" s="2" t="s">
         <v>5</v>
       </c>
@@ -2057,7 +2064,7 @@
       <c r="I64" s="2"/>
       <c r="J64" s="2"/>
     </row>
-    <row r="65" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A65" s="2" t="s">
         <v>6</v>
       </c>
@@ -2075,7 +2082,7 @@
       <c r="K65" s="2"/>
       <c r="L65" s="2"/>
     </row>
-    <row r="66" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A66" s="2" t="s">
         <v>8</v>
       </c>
@@ -2093,7 +2100,7 @@
       <c r="K66" s="2"/>
       <c r="L66" s="2"/>
     </row>
-    <row r="67" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
         <v>10</v>
       </c>
@@ -2109,7 +2116,7 @@
       <c r="K67" s="2"/>
       <c r="L67" s="2"/>
     </row>
-    <row r="68" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A68" s="2" t="s">
         <v>11</v>
       </c>
@@ -2136,7 +2143,7 @@
       <c r="J68" s="2"/>
       <c r="K68" s="2"/>
     </row>
-    <row r="69" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A69" s="2" t="str">
         <f>B61</f>
         <v>hard coal, burned in hard coal industrial furnace 1-10MW</v>
@@ -2166,7 +2173,7 @@
       <c r="K69" s="2"/>
       <c r="L69" s="2"/>
     </row>
-    <row r="70" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A70" s="2" t="s">
         <v>26</v>
       </c>
@@ -2186,7 +2193,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="72" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
         <v>2</v>
       </c>
@@ -2200,7 +2208,7 @@
       <c r="G72" s="2"/>
       <c r="H72" s="2"/>
     </row>
-    <row r="73" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A73" s="2" t="s">
         <v>3</v>
       </c>
@@ -2218,7 +2226,7 @@
       <c r="K73" s="2"/>
       <c r="L73" s="2"/>
     </row>
-    <row r="74" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A74" s="2" t="s">
         <v>4</v>
       </c>
@@ -2236,7 +2244,7 @@
       <c r="K74" s="2"/>
       <c r="L74" s="2"/>
     </row>
-    <row r="75" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A75" s="2" t="s">
         <v>5</v>
       </c>
@@ -2252,7 +2260,7 @@
       <c r="I75" s="2"/>
       <c r="J75" s="2"/>
     </row>
-    <row r="76" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A76" s="2" t="s">
         <v>6</v>
       </c>
@@ -2270,7 +2278,7 @@
       <c r="K76" s="2"/>
       <c r="L76" s="2"/>
     </row>
-    <row r="77" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A77" s="2" t="s">
         <v>8</v>
       </c>
@@ -2288,7 +2296,7 @@
       <c r="K77" s="2"/>
       <c r="L77" s="2"/>
     </row>
-    <row r="78" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
         <v>10</v>
       </c>
@@ -2304,7 +2312,7 @@
       <c r="K78" s="2"/>
       <c r="L78" s="2"/>
     </row>
-    <row r="79" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A79" s="2" t="s">
         <v>11</v>
       </c>
@@ -2331,7 +2339,7 @@
       <c r="J79" s="2"/>
       <c r="K79" s="2"/>
     </row>
-    <row r="80" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A80" s="2" t="str">
         <f>B72</f>
         <v>hard coal briquettes, burned in stove 5-15kW</v>
@@ -2361,7 +2369,7 @@
       <c r="K80" s="2"/>
       <c r="L80" s="2"/>
     </row>
-    <row r="81" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A81" s="2" t="s">
         <v>39</v>
       </c>
@@ -2382,7 +2390,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="83" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="83" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
         <v>2</v>
       </c>
@@ -2396,7 +2405,7 @@
       <c r="G83" s="2"/>
       <c r="H83" s="2"/>
     </row>
-    <row r="84" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A84" s="2" t="s">
         <v>3</v>
       </c>
@@ -2414,7 +2423,7 @@
       <c r="K84" s="2"/>
       <c r="L84" s="2"/>
     </row>
-    <row r="85" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A85" s="2" t="s">
         <v>4</v>
       </c>
@@ -2432,7 +2441,7 @@
       <c r="K85" s="2"/>
       <c r="L85" s="2"/>
     </row>
-    <row r="86" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A86" s="2" t="s">
         <v>5</v>
       </c>
@@ -2448,7 +2457,7 @@
       <c r="I86" s="2"/>
       <c r="J86" s="2"/>
     </row>
-    <row r="87" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A87" s="2" t="s">
         <v>6</v>
       </c>
@@ -2466,7 +2475,7 @@
       <c r="K87" s="2"/>
       <c r="L87" s="2"/>
     </row>
-    <row r="88" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A88" s="2" t="s">
         <v>8</v>
       </c>
@@ -2484,7 +2493,7 @@
       <c r="K88" s="2"/>
       <c r="L88" s="2"/>
     </row>
-    <row r="89" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
         <v>10</v>
       </c>
@@ -2500,7 +2509,7 @@
       <c r="K89" s="2"/>
       <c r="L89" s="2"/>
     </row>
-    <row r="90" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A90" s="2" t="s">
         <v>11</v>
       </c>
@@ -2527,7 +2536,7 @@
       <c r="J90" s="2"/>
       <c r="K90" s="2"/>
     </row>
-    <row r="91" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A91" s="2" t="str">
         <f>B83</f>
         <v>light fuel oil, burned in industrial furnace 1MW</v>
@@ -2557,7 +2566,7 @@
       <c r="K91" s="2"/>
       <c r="L91" s="2"/>
     </row>
-    <row r="92" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A92" s="2" t="s">
         <v>29</v>
       </c>
@@ -2578,7 +2587,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="94" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="94" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
         <v>2</v>
       </c>
@@ -2592,7 +2602,7 @@
       <c r="G94" s="2"/>
       <c r="H94" s="2"/>
     </row>
-    <row r="95" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A95" s="2" t="s">
         <v>3</v>
       </c>
@@ -2610,7 +2620,7 @@
       <c r="K95" s="2"/>
       <c r="L95" s="2"/>
     </row>
-    <row r="96" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A96" s="2" t="s">
         <v>4</v>
       </c>
@@ -2628,7 +2638,7 @@
       <c r="K96" s="2"/>
       <c r="L96" s="2"/>
     </row>
-    <row r="97" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A97" s="2" t="s">
         <v>5</v>
       </c>
@@ -2644,7 +2654,7 @@
       <c r="I97" s="2"/>
       <c r="J97" s="2"/>
     </row>
-    <row r="98" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A98" s="2" t="s">
         <v>6</v>
       </c>
@@ -2662,7 +2672,7 @@
       <c r="K98" s="2"/>
       <c r="L98" s="2"/>
     </row>
-    <row r="99" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A99" s="2" t="s">
         <v>8</v>
       </c>
@@ -2680,7 +2690,7 @@
       <c r="K99" s="2"/>
       <c r="L99" s="2"/>
     </row>
-    <row r="100" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
         <v>10</v>
       </c>
@@ -2696,7 +2706,7 @@
       <c r="K100" s="2"/>
       <c r="L100" s="2"/>
     </row>
-    <row r="101" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A101" s="2" t="s">
         <v>11</v>
       </c>
@@ -2723,7 +2733,7 @@
       <c r="J101" s="2"/>
       <c r="K101" s="2"/>
     </row>
-    <row r="102" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A102" s="2" t="str">
         <f>B94</f>
         <v>light fuel oil, burned in residential boiler 10kW</v>
@@ -2753,7 +2763,7 @@
       <c r="K102" s="2"/>
       <c r="L102" s="2"/>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A103" s="2" t="s">
         <v>42</v>
       </c>
@@ -2774,7 +2784,8 @@
         <v>40</v>
       </c>
     </row>
-    <row r="105" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="105" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
         <v>2</v>
       </c>
@@ -2788,7 +2799,7 @@
       <c r="G105" s="2"/>
       <c r="H105" s="2"/>
     </row>
-    <row r="106" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A106" s="2" t="s">
         <v>3</v>
       </c>
@@ -2806,7 +2817,7 @@
       <c r="K106" s="2"/>
       <c r="L106" s="2"/>
     </row>
-    <row r="107" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A107" s="2" t="s">
         <v>4</v>
       </c>
@@ -2824,7 +2835,7 @@
       <c r="K107" s="2"/>
       <c r="L107" s="2"/>
     </row>
-    <row r="108" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A108" s="2" t="s">
         <v>5</v>
       </c>
@@ -2840,7 +2851,7 @@
       <c r="I108" s="2"/>
       <c r="J108" s="2"/>
     </row>
-    <row r="109" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A109" s="2" t="s">
         <v>6</v>
       </c>
@@ -2858,7 +2869,7 @@
       <c r="K109" s="2"/>
       <c r="L109" s="2"/>
     </row>
-    <row r="110" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A110" s="2" t="s">
         <v>8</v>
       </c>
@@ -2876,7 +2887,7 @@
       <c r="K110" s="2"/>
       <c r="L110" s="2"/>
     </row>
-    <row r="111" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
         <v>10</v>
       </c>
@@ -2892,7 +2903,7 @@
       <c r="K111" s="2"/>
       <c r="L111" s="2"/>
     </row>
-    <row r="112" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A112" s="2" t="s">
         <v>11</v>
       </c>
@@ -2919,7 +2930,7 @@
       <c r="J112" s="2"/>
       <c r="K112" s="2"/>
     </row>
-    <row r="113" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A113" s="2" t="str">
         <f>B105</f>
         <v>propane, burned in industrial furnace &gt;100kW</v>
@@ -2949,7 +2960,7 @@
       <c r="K113" s="2"/>
       <c r="L113" s="2"/>
     </row>
-    <row r="114" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A114" s="2" t="s">
         <v>44</v>
       </c>
@@ -2958,7 +2969,7 @@
         <v>0.95121702511060757</v>
       </c>
       <c r="C114" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D114" t="s">
         <v>17</v>
@@ -2970,7 +2981,8 @@
         <v>21</v>
       </c>
     </row>
-    <row r="116" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="116" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
         <v>2</v>
       </c>
@@ -2984,7 +2996,7 @@
       <c r="G116" s="2"/>
       <c r="H116" s="2"/>
     </row>
-    <row r="117" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A117" s="2" t="s">
         <v>3</v>
       </c>
@@ -3002,7 +3014,7 @@
       <c r="K117" s="2"/>
       <c r="L117" s="2"/>
     </row>
-    <row r="118" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A118" s="2" t="s">
         <v>4</v>
       </c>
@@ -3020,7 +3032,7 @@
       <c r="K118" s="2"/>
       <c r="L118" s="2"/>
     </row>
-    <row r="119" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A119" s="2" t="s">
         <v>5</v>
       </c>
@@ -3036,7 +3048,7 @@
       <c r="I119" s="2"/>
       <c r="J119" s="2"/>
     </row>
-    <row r="120" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A120" s="2" t="s">
         <v>6</v>
       </c>
@@ -3054,7 +3066,7 @@
       <c r="K120" s="2"/>
       <c r="L120" s="2"/>
     </row>
-    <row r="121" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A121" s="2" t="s">
         <v>8</v>
       </c>
@@ -3072,7 +3084,7 @@
       <c r="K121" s="2"/>
       <c r="L121" s="2"/>
     </row>
-    <row r="122" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
         <v>10</v>
       </c>
@@ -3088,7 +3100,7 @@
       <c r="K122" s="2"/>
       <c r="L122" s="2"/>
     </row>
-    <row r="123" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A123" s="2" t="s">
         <v>11</v>
       </c>
@@ -3115,7 +3127,7 @@
       <c r="J123" s="2"/>
       <c r="K123" s="2"/>
     </row>
-    <row r="124" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A124" s="2" t="str">
         <f>B116</f>
         <v>methanol from biomass, burned in residential boiler</v>
@@ -3145,7 +3157,7 @@
       <c r="K124" s="2"/>
       <c r="L124" s="2"/>
     </row>
-    <row r="125" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A125" s="2" t="s">
         <v>30</v>
       </c>
@@ -3166,7 +3178,8 @@
         <v>31</v>
       </c>
     </row>
-    <row r="127" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="127" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
         <v>2</v>
       </c>
@@ -3180,7 +3193,7 @@
       <c r="G127" s="2"/>
       <c r="H127" s="2"/>
     </row>
-    <row r="128" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A128" s="2" t="s">
         <v>3</v>
       </c>
@@ -3198,7 +3211,7 @@
       <c r="K128" s="2"/>
       <c r="L128" s="2"/>
     </row>
-    <row r="129" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A129" s="2" t="s">
         <v>4</v>
       </c>
@@ -3216,7 +3229,7 @@
       <c r="K129" s="2"/>
       <c r="L129" s="2"/>
     </row>
-    <row r="130" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A130" s="2" t="s">
         <v>5</v>
       </c>
@@ -3232,7 +3245,7 @@
       <c r="I130" s="2"/>
       <c r="J130" s="2"/>
     </row>
-    <row r="131" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A131" s="2" t="s">
         <v>6</v>
       </c>
@@ -3250,7 +3263,7 @@
       <c r="K131" s="2"/>
       <c r="L131" s="2"/>
     </row>
-    <row r="132" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A132" s="2" t="s">
         <v>8</v>
       </c>
@@ -3268,7 +3281,7 @@
       <c r="K132" s="2"/>
       <c r="L132" s="2"/>
     </row>
-    <row r="133" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
         <v>10</v>
       </c>
@@ -3284,7 +3297,7 @@
       <c r="K133" s="2"/>
       <c r="L133" s="2"/>
     </row>
-    <row r="134" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A134" s="2" t="s">
         <v>11</v>
       </c>
@@ -3311,7 +3324,7 @@
       <c r="J134" s="2"/>
       <c r="K134" s="2"/>
     </row>
-    <row r="135" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A135" s="2" t="str">
         <f>B127</f>
         <v>methanol from coal, burned in residential boiler</v>
@@ -3341,7 +3354,7 @@
       <c r="K135" s="2"/>
       <c r="L135" s="2"/>
     </row>
-    <row r="136" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A136" s="2" t="s">
         <v>37</v>
       </c>
@@ -3362,12 +3375,13 @@
         <v>31</v>
       </c>
     </row>
-    <row r="138" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="138" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C138" s="2"/>
       <c r="D138" s="2"/>
@@ -3376,7 +3390,7 @@
       <c r="G138" s="2"/>
       <c r="H138" s="2"/>
     </row>
-    <row r="139" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A139" s="2" t="s">
         <v>3</v>
       </c>
@@ -3394,7 +3408,7 @@
       <c r="K139" s="2"/>
       <c r="L139" s="2"/>
     </row>
-    <row r="140" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A140" s="2" t="s">
         <v>4</v>
       </c>
@@ -3412,7 +3426,7 @@
       <c r="K140" s="2"/>
       <c r="L140" s="2"/>
     </row>
-    <row r="141" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A141" s="2" t="s">
         <v>5</v>
       </c>
@@ -3428,7 +3442,7 @@
       <c r="I141" s="2"/>
       <c r="J141" s="2"/>
     </row>
-    <row r="142" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A142" s="2" t="s">
         <v>6</v>
       </c>
@@ -3446,7 +3460,7 @@
       <c r="K142" s="2"/>
       <c r="L142" s="2"/>
     </row>
-    <row r="143" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A143" s="2" t="s">
         <v>8</v>
       </c>
@@ -3464,7 +3478,7 @@
       <c r="K143" s="2"/>
       <c r="L143" s="2"/>
     </row>
-    <row r="144" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
         <v>10</v>
       </c>
@@ -3480,7 +3494,7 @@
       <c r="K144" s="2"/>
       <c r="L144" s="2"/>
     </row>
-    <row r="145" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A145" s="2" t="s">
         <v>11</v>
       </c>
@@ -3507,7 +3521,7 @@
       <c r="J145" s="2"/>
       <c r="K145" s="2"/>
     </row>
-    <row r="146" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A146" s="2" t="str">
         <f>B138</f>
         <v>diesel, burned in passenger car</v>
@@ -3537,9 +3551,9 @@
       <c r="K146" s="2"/>
       <c r="L146" s="2"/>
     </row>
-    <row r="147" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A147" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B147">
         <f>1/43</f>
@@ -3558,16 +3572,16 @@
         <v>46</v>
       </c>
     </row>
-    <row r="148" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A148" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B148">
         <f>150/200000/2.15</f>
         <v>3.4883720930232559E-4</v>
       </c>
       <c r="C148" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D148" t="s">
         <v>9</v>
@@ -3576,10 +3590,10 @@
         <v>23</v>
       </c>
       <c r="G148" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="149" spans="1:12" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="149" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>47</v>
       </c>
@@ -3597,7 +3611,7 @@
       </c>
       <c r="H149" s="3"/>
     </row>
-    <row r="150" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>48</v>
       </c>
@@ -3615,7 +3629,7 @@
       </c>
       <c r="H150" s="3"/>
     </row>
-    <row r="151" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>49</v>
       </c>
@@ -3633,7 +3647,7 @@
       </c>
       <c r="H151" s="3"/>
     </row>
-    <row r="152" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>50</v>
       </c>
@@ -3651,7 +3665,7 @@
       </c>
       <c r="H152" s="3"/>
     </row>
-    <row r="153" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>51</v>
       </c>
@@ -3669,7 +3683,7 @@
       </c>
       <c r="H153" s="3"/>
     </row>
-    <row r="154" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>52</v>
       </c>
@@ -3687,7 +3701,7 @@
       </c>
       <c r="H154" s="3"/>
     </row>
-    <row r="155" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>53</v>
       </c>
@@ -3705,7 +3719,7 @@
       </c>
       <c r="H155" s="3"/>
     </row>
-    <row r="156" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>54</v>
       </c>
@@ -3723,7 +3737,7 @@
       </c>
       <c r="H156" s="3"/>
     </row>
-    <row r="157" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>55</v>
       </c>
@@ -3742,7 +3756,7 @@
       </c>
       <c r="H157" s="3"/>
     </row>
-    <row r="158" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>56</v>
       </c>
@@ -3760,7 +3774,7 @@
       </c>
       <c r="H158" s="3"/>
     </row>
-    <row r="159" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>57</v>
       </c>
@@ -3778,7 +3792,7 @@
       </c>
       <c r="H159" s="3"/>
     </row>
-    <row r="160" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>58</v>
       </c>
@@ -3796,7 +3810,7 @@
       </c>
       <c r="H160" s="3"/>
     </row>
-    <row r="161" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>59</v>
       </c>
@@ -3816,7 +3830,7 @@
     </row>
     <row r="162" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
-        <v>60</v>
+        <v>164</v>
       </c>
       <c r="B162" s="3">
         <v>7.1789570411210658E-8</v>
@@ -3832,9 +3846,9 @@
       </c>
       <c r="H162" s="3"/>
     </row>
-    <row r="163" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B163" s="3">
         <v>1.1627900298644611E-6</v>
@@ -3850,9 +3864,9 @@
       </c>
       <c r="H163" s="3"/>
     </row>
-    <row r="164" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B164" s="3">
         <v>3.646242366932188E-8</v>
@@ -3868,9 +3882,9 @@
       </c>
       <c r="H164" s="3"/>
     </row>
-    <row r="165" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B165" s="3">
         <v>1.2114072625668476E-6</v>
@@ -3886,9 +3900,9 @@
       </c>
       <c r="H165" s="3"/>
     </row>
-    <row r="166" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B166" s="3">
         <v>1.3252688602888143E-6</v>
@@ -3904,9 +3918,9 @@
       </c>
       <c r="H166" s="3"/>
     </row>
-    <row r="167" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B167" s="3">
         <v>2.2087814338146904E-8</v>
@@ -3922,9 +3936,9 @@
       </c>
       <c r="H167" s="3"/>
     </row>
-    <row r="168" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B168" s="3">
         <v>1.9186035492763611E-15</v>
@@ -3940,9 +3954,9 @@
       </c>
       <c r="H168" s="3"/>
     </row>
-    <row r="169" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B169" s="3">
         <v>4.6511601194578451E-13</v>
@@ -3958,9 +3972,9 @@
       </c>
       <c r="H169" s="3"/>
     </row>
-    <row r="170" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B170" s="3">
         <v>6.6447090752701953E-7</v>
@@ -3976,9 +3990,9 @@
       </c>
       <c r="H170" s="3"/>
     </row>
-    <row r="171" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B171" s="3">
         <v>1.3252688602888143E-7</v>
@@ -3994,9 +4008,9 @@
       </c>
       <c r="H171" s="3"/>
     </row>
-    <row r="172" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A172" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B172" s="3">
         <v>5.8566933256401625E-6</v>
@@ -4012,9 +4026,9 @@
       </c>
       <c r="H172" s="3"/>
     </row>
-    <row r="173" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B173" s="3">
         <v>1.6279060418102458E-9</v>
@@ -4030,9 +4044,9 @@
       </c>
       <c r="H173" s="3"/>
     </row>
-    <row r="174" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B174">
         <v>2.2614048584510013E-4</v>
@@ -4048,9 +4062,9 @@
       </c>
       <c r="H174" s="3"/>
     </row>
-    <row r="175" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B175" s="3">
         <v>4.2883696301401334E-9</v>
@@ -4066,9 +4080,9 @@
       </c>
       <c r="H175" s="3"/>
     </row>
-    <row r="176" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A176" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B176" s="3">
         <v>6.3929447213629726E-7</v>
@@ -4084,9 +4098,9 @@
       </c>
       <c r="H176" s="3"/>
     </row>
-    <row r="177" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B177" s="3">
         <v>4.417562867629381E-9</v>
@@ -4102,9 +4116,9 @@
       </c>
       <c r="H177" s="3"/>
     </row>
-    <row r="178" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B178" s="3">
         <v>1.2147463123534157E-8</v>
@@ -4120,9 +4134,9 @@
       </c>
       <c r="H178" s="3"/>
     </row>
-    <row r="179" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B179" s="3">
         <v>3.9768082958024133E-7</v>
@@ -4138,9 +4152,9 @@
       </c>
       <c r="H179" s="3"/>
     </row>
-    <row r="180" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B180" s="3">
         <v>2.3255800597289225E-10</v>
@@ -4156,9 +4170,9 @@
       </c>
       <c r="H180" s="3"/>
     </row>
-    <row r="181" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B181" s="3">
         <v>4.0869969387591558E-8</v>
@@ -4174,9 +4188,9 @@
       </c>
       <c r="H181" s="3"/>
     </row>
-    <row r="182" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A182" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B182" s="3">
         <v>4.651160119457845E-7</v>
@@ -4192,9 +4206,9 @@
       </c>
       <c r="H182" s="3"/>
     </row>
-    <row r="183" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A183" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B183" s="3">
         <v>7.619711612948033E-8</v>
@@ -4210,9 +4224,9 @@
       </c>
       <c r="H183" s="3"/>
     </row>
-    <row r="184" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A184" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B184" s="3">
         <v>2.3255800597289226E-8</v>
@@ -4228,9 +4242,9 @@
       </c>
       <c r="H184" s="3"/>
     </row>
-    <row r="185" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B185" s="3">
         <v>6.7382024692940973E-8</v>
@@ -4246,9 +4260,9 @@
       </c>
       <c r="H185" s="3"/>
     </row>
-    <row r="186" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B186" s="3">
         <v>2.9821053643838246E-8</v>
@@ -4264,16 +4278,16 @@
       </c>
       <c r="H186" s="3"/>
     </row>
-    <row r="187" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="F187" s="2"/>
       <c r="H187" s="3"/>
     </row>
-    <row r="188" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A188" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C188" s="2"/>
       <c r="D188" s="2"/>
@@ -4282,7 +4296,7 @@
       <c r="G188" s="2"/>
       <c r="H188" s="2"/>
     </row>
-    <row r="189" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A189" s="2" t="s">
         <v>3</v>
       </c>
@@ -4300,7 +4314,7 @@
       <c r="K189" s="2"/>
       <c r="L189" s="2"/>
     </row>
-    <row r="190" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A190" s="2" t="s">
         <v>4</v>
       </c>
@@ -4318,7 +4332,7 @@
       <c r="K190" s="2"/>
       <c r="L190" s="2"/>
     </row>
-    <row r="191" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A191" s="2" t="s">
         <v>5</v>
       </c>
@@ -4334,7 +4348,7 @@
       <c r="I191" s="2"/>
       <c r="J191" s="2"/>
     </row>
-    <row r="192" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A192" s="2" t="s">
         <v>6</v>
       </c>
@@ -4352,7 +4366,7 @@
       <c r="K192" s="2"/>
       <c r="L192" s="2"/>
     </row>
-    <row r="193" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A193" s="2" t="s">
         <v>8</v>
       </c>
@@ -4370,7 +4384,7 @@
       <c r="K193" s="2"/>
       <c r="L193" s="2"/>
     </row>
-    <row r="194" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A194" s="1" t="s">
         <v>10</v>
       </c>
@@ -4386,7 +4400,7 @@
       <c r="K194" s="2"/>
       <c r="L194" s="2"/>
     </row>
-    <row r="195" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A195" s="2" t="s">
         <v>11</v>
       </c>
@@ -4413,7 +4427,7 @@
       <c r="J195" s="2"/>
       <c r="K195" s="2"/>
     </row>
-    <row r="196" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A196" s="2" t="str">
         <f>B188</f>
         <v>biodiesel, burned in passenger car</v>
@@ -4443,9 +4457,9 @@
       <c r="K196" s="2"/>
       <c r="L196" s="2"/>
     </row>
-    <row r="197" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A197" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B197">
         <f>1/43</f>
@@ -4461,19 +4475,19 @@
         <v>23</v>
       </c>
       <c r="G197" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="198" spans="1:12" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="198" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A198" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B198">
         <f>150/200000/2.15</f>
         <v>3.4883720930232559E-4</v>
       </c>
       <c r="C198" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D198" t="s">
         <v>9</v>
@@ -4482,10 +4496,10 @@
         <v>23</v>
       </c>
       <c r="G198" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="199" spans="1:12" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="199" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>47</v>
       </c>
@@ -4503,7 +4517,7 @@
       </c>
       <c r="H199" s="3"/>
     </row>
-    <row r="200" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A200" t="s">
         <v>48</v>
       </c>
@@ -4521,7 +4535,7 @@
       </c>
       <c r="H200" s="3"/>
     </row>
-    <row r="201" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A201" t="s">
         <v>49</v>
       </c>
@@ -4539,7 +4553,7 @@
       </c>
       <c r="H201" s="3"/>
     </row>
-    <row r="202" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A202" t="s">
         <v>50</v>
       </c>
@@ -4557,7 +4571,7 @@
       </c>
       <c r="H202" s="3"/>
     </row>
-    <row r="203" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A203" t="s">
         <v>51</v>
       </c>
@@ -4575,7 +4589,7 @@
       </c>
       <c r="H203" s="3"/>
     </row>
-    <row r="204" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A204" t="s">
         <v>52</v>
       </c>
@@ -4593,7 +4607,7 @@
       </c>
       <c r="H204" s="3"/>
     </row>
-    <row r="205" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A205" t="s">
         <v>53</v>
       </c>
@@ -4611,7 +4625,7 @@
       </c>
       <c r="H205" s="3"/>
     </row>
-    <row r="206" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A206" t="s">
         <v>54</v>
       </c>
@@ -4629,9 +4643,9 @@
       </c>
       <c r="H206" s="3"/>
     </row>
-    <row r="207" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A207" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B207">
         <f>B197*3.15</f>
@@ -4648,9 +4662,9 @@
       </c>
       <c r="H207" s="3"/>
     </row>
-    <row r="208" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A208" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B208" s="3">
         <v>2.1069404153243686E-5</v>
@@ -4666,7 +4680,7 @@
       </c>
       <c r="H208" s="3"/>
     </row>
-    <row r="209" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A209" t="s">
         <v>57</v>
       </c>
@@ -4684,7 +4698,7 @@
       </c>
       <c r="H209" s="3"/>
     </row>
-    <row r="210" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A210" t="s">
         <v>58</v>
       </c>
@@ -4702,7 +4716,7 @@
       </c>
       <c r="H210" s="3"/>
     </row>
-    <row r="211" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A211" t="s">
         <v>59</v>
       </c>
@@ -4722,7 +4736,7 @@
     </row>
     <row r="212" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A212" t="s">
-        <v>60</v>
+        <v>164</v>
       </c>
       <c r="B212" s="3">
         <v>7.1789570411210658E-8</v>
@@ -4738,9 +4752,9 @@
       </c>
       <c r="H212" s="3"/>
     </row>
-    <row r="213" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A213" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B213" s="3">
         <v>1.1627900298644611E-6</v>
@@ -4756,9 +4770,9 @@
       </c>
       <c r="H213" s="3"/>
     </row>
-    <row r="214" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A214" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B214" s="3">
         <v>3.646242366932188E-8</v>
@@ -4774,9 +4788,9 @@
       </c>
       <c r="H214" s="3"/>
     </row>
-    <row r="215" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A215" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B215" s="3">
         <v>1.2114072625668476E-6</v>
@@ -4792,9 +4806,9 @@
       </c>
       <c r="H215" s="3"/>
     </row>
-    <row r="216" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A216" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B216" s="3">
         <v>1.3252688602888143E-6</v>
@@ -4810,9 +4824,9 @@
       </c>
       <c r="H216" s="3"/>
     </row>
-    <row r="217" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A217" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B217" s="3">
         <v>2.2087814338146904E-8</v>
@@ -4828,9 +4842,9 @@
       </c>
       <c r="H217" s="3"/>
     </row>
-    <row r="218" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A218" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B218" s="3">
         <v>1.9186035492763611E-15</v>
@@ -4846,9 +4860,9 @@
       </c>
       <c r="H218" s="3"/>
     </row>
-    <row r="219" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A219" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B219" s="3">
         <v>4.6511601194578451E-13</v>
@@ -4864,9 +4878,9 @@
       </c>
       <c r="H219" s="3"/>
     </row>
-    <row r="220" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A220" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B220" s="3">
         <v>6.6447090752701953E-7</v>
@@ -4882,9 +4896,9 @@
       </c>
       <c r="H220" s="3"/>
     </row>
-    <row r="221" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A221" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B221" s="3">
         <v>1.3252688602888143E-7</v>
@@ -4900,9 +4914,9 @@
       </c>
       <c r="H221" s="3"/>
     </row>
-    <row r="222" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A222" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B222" s="3">
         <v>5.8566933256401625E-6</v>
@@ -4918,9 +4932,9 @@
       </c>
       <c r="H222" s="3"/>
     </row>
-    <row r="223" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A223" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B223" s="3">
         <v>1.6279060418102458E-9</v>
@@ -4936,9 +4950,9 @@
       </c>
       <c r="H223" s="3"/>
     </row>
-    <row r="224" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A224" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B224">
         <v>2.2614048584510013E-4</v>
@@ -4954,9 +4968,9 @@
       </c>
       <c r="H224" s="3"/>
     </row>
-    <row r="225" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A225" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B225" s="3">
         <v>4.2883696301401334E-9</v>
@@ -4972,9 +4986,9 @@
       </c>
       <c r="H225" s="3"/>
     </row>
-    <row r="226" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A226" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B226" s="3">
         <v>6.3929447213629726E-7</v>
@@ -4990,9 +5004,9 @@
       </c>
       <c r="H226" s="3"/>
     </row>
-    <row r="227" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A227" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B227" s="3">
         <v>4.417562867629381E-9</v>
@@ -5008,9 +5022,9 @@
       </c>
       <c r="H227" s="3"/>
     </row>
-    <row r="228" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A228" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B228" s="3">
         <v>1.2147463123534157E-8</v>
@@ -5026,9 +5040,9 @@
       </c>
       <c r="H228" s="3"/>
     </row>
-    <row r="229" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A229" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B229" s="3">
         <v>3.9768082958024133E-7</v>
@@ -5044,9 +5058,9 @@
       </c>
       <c r="H229" s="3"/>
     </row>
-    <row r="230" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A230" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B230" s="3">
         <v>2.3255800597289225E-10</v>
@@ -5062,9 +5076,9 @@
       </c>
       <c r="H230" s="3"/>
     </row>
-    <row r="231" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A231" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B231" s="3">
         <v>4.0869969387591558E-8</v>
@@ -5080,9 +5094,9 @@
       </c>
       <c r="H231" s="3"/>
     </row>
-    <row r="232" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A232" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B232" s="3">
         <v>4.651160119457845E-7</v>
@@ -5098,9 +5112,9 @@
       </c>
       <c r="H232" s="3"/>
     </row>
-    <row r="233" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A233" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B233" s="3">
         <v>7.619711612948033E-8</v>
@@ -5116,9 +5130,9 @@
       </c>
       <c r="H233" s="3"/>
     </row>
-    <row r="234" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A234" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B234" s="3">
         <v>2.3255800597289226E-8</v>
@@ -5134,9 +5148,9 @@
       </c>
       <c r="H234" s="3"/>
     </row>
-    <row r="235" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A235" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B235" s="3">
         <v>6.7382024692940973E-8</v>
@@ -5152,9 +5166,9 @@
       </c>
       <c r="H235" s="3"/>
     </row>
-    <row r="236" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A236" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B236" s="3">
         <v>2.9821053643838246E-8</v>
@@ -5170,16 +5184,16 @@
       </c>
       <c r="H236" s="3"/>
     </row>
-    <row r="237" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="F237" s="2"/>
       <c r="H237" s="3"/>
     </row>
-    <row r="238" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A238" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C238" s="2"/>
       <c r="D238" s="2"/>
@@ -5188,7 +5202,7 @@
       <c r="G238" s="2"/>
       <c r="H238" s="2"/>
     </row>
-    <row r="239" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A239" s="2" t="s">
         <v>3</v>
       </c>
@@ -5206,7 +5220,7 @@
       <c r="K239" s="2"/>
       <c r="L239" s="2"/>
     </row>
-    <row r="240" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A240" s="2" t="s">
         <v>4</v>
       </c>
@@ -5224,7 +5238,7 @@
       <c r="K240" s="2"/>
       <c r="L240" s="2"/>
     </row>
-    <row r="241" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A241" s="2" t="s">
         <v>5</v>
       </c>
@@ -5240,7 +5254,7 @@
       <c r="I241" s="2"/>
       <c r="J241" s="2"/>
     </row>
-    <row r="242" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A242" s="2" t="s">
         <v>6</v>
       </c>
@@ -5258,7 +5272,7 @@
       <c r="K242" s="2"/>
       <c r="L242" s="2"/>
     </row>
-    <row r="243" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A243" s="2" t="s">
         <v>8</v>
       </c>
@@ -5276,7 +5290,7 @@
       <c r="K243" s="2"/>
       <c r="L243" s="2"/>
     </row>
-    <row r="244" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A244" s="1" t="s">
         <v>10</v>
       </c>
@@ -5292,7 +5306,7 @@
       <c r="K244" s="2"/>
       <c r="L244" s="2"/>
     </row>
-    <row r="245" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A245" s="2" t="s">
         <v>11</v>
       </c>
@@ -5319,7 +5333,7 @@
       <c r="J245" s="2"/>
       <c r="K245" s="2"/>
     </row>
-    <row r="246" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A246" s="2" t="str">
         <f>B238</f>
         <v>petrol, burned in passenger car</v>
@@ -5349,9 +5363,9 @@
       <c r="K246" s="2"/>
       <c r="L246" s="2"/>
     </row>
-    <row r="247" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A247" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B247">
         <f>1/42.6</f>
@@ -5367,19 +5381,19 @@
         <v>23</v>
       </c>
       <c r="G247" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="248" spans="1:12" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="248" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A248" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B248">
         <f>150/200000/2.15</f>
         <v>3.4883720930232559E-4</v>
       </c>
       <c r="C248" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D248" t="s">
         <v>9</v>
@@ -5388,12 +5402,12 @@
         <v>23</v>
       </c>
       <c r="G248" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="249" spans="1:12" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="249" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A249" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B249" s="3">
         <v>1.4547114129662022E-7</v>
@@ -5409,9 +5423,9 @@
       </c>
       <c r="H249" s="3"/>
     </row>
-    <row r="250" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A250" t="s">
-        <v>87</v>
+        <v>163</v>
       </c>
       <c r="B250" s="3">
         <v>2.3599288167039204E-6</v>
@@ -5427,7 +5441,7 @@
       </c>
       <c r="H250" s="3"/>
     </row>
-    <row r="251" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A251" t="s">
         <v>47</v>
       </c>
@@ -5445,7 +5459,7 @@
       </c>
       <c r="H251" s="3"/>
     </row>
-    <row r="252" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A252" t="s">
         <v>48</v>
       </c>
@@ -5463,7 +5477,7 @@
       </c>
       <c r="H252" s="3"/>
     </row>
-    <row r="253" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A253" t="s">
         <v>49</v>
       </c>
@@ -5481,7 +5495,7 @@
       </c>
       <c r="H253" s="3"/>
     </row>
-    <row r="254" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A254" t="s">
         <v>50</v>
       </c>
@@ -5499,7 +5513,7 @@
       </c>
       <c r="H254" s="3"/>
     </row>
-    <row r="255" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A255" t="s">
         <v>51</v>
       </c>
@@ -5517,7 +5531,7 @@
       </c>
       <c r="H255" s="3"/>
     </row>
-    <row r="256" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A256" t="s">
         <v>52</v>
       </c>
@@ -5535,7 +5549,7 @@
       </c>
       <c r="H256" s="3"/>
     </row>
-    <row r="257" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A257" t="s">
         <v>53</v>
       </c>
@@ -5553,7 +5567,7 @@
       </c>
       <c r="H257" s="3"/>
     </row>
-    <row r="258" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A258" t="s">
         <v>54</v>
       </c>
@@ -5571,7 +5585,7 @@
       </c>
       <c r="H258" s="3"/>
     </row>
-    <row r="259" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A259" t="s">
         <v>55</v>
       </c>
@@ -5589,7 +5603,7 @@
       </c>
       <c r="H259" s="3"/>
     </row>
-    <row r="260" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A260" t="s">
         <v>56</v>
       </c>
@@ -5607,7 +5621,7 @@
       </c>
       <c r="H260" s="3"/>
     </row>
-    <row r="261" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A261" t="s">
         <v>57</v>
       </c>
@@ -5625,7 +5639,7 @@
       </c>
       <c r="H261" s="3"/>
     </row>
-    <row r="262" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A262" t="s">
         <v>58</v>
       </c>
@@ -5643,7 +5657,7 @@
       </c>
       <c r="H262" s="3"/>
     </row>
-    <row r="263" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A263" t="s">
         <v>59</v>
       </c>
@@ -5663,7 +5677,7 @@
     </row>
     <row r="264" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A264" t="s">
-        <v>60</v>
+        <v>164</v>
       </c>
       <c r="B264" s="3">
         <v>9.7553481893140337E-8</v>
@@ -5679,9 +5693,9 @@
       </c>
       <c r="H264" s="3"/>
     </row>
-    <row r="265" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A265" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B265" s="3">
         <v>3.0516431924882642E-6</v>
@@ -5697,9 +5711,9 @@
       </c>
       <c r="H265" s="3"/>
     </row>
-    <row r="266" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A266" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B266" s="3">
         <v>3.738595604189168E-7</v>
@@ -5715,9 +5729,9 @@
       </c>
       <c r="H266" s="3"/>
     </row>
-    <row r="267" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A267" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B267" s="3">
         <v>8.4158173387917866E-9</v>
@@ -5733,9 +5747,9 @@
       </c>
       <c r="H267" s="3"/>
     </row>
-    <row r="268" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A268" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B268" s="3">
         <v>6.2458409966156062E-7</v>
@@ -5751,9 +5765,9 @@
       </c>
       <c r="H268" s="3"/>
     </row>
-    <row r="269" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A269" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B269" s="3">
         <v>1.4547114129662022E-7</v>
@@ -5769,9 +5783,9 @@
       </c>
       <c r="H269" s="3"/>
     </row>
-    <row r="270" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A270" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B270" s="3">
         <v>6.3317491509246337E-8</v>
@@ -5787,9 +5801,9 @@
       </c>
       <c r="H270" s="3"/>
     </row>
-    <row r="271" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A271" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B271" s="3">
         <v>1.3777122524373701E-7</v>
@@ -5805,9 +5819,9 @@
       </c>
       <c r="H271" s="3"/>
     </row>
-    <row r="272" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A272" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B272" s="3">
         <v>3.5211267605633819E-11</v>
@@ -5823,9 +5837,9 @@
       </c>
       <c r="H272" s="3"/>
     </row>
-    <row r="273" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A273" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B273" s="3">
         <v>1.6431924882629114E-12</v>
@@ -5841,9 +5855,9 @@
       </c>
       <c r="H273" s="3"/>
     </row>
-    <row r="274" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A274" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B274" s="3">
         <v>5.7558463387048561E-6</v>
@@ -5859,9 +5873,9 @@
       </c>
       <c r="H274" s="3"/>
     </row>
-    <row r="275" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A275" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="B275" s="3">
         <v>4.2794987979867499E-9</v>
@@ -5877,9 +5891,9 @@
       </c>
       <c r="H275" s="3"/>
     </row>
-    <row r="276" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A276" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B276" s="3">
         <v>2.1817489411000107E-5</v>
@@ -5895,9 +5909,9 @@
       </c>
       <c r="H276" s="3"/>
     </row>
-    <row r="277" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A277" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B277" s="3">
         <v>1.6431924882629115E-9</v>
@@ -5913,9 +5927,9 @@
       </c>
       <c r="H277" s="3"/>
     </row>
-    <row r="278" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A278" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B278" s="3">
         <v>1.0423522722828692E-5</v>
@@ -5931,9 +5945,9 @@
       </c>
       <c r="H278" s="3"/>
     </row>
-    <row r="279" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A279" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B279" s="3">
         <v>8.1690140845070448E-10</v>
@@ -5949,9 +5963,9 @@
       </c>
       <c r="H279" s="3"/>
     </row>
-    <row r="280" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A280" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B280" s="3">
         <v>3.3122366161369572E-7</v>
@@ -5967,9 +5981,9 @@
       </c>
       <c r="H280" s="3"/>
     </row>
-    <row r="281" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A281" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B281" s="3">
         <v>2.7827878429139121E-6</v>
@@ -5985,9 +5999,9 @@
       </c>
       <c r="H281" s="3"/>
     </row>
-    <row r="282" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A282" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B282" s="3">
         <v>1.789116858072825E-6</v>
@@ -6003,9 +6017,9 @@
       </c>
       <c r="H282" s="3"/>
     </row>
-    <row r="283" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A283" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B283" s="3">
         <v>4.7122213530248159E-8</v>
@@ -6021,9 +6035,9 @@
       </c>
       <c r="H283" s="3"/>
     </row>
-    <row r="284" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A284" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B284" s="3">
         <v>3.2676916472359795E-7</v>
@@ -6039,9 +6053,9 @@
       </c>
       <c r="H284" s="3"/>
     </row>
-    <row r="285" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A285" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B285" s="3">
         <v>2.3474178403755876E-10</v>
@@ -6057,9 +6071,9 @@
       </c>
       <c r="H285" s="3"/>
     </row>
-    <row r="286" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A286" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B286" s="3">
         <v>8.6417239667896019E-8</v>
@@ -6075,9 +6089,9 @@
       </c>
       <c r="H286" s="3"/>
     </row>
-    <row r="287" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A287" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B287" s="3">
         <v>4.6948356807511755E-7</v>
@@ -6093,9 +6107,9 @@
       </c>
       <c r="H287" s="3"/>
     </row>
-    <row r="288" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A288" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B288" s="3">
         <v>2.4137009577343855E-6</v>
@@ -6111,9 +6125,9 @@
       </c>
       <c r="H288" s="3"/>
     </row>
-    <row r="289" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A289" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B289" s="3">
         <v>2.3474178403755879E-8</v>
@@ -6129,9 +6143,9 @@
       </c>
       <c r="H289" s="3"/>
     </row>
-    <row r="290" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A290" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B290" s="3">
         <v>1.0417159155842839E-6</v>
@@ -6147,9 +6161,9 @@
       </c>
       <c r="H290" s="3"/>
     </row>
-    <row r="291" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A291" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B291" s="3">
         <v>2.4967455068997787E-7</v>
@@ -6165,12 +6179,13 @@
       </c>
       <c r="H291" s="3"/>
     </row>
-    <row r="293" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="293" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A293" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C293" s="2"/>
       <c r="D293" s="2"/>
@@ -6179,7 +6194,7 @@
       <c r="G293" s="2"/>
       <c r="H293" s="2"/>
     </row>
-    <row r="294" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A294" s="2" t="s">
         <v>3</v>
       </c>
@@ -6197,7 +6212,7 @@
       <c r="K294" s="2"/>
       <c r="L294" s="2"/>
     </row>
-    <row r="295" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A295" s="2" t="s">
         <v>4</v>
       </c>
@@ -6215,7 +6230,7 @@
       <c r="K295" s="2"/>
       <c r="L295" s="2"/>
     </row>
-    <row r="296" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A296" s="2" t="s">
         <v>5</v>
       </c>
@@ -6231,7 +6246,7 @@
       <c r="I296" s="2"/>
       <c r="J296" s="2"/>
     </row>
-    <row r="297" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A297" s="2" t="s">
         <v>6</v>
       </c>
@@ -6249,7 +6264,7 @@
       <c r="K297" s="2"/>
       <c r="L297" s="2"/>
     </row>
-    <row r="298" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A298" s="2" t="s">
         <v>8</v>
       </c>
@@ -6267,7 +6282,7 @@
       <c r="K298" s="2"/>
       <c r="L298" s="2"/>
     </row>
-    <row r="299" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A299" s="1" t="s">
         <v>10</v>
       </c>
@@ -6283,7 +6298,7 @@
       <c r="K299" s="2"/>
       <c r="L299" s="2"/>
     </row>
-    <row r="300" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A300" s="2" t="s">
         <v>11</v>
       </c>
@@ -6310,7 +6325,7 @@
       <c r="J300" s="2"/>
       <c r="K300" s="2"/>
     </row>
-    <row r="301" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A301" s="2" t="str">
         <f>B293</f>
         <v>diesel, burned in heavy-duty vehicle</v>
@@ -6340,9 +6355,9 @@
       <c r="K301" s="2"/>
       <c r="L301" s="2"/>
     </row>
-    <row r="302" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A302" s="2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B302">
         <f>1/43</f>
@@ -6361,9 +6376,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="303" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A303" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B303">
         <f>1000/1000000/8.57</f>
@@ -6379,10 +6394,10 @@
         <v>23</v>
       </c>
       <c r="G303" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="304" spans="1:12" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="304" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A304" t="s">
         <v>47</v>
       </c>
@@ -6401,7 +6416,7 @@
       <c r="H304" s="3"/>
       <c r="J304" s="3"/>
     </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A305" t="s">
         <v>49</v>
       </c>
@@ -6419,7 +6434,7 @@
       </c>
       <c r="H305" s="3"/>
     </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A306" t="s">
         <v>50</v>
       </c>
@@ -6437,9 +6452,9 @@
       </c>
       <c r="H306" s="3"/>
     </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A307" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B307" s="3">
         <v>2.3255813953488445E-12</v>
@@ -6455,7 +6470,7 @@
       </c>
       <c r="H307" s="3"/>
     </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A308" t="s">
         <v>51</v>
       </c>
@@ -6473,7 +6488,7 @@
       </c>
       <c r="H308" s="3"/>
     </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A309" t="s">
         <v>52</v>
       </c>
@@ -6491,7 +6506,7 @@
       </c>
       <c r="H309" s="3"/>
     </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A310" t="s">
         <v>53</v>
       </c>
@@ -6509,7 +6524,7 @@
       </c>
       <c r="H310" s="3"/>
     </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A311" t="s">
         <v>54</v>
       </c>
@@ -6527,7 +6542,7 @@
       </c>
       <c r="H311" s="3"/>
     </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A312" t="s">
         <v>55</v>
       </c>
@@ -6546,7 +6561,7 @@
       <c r="H312" s="3"/>
       <c r="I312" s="3"/>
     </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A313" t="s">
         <v>56</v>
       </c>
@@ -6564,7 +6579,7 @@
       </c>
       <c r="H313" s="3"/>
     </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A314" t="s">
         <v>57</v>
       </c>
@@ -6582,7 +6597,7 @@
       </c>
       <c r="H314" s="3"/>
     </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A315" t="s">
         <v>58</v>
       </c>
@@ -6600,7 +6615,7 @@
       </c>
       <c r="H315" s="3"/>
     </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A316" t="s">
         <v>59</v>
       </c>
@@ -6618,9 +6633,9 @@
       </c>
       <c r="H316" s="3"/>
     </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A317" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B317" s="3">
         <v>3.7969387682723317E-6</v>
@@ -6636,9 +6651,9 @@
       </c>
       <c r="H317" s="3"/>
     </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A318" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B318" s="3">
         <v>5.966645671897956E-10</v>
@@ -6654,9 +6669,9 @@
       </c>
       <c r="H318" s="3"/>
     </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A319" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B319" s="3">
         <v>1.6706607881343357E-7</v>
@@ -6672,9 +6687,9 @@
       </c>
       <c r="H319" s="3"/>
     </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A320" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B320" s="3">
         <v>5.9666456718979566E-9</v>
@@ -6690,9 +6705,9 @@
       </c>
       <c r="H320" s="3"/>
     </row>
-    <row r="321" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A321" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B321" s="3">
         <v>1.2116279069793652E-9</v>
@@ -6708,9 +6723,9 @@
       </c>
       <c r="H321" s="3"/>
     </row>
-    <row r="322" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A322" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B322" s="3">
         <v>1.2325581395334337E-10</v>
@@ -6726,9 +6741,9 @@
       </c>
       <c r="H322" s="3"/>
     </row>
-    <row r="323" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A323" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B323" s="3">
         <v>4.890693292186907E-8</v>
@@ -6744,9 +6759,9 @@
       </c>
       <c r="H323" s="3"/>
     </row>
-    <row r="324" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A324" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B324" s="3">
         <v>1.6155687597619975E-6</v>
@@ -6762,9 +6777,9 @@
       </c>
       <c r="H324" s="3"/>
     </row>
-    <row r="325" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A325" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B325" s="3">
         <v>2.0465116279127991E-10</v>
@@ -6780,9 +6795,9 @@
       </c>
       <c r="H325" s="3"/>
     </row>
-    <row r="326" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A326" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B326" s="3">
         <v>3.1855518160413698E-5</v>
@@ -6798,9 +6813,9 @@
       </c>
       <c r="H326" s="3"/>
     </row>
-    <row r="327" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A327" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B327" s="3">
         <v>1.8186046511685154E-9</v>
@@ -6816,9 +6831,9 @@
       </c>
       <c r="H327" s="3"/>
     </row>
-    <row r="328" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A328" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B328" s="3">
         <v>2.8746541895445575E-7</v>
@@ -6834,9 +6849,9 @@
       </c>
       <c r="H328" s="3"/>
     </row>
-    <row r="329" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A329" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B329" s="3">
         <v>1.193329134380803E-9</v>
@@ -6852,9 +6867,9 @@
       </c>
       <c r="H329" s="3"/>
     </row>
-    <row r="330" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A330" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B330" s="3">
         <v>1.9888818906326523E-9</v>
@@ -6870,9 +6885,9 @@
       </c>
       <c r="H330" s="3"/>
     </row>
-    <row r="331" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A331" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B331" s="3">
         <v>2.3255813953488445E-12</v>
@@ -6888,9 +6903,9 @@
       </c>
       <c r="H331" s="3"/>
     </row>
-    <row r="332" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A332" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B332" s="3">
         <v>1.1137738587550121E-8</v>
@@ -6906,9 +6921,9 @@
       </c>
       <c r="H332" s="3"/>
     </row>
-    <row r="333" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A333" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B333" s="3">
         <v>3.7893614887488559E-7</v>
@@ -6924,9 +6939,9 @@
       </c>
       <c r="H333" s="3"/>
     </row>
-    <row r="334" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A334" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B334" s="3">
         <v>1.9888818906326521E-10</v>
@@ -6942,9 +6957,9 @@
       </c>
       <c r="H334" s="3"/>
     </row>
-    <row r="335" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A335" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B335" s="3">
         <v>4.04186046512172E-8</v>
@@ -6960,9 +6975,9 @@
       </c>
       <c r="H335" s="3"/>
     </row>
-    <row r="336" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A336" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B336" s="3">
         <v>1.9491042528173333E-8</v>
@@ -6978,9 +6993,9 @@
       </c>
       <c r="H336" s="3"/>
     </row>
-    <row r="337" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A337" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B337" s="3">
         <v>7.9555275625427259E-9</v>
@@ -6996,12 +7011,13 @@
       </c>
       <c r="H337" s="3"/>
     </row>
-    <row r="339" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="339" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A339" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C339" s="2"/>
       <c r="D339" s="2"/>
@@ -7010,7 +7026,7 @@
       <c r="G339" s="2"/>
       <c r="H339" s="2"/>
     </row>
-    <row r="340" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A340" s="2" t="s">
         <v>3</v>
       </c>
@@ -7028,7 +7044,7 @@
       <c r="K340" s="2"/>
       <c r="L340" s="2"/>
     </row>
-    <row r="341" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A341" s="2" t="s">
         <v>4</v>
       </c>
@@ -7046,7 +7062,7 @@
       <c r="K341" s="2"/>
       <c r="L341" s="2"/>
     </row>
-    <row r="342" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A342" s="2" t="s">
         <v>5</v>
       </c>
@@ -7062,7 +7078,7 @@
       <c r="I342" s="2"/>
       <c r="J342" s="2"/>
     </row>
-    <row r="343" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A343" s="2" t="s">
         <v>6</v>
       </c>
@@ -7080,7 +7096,7 @@
       <c r="K343" s="2"/>
       <c r="L343" s="2"/>
     </row>
-    <row r="344" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A344" s="2" t="s">
         <v>8</v>
       </c>
@@ -7098,7 +7114,7 @@
       <c r="K344" s="2"/>
       <c r="L344" s="2"/>
     </row>
-    <row r="345" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A345" s="1" t="s">
         <v>10</v>
       </c>
@@ -7114,7 +7130,7 @@
       <c r="K345" s="2"/>
       <c r="L345" s="2"/>
     </row>
-    <row r="346" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A346" s="2" t="s">
         <v>11</v>
       </c>
@@ -7141,7 +7157,7 @@
       <c r="J346" s="2"/>
       <c r="K346" s="2"/>
     </row>
-    <row r="347" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A347" s="2" t="str">
         <f>B339</f>
         <v>diesel blend, burned in heavy-duty vehicle</v>
@@ -7171,7 +7187,7 @@
       <c r="K347" s="2"/>
       <c r="L347" s="2"/>
     </row>
-    <row r="348" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A348" s="2" t="s">
         <v>45</v>
       </c>
@@ -7192,9 +7208,9 @@
         <v>46</v>
       </c>
     </row>
-    <row r="349" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A349" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B349">
         <f>1000/1000000/8.57</f>
@@ -7210,10 +7226,10 @@
         <v>23</v>
       </c>
       <c r="G349" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="350" spans="1:12" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="350" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A350" t="s">
         <v>47</v>
       </c>
@@ -7232,7 +7248,7 @@
       <c r="H350" s="3"/>
       <c r="J350" s="3"/>
     </row>
-    <row r="351" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A351" t="s">
         <v>49</v>
       </c>
@@ -7250,7 +7266,7 @@
       </c>
       <c r="H351" s="3"/>
     </row>
-    <row r="352" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A352" t="s">
         <v>50</v>
       </c>
@@ -7268,9 +7284,9 @@
       </c>
       <c r="H352" s="3"/>
     </row>
-    <row r="353" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A353" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B353" s="3">
         <v>2.3255813953488445E-12</v>
@@ -7286,7 +7302,7 @@
       </c>
       <c r="H353" s="3"/>
     </row>
-    <row r="354" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A354" t="s">
         <v>51</v>
       </c>
@@ -7304,7 +7320,7 @@
       </c>
       <c r="H354" s="3"/>
     </row>
-    <row r="355" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A355" t="s">
         <v>52</v>
       </c>
@@ -7322,7 +7338,7 @@
       </c>
       <c r="H355" s="3"/>
     </row>
-    <row r="356" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A356" t="s">
         <v>53</v>
       </c>
@@ -7340,7 +7356,7 @@
       </c>
       <c r="H356" s="3"/>
     </row>
-    <row r="357" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A357" t="s">
         <v>54</v>
       </c>
@@ -7358,7 +7374,7 @@
       </c>
       <c r="H357" s="3"/>
     </row>
-    <row r="358" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A358" t="s">
         <v>55</v>
       </c>
@@ -7377,7 +7393,7 @@
       <c r="H358" s="3"/>
       <c r="I358" s="3"/>
     </row>
-    <row r="359" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A359" t="s">
         <v>56</v>
       </c>
@@ -7395,7 +7411,7 @@
       </c>
       <c r="H359" s="3"/>
     </row>
-    <row r="360" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A360" t="s">
         <v>57</v>
       </c>
@@ -7413,7 +7429,7 @@
       </c>
       <c r="H360" s="3"/>
     </row>
-    <row r="361" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A361" t="s">
         <v>58</v>
       </c>
@@ -7431,7 +7447,7 @@
       </c>
       <c r="H361" s="3"/>
     </row>
-    <row r="362" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A362" t="s">
         <v>59</v>
       </c>
@@ -7449,9 +7465,9 @@
       </c>
       <c r="H362" s="3"/>
     </row>
-    <row r="363" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A363" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B363" s="3">
         <v>3.7969387682723317E-6</v>
@@ -7467,9 +7483,9 @@
       </c>
       <c r="H363" s="3"/>
     </row>
-    <row r="364" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A364" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B364" s="3">
         <v>5.966645671897956E-10</v>
@@ -7485,9 +7501,9 @@
       </c>
       <c r="H364" s="3"/>
     </row>
-    <row r="365" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A365" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B365" s="3">
         <v>1.6706607881343357E-7</v>
@@ -7503,9 +7519,9 @@
       </c>
       <c r="H365" s="3"/>
     </row>
-    <row r="366" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A366" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B366" s="3">
         <v>5.9666456718979566E-9</v>
@@ -7521,9 +7537,9 @@
       </c>
       <c r="H366" s="3"/>
     </row>
-    <row r="367" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A367" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B367" s="3">
         <v>1.2116279069793652E-9</v>
@@ -7539,9 +7555,9 @@
       </c>
       <c r="H367" s="3"/>
     </row>
-    <row r="368" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A368" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B368" s="3">
         <v>1.2325581395334337E-10</v>
@@ -7557,9 +7573,9 @@
       </c>
       <c r="H368" s="3"/>
     </row>
-    <row r="369" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A369" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B369" s="3">
         <v>4.890693292186907E-8</v>
@@ -7575,9 +7591,9 @@
       </c>
       <c r="H369" s="3"/>
     </row>
-    <row r="370" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A370" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B370" s="3">
         <v>1.6155687597619975E-6</v>
@@ -7593,9 +7609,9 @@
       </c>
       <c r="H370" s="3"/>
     </row>
-    <row r="371" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A371" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B371" s="3">
         <v>2.0465116279127991E-10</v>
@@ -7611,9 +7627,9 @@
       </c>
       <c r="H371" s="3"/>
     </row>
-    <row r="372" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A372" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B372" s="3">
         <v>3.1855518160413698E-5</v>
@@ -7629,9 +7645,9 @@
       </c>
       <c r="H372" s="3"/>
     </row>
-    <row r="373" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A373" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B373" s="3">
         <v>1.8186046511685154E-9</v>
@@ -7647,9 +7663,9 @@
       </c>
       <c r="H373" s="3"/>
     </row>
-    <row r="374" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A374" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B374" s="3">
         <v>2.8746541895445575E-7</v>
@@ -7665,9 +7681,9 @@
       </c>
       <c r="H374" s="3"/>
     </row>
-    <row r="375" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A375" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B375" s="3">
         <v>1.193329134380803E-9</v>
@@ -7683,9 +7699,9 @@
       </c>
       <c r="H375" s="3"/>
     </row>
-    <row r="376" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A376" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B376" s="3">
         <v>1.9888818906326523E-9</v>
@@ -7701,9 +7717,9 @@
       </c>
       <c r="H376" s="3"/>
     </row>
-    <row r="377" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A377" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B377" s="3">
         <v>2.3255813953488445E-12</v>
@@ -7719,9 +7735,9 @@
       </c>
       <c r="H377" s="3"/>
     </row>
-    <row r="378" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A378" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B378" s="3">
         <v>1.1137738587550121E-8</v>
@@ -7737,9 +7753,9 @@
       </c>
       <c r="H378" s="3"/>
     </row>
-    <row r="379" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A379" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B379" s="3">
         <v>3.7893614887488559E-7</v>
@@ -7755,9 +7771,9 @@
       </c>
       <c r="H379" s="3"/>
     </row>
-    <row r="380" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A380" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B380" s="3">
         <v>1.9888818906326521E-10</v>
@@ -7773,9 +7789,9 @@
       </c>
       <c r="H380" s="3"/>
     </row>
-    <row r="381" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A381" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B381" s="3">
         <v>4.04186046512172E-8</v>
@@ -7791,9 +7807,9 @@
       </c>
       <c r="H381" s="3"/>
     </row>
-    <row r="382" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A382" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B382" s="3">
         <v>1.9491042528173333E-8</v>
@@ -7809,9 +7825,9 @@
       </c>
       <c r="H382" s="3"/>
     </row>
-    <row r="383" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A383" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B383" s="3">
         <v>7.9555275625427259E-9</v>
@@ -7827,12 +7843,13 @@
       </c>
       <c r="H383" s="3"/>
     </row>
-    <row r="385" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:8" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="385" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A385" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C385" s="2"/>
       <c r="D385" s="2"/>
@@ -7841,7 +7858,7 @@
       <c r="G385" s="2"/>
       <c r="H385" s="2"/>
     </row>
-    <row r="386" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A386" s="2" t="s">
         <v>3</v>
       </c>
@@ -7859,7 +7876,7 @@
       <c r="K386" s="2"/>
       <c r="L386" s="2"/>
     </row>
-    <row r="387" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A387" s="2" t="s">
         <v>4</v>
       </c>
@@ -7877,7 +7894,7 @@
       <c r="K387" s="2"/>
       <c r="L387" s="2"/>
     </row>
-    <row r="388" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A388" s="2" t="s">
         <v>5</v>
       </c>
@@ -7893,7 +7910,7 @@
       <c r="I388" s="2"/>
       <c r="J388" s="2"/>
     </row>
-    <row r="389" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A389" s="2" t="s">
         <v>6</v>
       </c>
@@ -7911,7 +7928,7 @@
       <c r="K389" s="2"/>
       <c r="L389" s="2"/>
     </row>
-    <row r="390" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A390" s="2" t="s">
         <v>8</v>
       </c>
@@ -7929,7 +7946,7 @@
       <c r="K390" s="2"/>
       <c r="L390" s="2"/>
     </row>
-    <row r="391" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A391" s="1" t="s">
         <v>10</v>
       </c>
@@ -7945,7 +7962,7 @@
       <c r="K391" s="2"/>
       <c r="L391" s="2"/>
     </row>
-    <row r="392" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A392" s="2" t="s">
         <v>11</v>
       </c>
@@ -7972,7 +7989,7 @@
       <c r="J392" s="2"/>
       <c r="K392" s="2"/>
     </row>
-    <row r="393" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A393" s="2" t="str">
         <f>B385</f>
         <v>biodiesel, burned in heavy-duty vehicle</v>
@@ -8002,9 +8019,9 @@
       <c r="K393" s="2"/>
       <c r="L393" s="2"/>
     </row>
-    <row r="394" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A394" s="2" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B394">
         <f>1/43</f>
@@ -8020,12 +8037,12 @@
         <v>23</v>
       </c>
       <c r="G394" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="395" spans="1:12" x14ac:dyDescent="0.2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="395" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A395" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B395">
         <f>1000/1000000/8.57</f>
@@ -8041,10 +8058,10 @@
         <v>23</v>
       </c>
       <c r="G395" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="396" spans="1:12" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="396" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A396" t="s">
         <v>47</v>
       </c>
@@ -8063,7 +8080,7 @@
       <c r="H396" s="3"/>
       <c r="J396" s="3"/>
     </row>
-    <row r="397" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A397" t="s">
         <v>49</v>
       </c>
@@ -8081,7 +8098,7 @@
       </c>
       <c r="H397" s="3"/>
     </row>
-    <row r="398" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A398" t="s">
         <v>50</v>
       </c>
@@ -8099,9 +8116,9 @@
       </c>
       <c r="H398" s="3"/>
     </row>
-    <row r="399" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A399" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B399" s="3">
         <v>2.3255813953488445E-12</v>
@@ -8117,7 +8134,7 @@
       </c>
       <c r="H399" s="3"/>
     </row>
-    <row r="400" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A400" t="s">
         <v>51</v>
       </c>
@@ -8135,7 +8152,7 @@
       </c>
       <c r="H400" s="3"/>
     </row>
-    <row r="401" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A401" t="s">
         <v>52</v>
       </c>
@@ -8153,7 +8170,7 @@
       </c>
       <c r="H401" s="3"/>
     </row>
-    <row r="402" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A402" t="s">
         <v>53</v>
       </c>
@@ -8171,7 +8188,7 @@
       </c>
       <c r="H402" s="3"/>
     </row>
-    <row r="403" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A403" t="s">
         <v>54</v>
       </c>
@@ -8189,9 +8206,9 @@
       </c>
       <c r="H403" s="3"/>
     </row>
-    <row r="404" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A404" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B404">
         <v>6.9708852499276011E-2</v>
@@ -8208,9 +8225,9 @@
       <c r="H404" s="3"/>
       <c r="I404" s="3"/>
     </row>
-    <row r="405" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A405" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B405" s="3">
         <v>6.3521092350262397E-5</v>
@@ -8226,7 +8243,7 @@
       </c>
       <c r="H405" s="3"/>
     </row>
-    <row r="406" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A406" t="s">
         <v>57</v>
       </c>
@@ -8244,7 +8261,7 @@
       </c>
       <c r="H406" s="3"/>
     </row>
-    <row r="407" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A407" t="s">
         <v>58</v>
       </c>
@@ -8262,7 +8279,7 @@
       </c>
       <c r="H407" s="3"/>
     </row>
-    <row r="408" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A408" t="s">
         <v>59</v>
       </c>
@@ -8280,9 +8297,9 @@
       </c>
       <c r="H408" s="3"/>
     </row>
-    <row r="409" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A409" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B409" s="3">
         <v>3.7969387682723317E-6</v>
@@ -8298,9 +8315,9 @@
       </c>
       <c r="H409" s="3"/>
     </row>
-    <row r="410" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A410" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B410" s="3">
         <v>5.966645671897956E-10</v>
@@ -8316,9 +8333,9 @@
       </c>
       <c r="H410" s="3"/>
     </row>
-    <row r="411" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A411" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B411" s="3">
         <v>1.6706607881343357E-7</v>
@@ -8334,9 +8351,9 @@
       </c>
       <c r="H411" s="3"/>
     </row>
-    <row r="412" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A412" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B412" s="3">
         <v>5.9666456718979566E-9</v>
@@ -8352,9 +8369,9 @@
       </c>
       <c r="H412" s="3"/>
     </row>
-    <row r="413" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A413" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B413" s="3">
         <v>1.2116279069793652E-9</v>
@@ -8370,9 +8387,9 @@
       </c>
       <c r="H413" s="3"/>
     </row>
-    <row r="414" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A414" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B414" s="3">
         <v>1.2325581395334337E-10</v>
@@ -8388,9 +8405,9 @@
       </c>
       <c r="H414" s="3"/>
     </row>
-    <row r="415" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A415" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B415" s="3">
         <v>4.890693292186907E-8</v>
@@ -8406,9 +8423,9 @@
       </c>
       <c r="H415" s="3"/>
     </row>
-    <row r="416" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A416" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B416" s="3">
         <v>1.6155687597619975E-6</v>
@@ -8424,9 +8441,9 @@
       </c>
       <c r="H416" s="3"/>
     </row>
-    <row r="417" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A417" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B417" s="3">
         <v>2.0465116279127991E-10</v>
@@ -8442,9 +8459,9 @@
       </c>
       <c r="H417" s="3"/>
     </row>
-    <row r="418" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A418" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B418" s="3">
         <v>3.1855518160413698E-5</v>
@@ -8460,9 +8477,9 @@
       </c>
       <c r="H418" s="3"/>
     </row>
-    <row r="419" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A419" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B419" s="3">
         <v>1.8186046511685154E-9</v>
@@ -8478,9 +8495,9 @@
       </c>
       <c r="H419" s="3"/>
     </row>
-    <row r="420" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A420" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B420" s="3">
         <v>2.8746541895445575E-7</v>
@@ -8496,9 +8513,9 @@
       </c>
       <c r="H420" s="3"/>
     </row>
-    <row r="421" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A421" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B421" s="3">
         <v>1.193329134380803E-9</v>
@@ -8514,9 +8531,9 @@
       </c>
       <c r="H421" s="3"/>
     </row>
-    <row r="422" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A422" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B422" s="3">
         <v>1.9888818906326523E-9</v>
@@ -8532,9 +8549,9 @@
       </c>
       <c r="H422" s="3"/>
     </row>
-    <row r="423" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A423" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B423" s="3">
         <v>2.3255813953488445E-12</v>
@@ -8550,9 +8567,9 @@
       </c>
       <c r="H423" s="3"/>
     </row>
-    <row r="424" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A424" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B424" s="3">
         <v>1.1137738587550121E-8</v>
@@ -8568,9 +8585,9 @@
       </c>
       <c r="H424" s="3"/>
     </row>
-    <row r="425" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A425" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B425" s="3">
         <v>3.7893614887488559E-7</v>
@@ -8586,9 +8603,9 @@
       </c>
       <c r="H425" s="3"/>
     </row>
-    <row r="426" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A426" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B426" s="3">
         <v>1.9888818906326521E-10</v>
@@ -8604,9 +8621,9 @@
       </c>
       <c r="H426" s="3"/>
     </row>
-    <row r="427" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A427" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B427" s="3">
         <v>4.04186046512172E-8</v>
@@ -8622,9 +8639,9 @@
       </c>
       <c r="H427" s="3"/>
     </row>
-    <row r="428" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A428" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B428" s="3">
         <v>1.9491042528173333E-8</v>
@@ -8640,9 +8657,9 @@
       </c>
       <c r="H428" s="3"/>
     </row>
-    <row r="429" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A429" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B429" s="3">
         <v>7.9555275625427259E-9</v>
@@ -8658,12 +8675,13 @@
       </c>
       <c r="H429" s="3"/>
     </row>
-    <row r="431" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="431" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A431" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C431" s="2"/>
       <c r="D431" s="2"/>
@@ -8672,7 +8690,7 @@
       <c r="G431" s="2"/>
       <c r="H431" s="2"/>
     </row>
-    <row r="432" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A432" s="2" t="s">
         <v>3</v>
       </c>
@@ -8690,7 +8708,7 @@
       <c r="K432" s="2"/>
       <c r="L432" s="2"/>
     </row>
-    <row r="433" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A433" s="2" t="s">
         <v>4</v>
       </c>
@@ -8708,7 +8726,7 @@
       <c r="K433" s="2"/>
       <c r="L433" s="2"/>
     </row>
-    <row r="434" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A434" s="2" t="s">
         <v>5</v>
       </c>
@@ -8724,7 +8742,7 @@
       <c r="I434" s="2"/>
       <c r="J434" s="2"/>
     </row>
-    <row r="435" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A435" s="2" t="s">
         <v>6</v>
       </c>
@@ -8742,7 +8760,7 @@
       <c r="K435" s="2"/>
       <c r="L435" s="2"/>
     </row>
-    <row r="436" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A436" s="2" t="s">
         <v>8</v>
       </c>
@@ -8760,7 +8778,7 @@
       <c r="K436" s="2"/>
       <c r="L436" s="2"/>
     </row>
-    <row r="437" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A437" s="1" t="s">
         <v>10</v>
       </c>
@@ -8776,7 +8794,7 @@
       <c r="K437" s="2"/>
       <c r="L437" s="2"/>
     </row>
-    <row r="438" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A438" s="2" t="s">
         <v>11</v>
       </c>
@@ -8803,7 +8821,7 @@
       <c r="J438" s="2"/>
       <c r="K438" s="2"/>
     </row>
-    <row r="439" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A439" s="2" t="str">
         <f>B431</f>
         <v>diesel from coal, burned in heavy-duty vehicle</v>
@@ -8833,9 +8851,9 @@
       <c r="K439" s="2"/>
       <c r="L439" s="2"/>
     </row>
-    <row r="440" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A440" s="2" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B440">
         <f>1/43</f>
@@ -8851,12 +8869,12 @@
         <v>23</v>
       </c>
       <c r="G440" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="441" spans="1:12" x14ac:dyDescent="0.2">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="441" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A441" s="2" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B441">
         <f>1000/1000000/8.57</f>
@@ -8872,10 +8890,10 @@
         <v>23</v>
       </c>
       <c r="G441" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="442" spans="1:12" x14ac:dyDescent="0.2">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="442" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A442" t="s">
         <v>47</v>
       </c>
@@ -8894,7 +8912,7 @@
       <c r="H442" s="3"/>
       <c r="J442" s="3"/>
     </row>
-    <row r="443" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A443" t="s">
         <v>49</v>
       </c>
@@ -8912,7 +8930,7 @@
       </c>
       <c r="H443" s="3"/>
     </row>
-    <row r="444" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A444" t="s">
         <v>50</v>
       </c>
@@ -8930,9 +8948,9 @@
       </c>
       <c r="H444" s="3"/>
     </row>
-    <row r="445" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A445" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B445" s="3">
         <v>2.3255813953488445E-12</v>
@@ -8948,7 +8966,7 @@
       </c>
       <c r="H445" s="3"/>
     </row>
-    <row r="446" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A446" t="s">
         <v>51</v>
       </c>
@@ -8966,7 +8984,7 @@
       </c>
       <c r="H446" s="3"/>
     </row>
-    <row r="447" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A447" t="s">
         <v>52</v>
       </c>
@@ -8984,7 +9002,7 @@
       </c>
       <c r="H447" s="3"/>
     </row>
-    <row r="448" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A448" t="s">
         <v>53</v>
       </c>
@@ -9002,7 +9020,7 @@
       </c>
       <c r="H448" s="3"/>
     </row>
-    <row r="449" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A449" t="s">
         <v>54</v>
       </c>
@@ -9020,7 +9038,7 @@
       </c>
       <c r="H449" s="3"/>
     </row>
-    <row r="450" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A450" t="s">
         <v>55</v>
       </c>
@@ -9039,7 +9057,7 @@
       <c r="H450" s="3"/>
       <c r="I450" s="3"/>
     </row>
-    <row r="451" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A451" t="s">
         <v>56</v>
       </c>
@@ -9057,7 +9075,7 @@
       </c>
       <c r="H451" s="3"/>
     </row>
-    <row r="452" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A452" t="s">
         <v>57</v>
       </c>
@@ -9075,7 +9093,7 @@
       </c>
       <c r="H452" s="3"/>
     </row>
-    <row r="453" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A453" t="s">
         <v>58</v>
       </c>
@@ -9093,7 +9111,7 @@
       </c>
       <c r="H453" s="3"/>
     </row>
-    <row r="454" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A454" t="s">
         <v>59</v>
       </c>
@@ -9111,9 +9129,9 @@
       </c>
       <c r="H454" s="3"/>
     </row>
-    <row r="455" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A455" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B455" s="3">
         <v>3.7969387682723317E-6</v>
@@ -9129,9 +9147,9 @@
       </c>
       <c r="H455" s="3"/>
     </row>
-    <row r="456" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A456" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B456" s="3">
         <v>5.966645671897956E-10</v>
@@ -9147,9 +9165,9 @@
       </c>
       <c r="H456" s="3"/>
     </row>
-    <row r="457" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A457" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="B457" s="3">
         <v>1.6706607881343357E-7</v>
@@ -9165,9 +9183,9 @@
       </c>
       <c r="H457" s="3"/>
     </row>
-    <row r="458" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A458" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="B458" s="3">
         <v>5.9666456718979566E-9</v>
@@ -9183,9 +9201,9 @@
       </c>
       <c r="H458" s="3"/>
     </row>
-    <row r="459" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A459" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B459" s="3">
         <v>1.2116279069793652E-9</v>
@@ -9201,9 +9219,9 @@
       </c>
       <c r="H459" s="3"/>
     </row>
-    <row r="460" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A460" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B460" s="3">
         <v>1.2325581395334337E-10</v>
@@ -9219,9 +9237,9 @@
       </c>
       <c r="H460" s="3"/>
     </row>
-    <row r="461" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A461" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B461" s="3">
         <v>4.890693292186907E-8</v>
@@ -9237,9 +9255,9 @@
       </c>
       <c r="H461" s="3"/>
     </row>
-    <row r="462" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A462" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B462" s="3">
         <v>1.6155687597619975E-6</v>
@@ -9255,9 +9273,9 @@
       </c>
       <c r="H462" s="3"/>
     </row>
-    <row r="463" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A463" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B463" s="3">
         <v>2.0465116279127991E-10</v>
@@ -9273,9 +9291,9 @@
       </c>
       <c r="H463" s="3"/>
     </row>
-    <row r="464" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A464" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B464" s="3">
         <v>3.1855518160413698E-5</v>
@@ -9291,9 +9309,9 @@
       </c>
       <c r="H464" s="3"/>
     </row>
-    <row r="465" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A465" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B465" s="3">
         <v>1.8186046511685154E-9</v>
@@ -9309,9 +9327,9 @@
       </c>
       <c r="H465" s="3"/>
     </row>
-    <row r="466" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A466" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B466" s="3">
         <v>2.8746541895445575E-7</v>
@@ -9327,9 +9345,9 @@
       </c>
       <c r="H466" s="3"/>
     </row>
-    <row r="467" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A467" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="B467" s="3">
         <v>1.193329134380803E-9</v>
@@ -9345,9 +9363,9 @@
       </c>
       <c r="H467" s="3"/>
     </row>
-    <row r="468" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A468" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B468" s="3">
         <v>1.9888818906326523E-9</v>
@@ -9363,9 +9381,9 @@
       </c>
       <c r="H468" s="3"/>
     </row>
-    <row r="469" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A469" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B469" s="3">
         <v>2.3255813953488445E-12</v>
@@ -9381,9 +9399,9 @@
       </c>
       <c r="H469" s="3"/>
     </row>
-    <row r="470" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A470" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B470" s="3">
         <v>1.1137738587550121E-8</v>
@@ -9399,9 +9417,9 @@
       </c>
       <c r="H470" s="3"/>
     </row>
-    <row r="471" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A471" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B471" s="3">
         <v>3.7893614887488559E-7</v>
@@ -9417,9 +9435,9 @@
       </c>
       <c r="H471" s="3"/>
     </row>
-    <row r="472" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A472" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B472" s="3">
         <v>1.9888818906326521E-10</v>
@@ -9435,9 +9453,9 @@
       </c>
       <c r="H472" s="3"/>
     </row>
-    <row r="473" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A473" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B473" s="3">
         <v>4.04186046512172E-8</v>
@@ -9453,9 +9471,9 @@
       </c>
       <c r="H473" s="3"/>
     </row>
-    <row r="474" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A474" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="B474" s="3">
         <v>1.9491042528173333E-8</v>
@@ -9471,9 +9489,9 @@
       </c>
       <c r="H474" s="3"/>
     </row>
-    <row r="475" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A475" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="B475" s="3">
         <v>7.9555275625427259E-9</v>
@@ -9489,12 +9507,13 @@
       </c>
       <c r="H475" s="3"/>
     </row>
-    <row r="477" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="477" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A477" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C477" s="2"/>
       <c r="D477" s="2"/>
@@ -9503,7 +9522,7 @@
       <c r="G477" s="2"/>
       <c r="H477" s="2"/>
     </row>
-    <row r="478" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A478" s="2" t="s">
         <v>3</v>
       </c>
@@ -9521,7 +9540,7 @@
       <c r="K478" s="2"/>
       <c r="L478" s="2"/>
     </row>
-    <row r="479" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A479" s="2" t="s">
         <v>4</v>
       </c>
@@ -9539,7 +9558,7 @@
       <c r="K479" s="2"/>
       <c r="L479" s="2"/>
     </row>
-    <row r="480" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A480" s="2" t="s">
         <v>5</v>
       </c>
@@ -9555,7 +9574,7 @@
       <c r="I480" s="2"/>
       <c r="J480" s="2"/>
     </row>
-    <row r="481" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A481" s="2" t="s">
         <v>6</v>
       </c>
@@ -9573,7 +9592,7 @@
       <c r="K481" s="2"/>
       <c r="L481" s="2"/>
     </row>
-    <row r="482" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A482" s="2" t="s">
         <v>8</v>
       </c>
@@ -9591,7 +9610,7 @@
       <c r="K482" s="2"/>
       <c r="L482" s="2"/>
     </row>
-    <row r="483" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A483" s="1" t="s">
         <v>10</v>
       </c>
@@ -9607,7 +9626,7 @@
       <c r="K483" s="2"/>
       <c r="L483" s="2"/>
     </row>
-    <row r="484" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A484" s="2" t="s">
         <v>11</v>
       </c>
@@ -9634,7 +9653,7 @@
       <c r="J484" s="2"/>
       <c r="K484" s="2"/>
     </row>
-    <row r="485" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A485" s="2" t="str">
         <f>B477</f>
         <v>compressed gas, burned in passenger car</v>
@@ -9664,9 +9683,9 @@
       <c r="K485" s="2"/>
       <c r="L485" s="2"/>
     </row>
-    <row r="486" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A486" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B486">
         <f>1/36</f>
@@ -9676,25 +9695,25 @@
         <v>27</v>
       </c>
       <c r="D486" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="F486" t="s">
         <v>23</v>
       </c>
       <c r="G486" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="487" spans="1:12" x14ac:dyDescent="0.2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="487" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A487" s="2" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="B487">
         <f>150/200000/2.15</f>
         <v>3.4883720930232559E-4</v>
       </c>
       <c r="C487" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D487" t="s">
         <v>9</v>
@@ -9703,10 +9722,10 @@
         <v>23</v>
       </c>
       <c r="G487" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="488" spans="1:12" x14ac:dyDescent="0.2">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="488" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A488" t="s">
         <v>50</v>
       </c>
@@ -9724,7 +9743,7 @@
       </c>
       <c r="H488" s="3"/>
     </row>
-    <row r="489" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A489" t="s">
         <v>52</v>
       </c>
@@ -9742,7 +9761,7 @@
       </c>
       <c r="H489" s="3"/>
     </row>
-    <row r="490" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A490" t="s">
         <v>55</v>
       </c>
@@ -9760,7 +9779,7 @@
       </c>
       <c r="H490" s="3"/>
     </row>
-    <row r="491" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A491" t="s">
         <v>56</v>
       </c>
@@ -9778,9 +9797,9 @@
       </c>
       <c r="H491" s="3"/>
     </row>
-    <row r="492" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A492" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B492" s="3">
         <v>9.6666666666666532E-7</v>
@@ -9796,9 +9815,9 @@
       </c>
       <c r="H492" s="3"/>
     </row>
-    <row r="493" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A493" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B493" s="3">
         <v>2.7750000000000002E-10</v>
@@ -9814,9 +9833,9 @@
       </c>
       <c r="H493" s="3"/>
     </row>
-    <row r="494" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A494" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B494" s="3">
         <v>1.606690212560312E-5</v>
@@ -9832,9 +9851,9 @@
       </c>
       <c r="H494" s="3"/>
     </row>
-    <row r="495" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A495" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B495" s="3">
         <v>6.8382126269474045E-6</v>
@@ -9850,9 +9869,9 @@
       </c>
       <c r="H495" s="3"/>
     </row>
-    <row r="496" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A496" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B496" s="3">
         <v>2.9605693862641999E-6</v>
@@ -9868,9 +9887,9 @@
       </c>
       <c r="H496" s="3"/>
     </row>
-    <row r="497" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A497" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B497" s="3">
         <v>1.4636237937232238E-7</v>
@@ -9886,9 +9905,9 @@
       </c>
       <c r="H497" s="3"/>
     </row>
-    <row r="498" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A498" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B498" s="3">
         <v>5.6430000000000142E-7</v>
@@ -9904,9 +9923,9 @@
       </c>
       <c r="H498" s="3"/>
     </row>
-    <row r="499" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A499" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B499" s="3">
         <v>2.2336471011856279E-6</v>
@@ -9922,12 +9941,13 @@
       </c>
       <c r="H499" s="3"/>
     </row>
-    <row r="501" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="501" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A501" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C501" s="2"/>
       <c r="D501" s="2"/>
@@ -9936,7 +9956,7 @@
       <c r="G501" s="2"/>
       <c r="H501" s="2"/>
     </row>
-    <row r="502" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A502" s="2" t="s">
         <v>3</v>
       </c>
@@ -9954,7 +9974,7 @@
       <c r="K502" s="2"/>
       <c r="L502" s="2"/>
     </row>
-    <row r="503" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A503" s="2" t="s">
         <v>4</v>
       </c>
@@ -9972,7 +9992,7 @@
       <c r="K503" s="2"/>
       <c r="L503" s="2"/>
     </row>
-    <row r="504" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A504" s="2" t="s">
         <v>5</v>
       </c>
@@ -9988,7 +10008,7 @@
       <c r="I504" s="2"/>
       <c r="J504" s="2"/>
     </row>
-    <row r="505" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A505" s="2" t="s">
         <v>6</v>
       </c>
@@ -10006,7 +10026,7 @@
       <c r="K505" s="2"/>
       <c r="L505" s="2"/>
     </row>
-    <row r="506" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A506" s="2" t="s">
         <v>8</v>
       </c>
@@ -10024,7 +10044,7 @@
       <c r="K506" s="2"/>
       <c r="L506" s="2"/>
     </row>
-    <row r="507" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A507" s="1" t="s">
         <v>10</v>
       </c>
@@ -10040,7 +10060,7 @@
       <c r="K507" s="2"/>
       <c r="L507" s="2"/>
     </row>
-    <row r="508" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A508" s="2" t="s">
         <v>11</v>
       </c>
@@ -10067,7 +10087,7 @@
       <c r="J508" s="2"/>
       <c r="K508" s="2"/>
     </row>
-    <row r="509" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A509" s="2" t="str">
         <f>B501</f>
         <v>kerosene, burned in aircraft</v>
@@ -10097,9 +10117,9 @@
       <c r="K509" s="2"/>
       <c r="L509" s="2"/>
     </row>
-    <row r="510" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A510" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B510">
         <f>1/43</f>
@@ -10115,10 +10135,10 @@
         <v>23</v>
       </c>
       <c r="G510" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="511" spans="1:12" x14ac:dyDescent="0.2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="511" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A511" t="s">
         <v>54</v>
       </c>
@@ -10129,14 +10149,14 @@
         <v>9</v>
       </c>
       <c r="E511" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F511" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H511" s="3"/>
     </row>
-    <row r="512" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A512" t="s">
         <v>54</v>
       </c>
@@ -10147,14 +10167,14 @@
         <v>9</v>
       </c>
       <c r="E512" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F512" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H512" s="3"/>
     </row>
-    <row r="513" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A513" t="s">
         <v>55</v>
       </c>
@@ -10165,14 +10185,14 @@
         <v>9</v>
       </c>
       <c r="E513" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F513" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H513" s="3"/>
     </row>
-    <row r="514" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A514" t="s">
         <v>55</v>
       </c>
@@ -10183,14 +10203,14 @@
         <v>9</v>
       </c>
       <c r="E514" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F514" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H514" s="3"/>
     </row>
-    <row r="515" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A515" t="s">
         <v>56</v>
       </c>
@@ -10201,14 +10221,14 @@
         <v>9</v>
       </c>
       <c r="E515" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F515" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H515" s="3"/>
     </row>
-    <row r="516" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A516" t="s">
         <v>56</v>
       </c>
@@ -10219,14 +10239,14 @@
         <v>9</v>
       </c>
       <c r="E516" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F516" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H516" s="3"/>
     </row>
-    <row r="517" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A517" t="s">
         <v>57</v>
       </c>
@@ -10237,14 +10257,14 @@
         <v>9</v>
       </c>
       <c r="E517" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F517" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H517" s="3"/>
     </row>
-    <row r="518" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A518" t="s">
         <v>57</v>
       </c>
@@ -10255,14 +10275,14 @@
         <v>9</v>
       </c>
       <c r="E518" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F518" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H518" s="3"/>
     </row>
-    <row r="519" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A519" t="s">
         <v>59</v>
       </c>
@@ -10273,14 +10293,14 @@
         <v>9</v>
       </c>
       <c r="E519" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F519" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H519" s="3"/>
     </row>
-    <row r="520" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A520" t="s">
         <v>59</v>
       </c>
@@ -10291,16 +10311,16 @@
         <v>9</v>
       </c>
       <c r="E520" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F520" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H520" s="3"/>
     </row>
-    <row r="521" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A521" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B521" s="3">
         <v>4.2396949131060127E-7</v>
@@ -10309,16 +10329,16 @@
         <v>9</v>
       </c>
       <c r="E521" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F521" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H521" s="3"/>
     </row>
-    <row r="522" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A522" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B522" s="3">
         <v>4.1146752559714943E-8</v>
@@ -10327,16 +10347,16 @@
         <v>9</v>
       </c>
       <c r="E522" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F522" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H522" s="3"/>
     </row>
-    <row r="523" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A523" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B523" s="3">
         <v>1.4838945395665915E-12</v>
@@ -10345,16 +10365,16 @@
         <v>9</v>
       </c>
       <c r="E523" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F523" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H523" s="3"/>
     </row>
-    <row r="524" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A524" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B524" s="3">
         <v>1.4401328196447244E-13</v>
@@ -10363,16 +10383,16 @@
         <v>9</v>
       </c>
       <c r="E524" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F524" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H524" s="3"/>
     </row>
-    <row r="525" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A525" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B525" s="3">
         <v>4.9290146007471967E-6</v>
@@ -10381,16 +10401,16 @@
         <v>9</v>
       </c>
       <c r="E525" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F525" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H525" s="3"/>
     </row>
-    <row r="526" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A526" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B526" s="3">
         <v>4.7836672595146453E-7</v>
@@ -10399,16 +10419,16 @@
         <v>9</v>
       </c>
       <c r="E526" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F526" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H526" s="3"/>
     </row>
-    <row r="527" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A527" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B527" s="3">
         <v>1.4838945395665916E-9</v>
@@ -10417,16 +10437,16 @@
         <v>9</v>
       </c>
       <c r="E527" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F527" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H527" s="3"/>
     </row>
-    <row r="528" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A528" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B528" s="3">
         <v>1.4401328196447246E-10</v>
@@ -10435,16 +10455,16 @@
         <v>9</v>
       </c>
       <c r="E528" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F528" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H528" s="3"/>
     </row>
-    <row r="529" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A529" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B529">
         <v>3.0006653682198702E-4</v>
@@ -10453,16 +10473,16 @@
         <v>9</v>
       </c>
       <c r="E529" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F529" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H529" s="3"/>
     </row>
-    <row r="530" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A530" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B530" s="3">
         <v>2.9121827432823326E-5</v>
@@ -10471,16 +10491,16 @@
         <v>9</v>
       </c>
       <c r="E530" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F530" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H530" s="3"/>
     </row>
-    <row r="531" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A531" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B531" s="3">
         <v>3.8963858482936672E-6</v>
@@ -10489,16 +10509,16 @@
         <v>9</v>
       </c>
       <c r="E531" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F531" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H531" s="3"/>
     </row>
-    <row r="532" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A532" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B532" s="3">
         <v>3.7814860338919342E-7</v>
@@ -10507,16 +10527,16 @@
         <v>9</v>
       </c>
       <c r="E532" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F532" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H532" s="3"/>
     </row>
-    <row r="533" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A533" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B533" s="3">
         <v>2.1198518564846293E-10</v>
@@ -10525,16 +10545,16 @@
         <v>9</v>
       </c>
       <c r="E533" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F533" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H533" s="3"/>
     </row>
-    <row r="534" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A534" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B534" s="3">
         <v>2.0573376279857471E-11</v>
@@ -10543,16 +10563,16 @@
         <v>9</v>
       </c>
       <c r="E534" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F534" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H534" s="3"/>
     </row>
-    <row r="535" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A535" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B535" s="3">
         <v>1.7806699275346112E-5</v>
@@ -10561,16 +10581,16 @@
         <v>9</v>
       </c>
       <c r="E535" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F535" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H535" s="3"/>
     </row>
-    <row r="536" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A536" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B536" s="3">
         <v>1.7281611435463185E-6</v>
@@ -10579,52 +10599,52 @@
         <v>9</v>
       </c>
       <c r="E536" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F536" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H536" s="3"/>
     </row>
-    <row r="537" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A537" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B537" s="3">
         <v>1.6219731937580282E-7</v>
       </c>
       <c r="D537" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E537" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F537" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H537" s="3"/>
     </row>
-    <row r="538" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A538" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B538" s="3">
         <v>1.574145937016555E-8</v>
       </c>
       <c r="D538" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E538" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F538" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H538" s="3"/>
     </row>
-    <row r="539" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A539" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B539" s="3">
         <v>2.1198518564846295E-7</v>
@@ -10633,16 +10653,16 @@
         <v>9</v>
       </c>
       <c r="E539" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F539" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H539" s="3"/>
     </row>
-    <row r="540" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A540" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B540" s="3">
         <v>2.0573376279857471E-8</v>
@@ -10651,19 +10671,20 @@
         <v>9</v>
       </c>
       <c r="E540" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F540" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H540" s="3"/>
     </row>
-    <row r="542" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="542" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A542" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B542" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C542" s="2"/>
       <c r="D542" s="2"/>
@@ -10672,7 +10693,7 @@
       <c r="G542" s="2"/>
       <c r="H542" s="2"/>
     </row>
-    <row r="543" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A543" s="2" t="s">
         <v>3</v>
       </c>
@@ -10690,7 +10711,7 @@
       <c r="K543" s="2"/>
       <c r="L543" s="2"/>
     </row>
-    <row r="544" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A544" s="2" t="s">
         <v>4</v>
       </c>
@@ -10708,7 +10729,7 @@
       <c r="K544" s="2"/>
       <c r="L544" s="2"/>
     </row>
-    <row r="545" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A545" s="2" t="s">
         <v>5</v>
       </c>
@@ -10724,7 +10745,7 @@
       <c r="I545" s="2"/>
       <c r="J545" s="2"/>
     </row>
-    <row r="546" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A546" s="2" t="s">
         <v>6</v>
       </c>
@@ -10742,7 +10763,7 @@
       <c r="K546" s="2"/>
       <c r="L546" s="2"/>
     </row>
-    <row r="547" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A547" s="2" t="s">
         <v>8</v>
       </c>
@@ -10760,7 +10781,7 @@
       <c r="K547" s="2"/>
       <c r="L547" s="2"/>
     </row>
-    <row r="548" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A548" s="1" t="s">
         <v>10</v>
       </c>
@@ -10776,7 +10797,7 @@
       <c r="K548" s="2"/>
       <c r="L548" s="2"/>
     </row>
-    <row r="549" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A549" s="2" t="s">
         <v>11</v>
       </c>
@@ -10803,7 +10824,7 @@
       <c r="J549" s="2"/>
       <c r="K549" s="2"/>
     </row>
-    <row r="550" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A550" s="2" t="str">
         <f>B542</f>
         <v>kerosene from biomass, burned in aircraft</v>
@@ -10833,9 +10854,9 @@
       <c r="K550" s="2"/>
       <c r="L550" s="2"/>
     </row>
-    <row r="551" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A551" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="B551">
         <f>1/43</f>
@@ -10851,10 +10872,10 @@
         <v>23</v>
       </c>
       <c r="G551" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="552" spans="1:12" x14ac:dyDescent="0.2">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="552" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A552" t="s">
         <v>54</v>
       </c>
@@ -10865,14 +10886,14 @@
         <v>9</v>
       </c>
       <c r="E552" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F552" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H552" s="3"/>
     </row>
-    <row r="553" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A553" t="s">
         <v>54</v>
       </c>
@@ -10883,16 +10904,16 @@
         <v>9</v>
       </c>
       <c r="E553" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F553" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H553" s="3"/>
     </row>
-    <row r="554" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A554" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B554">
         <f>0.0660685839024935+0.00641203619387979</f>
@@ -10902,16 +10923,16 @@
         <v>9</v>
       </c>
       <c r="E554" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="F554" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H554" s="3"/>
     </row>
-    <row r="555" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A555" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B555" s="3">
         <f>0.0000496205808723556+4.81573396118271E-06</f>
@@ -10921,14 +10942,14 @@
         <v>9</v>
       </c>
       <c r="E555" t="s">
-        <v>103</v>
+        <v>119</v>
       </c>
       <c r="F555" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H555" s="3"/>
     </row>
-    <row r="556" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A556" t="s">
         <v>57</v>
       </c>
@@ -10939,14 +10960,14 @@
         <v>9</v>
       </c>
       <c r="E556" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F556" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H556" s="3"/>
     </row>
-    <row r="557" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A557" t="s">
         <v>57</v>
       </c>
@@ -10957,14 +10978,14 @@
         <v>9</v>
       </c>
       <c r="E557" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F557" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H557" s="3"/>
     </row>
-    <row r="558" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A558" t="s">
         <v>59</v>
       </c>
@@ -10975,14 +10996,14 @@
         <v>9</v>
       </c>
       <c r="E558" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F558" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H558" s="3"/>
     </row>
-    <row r="559" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A559" t="s">
         <v>59</v>
       </c>
@@ -10993,16 +11014,16 @@
         <v>9</v>
       </c>
       <c r="E559" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F559" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H559" s="3"/>
     </row>
-    <row r="560" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A560" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B560" s="3">
         <v>4.2396949131060127E-7</v>
@@ -11011,16 +11032,16 @@
         <v>9</v>
       </c>
       <c r="E560" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F560" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H560" s="3"/>
     </row>
-    <row r="561" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A561" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B561" s="3">
         <v>4.1146752559714943E-8</v>
@@ -11029,16 +11050,16 @@
         <v>9</v>
       </c>
       <c r="E561" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F561" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H561" s="3"/>
     </row>
-    <row r="562" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A562" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B562" s="3">
         <v>1.4838945395665915E-12</v>
@@ -11047,16 +11068,16 @@
         <v>9</v>
       </c>
       <c r="E562" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F562" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H562" s="3"/>
     </row>
-    <row r="563" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A563" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B563" s="3">
         <v>1.4401328196447244E-13</v>
@@ -11065,16 +11086,16 @@
         <v>9</v>
       </c>
       <c r="E563" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F563" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H563" s="3"/>
     </row>
-    <row r="564" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A564" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B564" s="3">
         <v>4.9290146007471967E-6</v>
@@ -11083,16 +11104,16 @@
         <v>9</v>
       </c>
       <c r="E564" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F564" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H564" s="3"/>
     </row>
-    <row r="565" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A565" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B565" s="3">
         <v>4.7836672595146453E-7</v>
@@ -11101,16 +11122,16 @@
         <v>9</v>
       </c>
       <c r="E565" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F565" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H565" s="3"/>
     </row>
-    <row r="566" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A566" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B566" s="3">
         <v>1.4838945395665916E-9</v>
@@ -11119,16 +11140,16 @@
         <v>9</v>
       </c>
       <c r="E566" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F566" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H566" s="3"/>
     </row>
-    <row r="567" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A567" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B567" s="3">
         <v>1.4401328196447246E-10</v>
@@ -11137,16 +11158,16 @@
         <v>9</v>
       </c>
       <c r="E567" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F567" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H567" s="3"/>
     </row>
-    <row r="568" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A568" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B568">
         <v>3.0006653682198702E-4</v>
@@ -11155,16 +11176,16 @@
         <v>9</v>
       </c>
       <c r="E568" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F568" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H568" s="3"/>
     </row>
-    <row r="569" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A569" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B569" s="3">
         <v>2.9121827432823326E-5</v>
@@ -11173,16 +11194,16 @@
         <v>9</v>
       </c>
       <c r="E569" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F569" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H569" s="3"/>
     </row>
-    <row r="570" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A570" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B570" s="3">
         <v>3.8963858482936672E-6</v>
@@ -11191,16 +11212,16 @@
         <v>9</v>
       </c>
       <c r="E570" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F570" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H570" s="3"/>
     </row>
-    <row r="571" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A571" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B571" s="3">
         <v>3.7814860338919342E-7</v>
@@ -11209,16 +11230,16 @@
         <v>9</v>
       </c>
       <c r="E571" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F571" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H571" s="3"/>
     </row>
-    <row r="572" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A572" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B572" s="3">
         <v>2.1198518564846293E-10</v>
@@ -11227,16 +11248,16 @@
         <v>9</v>
       </c>
       <c r="E572" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F572" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H572" s="3"/>
     </row>
-    <row r="573" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A573" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B573" s="3">
         <v>2.0573376279857471E-11</v>
@@ -11245,16 +11266,16 @@
         <v>9</v>
       </c>
       <c r="E573" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F573" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H573" s="3"/>
     </row>
-    <row r="574" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A574" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B574" s="3">
         <v>1.7806699275346112E-5</v>
@@ -11263,16 +11284,16 @@
         <v>9</v>
       </c>
       <c r="E574" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F574" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H574" s="3"/>
     </row>
-    <row r="575" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A575" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B575" s="3">
         <v>1.7281611435463185E-6</v>
@@ -11281,52 +11302,52 @@
         <v>9</v>
       </c>
       <c r="E575" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F575" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H575" s="3"/>
     </row>
-    <row r="576" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:8" hidden="1" x14ac:dyDescent="0.2">
       <c r="A576" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B576" s="3">
         <v>1.6219731937580282E-7</v>
       </c>
       <c r="D576" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E576" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F576" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H576" s="3"/>
     </row>
-    <row r="577" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A577" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B577" s="3">
         <v>1.574145937016555E-8</v>
       </c>
       <c r="D577" s="2" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E577" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F577" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H577" s="3"/>
     </row>
-    <row r="578" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A578" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B578" s="3">
         <v>2.1198518564846295E-7</v>
@@ -11335,16 +11356,16 @@
         <v>9</v>
       </c>
       <c r="E578" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F578" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H578" s="3"/>
     </row>
-    <row r="579" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A579" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B579" s="3">
         <v>2.0573376279857471E-8</v>
@@ -11353,19 +11374,20 @@
         <v>9</v>
       </c>
       <c r="E579" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F579" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H579" s="3"/>
     </row>
-    <row r="581" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="581" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A581" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B581" s="1" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C581" s="2"/>
       <c r="D581" s="2"/>
@@ -11374,7 +11396,7 @@
       <c r="G581" s="2"/>
       <c r="H581" s="2"/>
     </row>
-    <row r="582" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A582" s="2" t="s">
         <v>3</v>
       </c>
@@ -11392,7 +11414,7 @@
       <c r="K582" s="2"/>
       <c r="L582" s="2"/>
     </row>
-    <row r="583" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A583" s="2" t="s">
         <v>4</v>
       </c>
@@ -11410,7 +11432,7 @@
       <c r="K583" s="2"/>
       <c r="L583" s="2"/>
     </row>
-    <row r="584" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A584" s="2" t="s">
         <v>5</v>
       </c>
@@ -11426,7 +11448,7 @@
       <c r="I584" s="2"/>
       <c r="J584" s="2"/>
     </row>
-    <row r="585" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A585" s="2" t="s">
         <v>6</v>
       </c>
@@ -11444,7 +11466,7 @@
       <c r="K585" s="2"/>
       <c r="L585" s="2"/>
     </row>
-    <row r="586" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A586" s="2" t="s">
         <v>8</v>
       </c>
@@ -11462,7 +11484,7 @@
       <c r="K586" s="2"/>
       <c r="L586" s="2"/>
     </row>
-    <row r="587" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A587" s="1" t="s">
         <v>10</v>
       </c>
@@ -11478,7 +11500,7 @@
       <c r="K587" s="2"/>
       <c r="L587" s="2"/>
     </row>
-    <row r="588" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A588" s="2" t="s">
         <v>11</v>
       </c>
@@ -11505,7 +11527,7 @@
       <c r="J588" s="2"/>
       <c r="K588" s="2"/>
     </row>
-    <row r="589" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A589" s="2" t="str">
         <f>B581</f>
         <v>heavy fuel oil, burned in container ship</v>
@@ -11535,9 +11557,9 @@
       <c r="K589" s="2"/>
       <c r="L589" s="2"/>
     </row>
-    <row r="590" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A590" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B590">
         <f>1/39</f>
@@ -11553,10 +11575,10 @@
         <v>23</v>
       </c>
       <c r="G590" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="591" spans="1:12" x14ac:dyDescent="0.2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="591" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A591" t="s">
         <v>50</v>
       </c>
@@ -11567,16 +11589,16 @@
         <v>9</v>
       </c>
       <c r="E591" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F591" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H591" s="3"/>
     </row>
-    <row r="592" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A592" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="B592" s="3">
         <v>9.6449727337009339E-9</v>
@@ -11585,14 +11607,14 @@
         <v>9</v>
       </c>
       <c r="E592" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F592" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H592" s="3"/>
     </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A593" t="s">
         <v>54</v>
       </c>
@@ -11603,14 +11625,14 @@
         <v>9</v>
       </c>
       <c r="E593" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F593" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H593" s="3"/>
     </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A594" t="s">
         <v>55</v>
       </c>
@@ -11621,14 +11643,14 @@
         <v>9</v>
       </c>
       <c r="E594" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F594" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H594" s="3"/>
     </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A595" t="s">
         <v>56</v>
       </c>
@@ -11639,7 +11661,7 @@
         <v>9</v>
       </c>
       <c r="E595" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F595" s="2" t="s">
         <v>15</v>
@@ -11647,7 +11669,7 @@
       <c r="H595" s="3"/>
       <c r="K595" s="3"/>
     </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A596" t="s">
         <v>57</v>
       </c>
@@ -11658,7 +11680,7 @@
         <v>9</v>
       </c>
       <c r="E596" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F596" s="2" t="s">
         <v>15</v>
@@ -11666,7 +11688,7 @@
       <c r="H596" s="3"/>
       <c r="K596" s="3"/>
     </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A597" t="s">
         <v>59</v>
       </c>
@@ -11677,7 +11699,7 @@
         <v>9</v>
       </c>
       <c r="E597" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F597" s="2" t="s">
         <v>15</v>
@@ -11685,9 +11707,9 @@
       <c r="H597" s="3"/>
       <c r="K597" s="3"/>
     </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A598" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B598" s="3">
         <v>4.0793809536092252E-6</v>
@@ -11696,7 +11718,7 @@
         <v>9</v>
       </c>
       <c r="E598" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F598" s="2" t="s">
         <v>15</v>
@@ -11704,9 +11726,9 @@
       <c r="H598" s="3"/>
       <c r="K598" s="3"/>
     </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A599" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B599" s="3">
         <v>2.5641066388993793E-14</v>
@@ -11715,16 +11737,16 @@
         <v>9</v>
       </c>
       <c r="E599" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F599" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H599" s="3"/>
     </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A600" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B600" s="3">
         <v>1.4988121356087533E-6</v>
@@ -11733,16 +11755,16 @@
         <v>9</v>
       </c>
       <c r="E600" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F600" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H600" s="3"/>
     </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A601" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B601" s="3">
         <v>1.4988121356087536E-7</v>
@@ -11751,16 +11773,16 @@
         <v>9</v>
       </c>
       <c r="E601" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F601" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H601" s="3"/>
     </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A602" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B602" s="3">
         <v>4.4181493731679086E-9</v>
@@ -11769,16 +11791,16 @@
         <v>9</v>
       </c>
       <c r="E602" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F602" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H602" s="3"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A603" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B603" s="3">
         <v>7.2386626011604185E-10</v>
@@ -11787,16 +11809,16 @@
         <v>9</v>
       </c>
       <c r="E603" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F603" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H603" s="3"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A604" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B604" s="3">
         <v>1.3879471014768287E-6</v>
@@ -11805,16 +11827,16 @@
         <v>9</v>
       </c>
       <c r="E604" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F604" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H604" s="3"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A605" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B605" s="3">
         <v>6.9408357025220894E-5</v>
@@ -11823,16 +11845,16 @@
         <v>9</v>
       </c>
       <c r="E605" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F605" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H605" s="3"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A606" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B606" s="3">
         <v>5.5818502193524422E-7</v>
@@ -11841,16 +11863,16 @@
         <v>9</v>
       </c>
       <c r="E606" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F606" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H606" s="3"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A607" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B607">
         <v>1.9128828001645137E-3</v>
@@ -11859,16 +11881,16 @@
         <v>9</v>
       </c>
       <c r="E607" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F607" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H607" s="3"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:11" hidden="1" x14ac:dyDescent="0.2">
       <c r="A608" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B608" s="3">
         <v>5.12820309080674E-8</v>
@@ -11877,16 +11899,16 @@
         <v>9</v>
       </c>
       <c r="E608" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F608" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H608" s="3"/>
     </row>
-    <row r="609" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A609" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B609" s="3">
         <v>4.4996554963039493E-5</v>
@@ -11895,16 +11917,16 @@
         <v>9</v>
       </c>
       <c r="E609" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F609" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H609" s="3"/>
     </row>
-    <row r="610" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A610" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B610" s="3">
         <v>6.428083646287935E-5</v>
@@ -11913,16 +11935,16 @@
         <v>9</v>
       </c>
       <c r="E610" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F610" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H610" s="3"/>
     </row>
-    <row r="611" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A611" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B611" s="3">
         <v>5.1424648796319438E-5</v>
@@ -11931,16 +11953,16 @@
         <v>9</v>
       </c>
       <c r="E611" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F611" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H611" s="3"/>
     </row>
-    <row r="612" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A612" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B612" s="3">
         <v>8.8362885593437998E-9</v>
@@ -11949,16 +11971,16 @@
         <v>9</v>
       </c>
       <c r="E612" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F612" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H612" s="3"/>
     </row>
-    <row r="613" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A613" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B613">
         <v>1.1659114234524397E-3</v>
@@ -11967,16 +11989,16 @@
         <v>9</v>
       </c>
       <c r="E613" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F613" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H613" s="3"/>
     </row>
-    <row r="614" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A614" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B614" s="3">
         <v>2.0260399075004886E-8</v>
@@ -11985,14 +12007,14 @@
         <v>9</v>
       </c>
       <c r="E614" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="F614" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H614" s="3"/>
     </row>
-    <row r="615" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A615" t="s">
         <v>59</v>
       </c>
@@ -12003,16 +12025,16 @@
         <v>9</v>
       </c>
       <c r="E615" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F615" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H615" s="3"/>
     </row>
-    <row r="616" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A616" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B616" s="3">
         <v>1.5836494051346807E-10</v>
@@ -12021,16 +12043,16 @@
         <v>9</v>
       </c>
       <c r="E616" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F616" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H616" s="3"/>
     </row>
-    <row r="617" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A617" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B617" s="3">
         <v>4.5524750499172942E-7</v>
@@ -12039,16 +12061,16 @@
         <v>9</v>
       </c>
       <c r="E617" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F617" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H617" s="3"/>
     </row>
-    <row r="618" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A618" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B618" s="3">
         <v>2.6394088838964563E-11</v>
@@ -12057,16 +12079,16 @@
         <v>9</v>
       </c>
       <c r="E618" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F618" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H618" s="3"/>
     </row>
-    <row r="619" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A619" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B619" s="3">
         <v>2.4156210432449703E-10</v>
@@ -12075,19 +12097,21 @@
         <v>9</v>
       </c>
       <c r="E619" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F619" s="2" t="s">
         <v>15</v>
       </c>
       <c r="H619" s="3"/>
     </row>
-    <row r="622" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="621" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="622" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A622" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B622" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C622" s="2"/>
       <c r="D622" s="2"/>
@@ -12096,7 +12120,7 @@
       <c r="G622" s="2"/>
       <c r="H622" s="2"/>
     </row>
-    <row r="623" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A623" s="2" t="s">
         <v>3</v>
       </c>
@@ -12114,7 +12138,7 @@
       <c r="K623" s="2"/>
       <c r="L623" s="2"/>
     </row>
-    <row r="624" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A624" s="2" t="s">
         <v>4</v>
       </c>
@@ -12132,7 +12156,7 @@
       <c r="K624" s="2"/>
       <c r="L624" s="2"/>
     </row>
-    <row r="625" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A625" s="2" t="s">
         <v>5</v>
       </c>
@@ -12148,7 +12172,7 @@
       <c r="I625" s="2"/>
       <c r="J625" s="2"/>
     </row>
-    <row r="626" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A626" s="2" t="s">
         <v>6</v>
       </c>
@@ -12166,7 +12190,7 @@
       <c r="K626" s="2"/>
       <c r="L626" s="2"/>
     </row>
-    <row r="627" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A627" s="2" t="s">
         <v>8</v>
       </c>
@@ -12184,7 +12208,7 @@
       <c r="K627" s="2"/>
       <c r="L627" s="2"/>
     </row>
-    <row r="628" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A628" s="1" t="s">
         <v>10</v>
       </c>
@@ -12200,7 +12224,7 @@
       <c r="K628" s="2"/>
       <c r="L628" s="2"/>
     </row>
-    <row r="629" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A629" s="2" t="s">
         <v>11</v>
       </c>
@@ -12227,7 +12251,7 @@
       <c r="J629" s="2"/>
       <c r="K629" s="2"/>
     </row>
-    <row r="630" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A630" s="2" t="str">
         <f>B622</f>
         <v>methanol from biomass, burned in container ship</v>
@@ -12257,15 +12281,15 @@
       <c r="K630" s="2"/>
       <c r="L630" s="2"/>
     </row>
-    <row r="631" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A631" t="s">
-        <v>133</v>
+        <v>162</v>
       </c>
       <c r="B631" s="10">
         <v>5.5555555555555601E-2</v>
       </c>
       <c r="C631" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D631" t="s">
         <v>9</v>
@@ -12274,31 +12298,31 @@
         <v>23</v>
       </c>
       <c r="G631" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="632" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="632" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A632" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B632" s="9">
         <f>0.0625/1000</f>
         <v>6.2500000000000001E-5</v>
       </c>
       <c r="D632" s="4" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E632" s="4" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F632" s="4" t="s">
         <v>15</v>
       </c>
       <c r="L632" s="6"/>
     </row>
-    <row r="633" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A633" s="4" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B633" s="9">
         <v>7.6222222222222233E-2</v>
@@ -12314,9 +12338,9 @@
       </c>
       <c r="L633" s="6"/>
     </row>
-    <row r="634" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A634" s="4" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B634" s="9">
         <v>9.0000000000000002E-6</v>
@@ -12331,9 +12355,9 @@
         <v>15</v>
       </c>
     </row>
-    <row r="635" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A635" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B635" s="9">
         <v>6.8750000000000002E-6</v>
@@ -12349,9 +12373,9 @@
       </c>
       <c r="L635" s="6"/>
     </row>
-    <row r="636" spans="1:12" s="4" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:12" s="4" customFormat="1" hidden="1" x14ac:dyDescent="0.2">
       <c r="A636" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B636" s="9">
         <v>1.2499999999999999E-7</v>
@@ -12367,12 +12391,14 @@
       </c>
       <c r="L636" s="6"/>
     </row>
-    <row r="639" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="638" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="639" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A639" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B639" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C639" s="2"/>
       <c r="D639" s="2"/>
@@ -12381,7 +12407,7 @@
       <c r="G639" s="2"/>
       <c r="H639" s="2"/>
     </row>
-    <row r="640" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A640" s="2" t="s">
         <v>3</v>
       </c>
@@ -12399,7 +12425,7 @@
       <c r="K640" s="2"/>
       <c r="L640" s="2"/>
     </row>
-    <row r="641" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A641" s="2" t="s">
         <v>4</v>
       </c>
@@ -12417,7 +12443,7 @@
       <c r="K641" s="2"/>
       <c r="L641" s="2"/>
     </row>
-    <row r="642" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A642" s="2" t="s">
         <v>5</v>
       </c>
@@ -12433,7 +12459,7 @@
       <c r="I642" s="2"/>
       <c r="J642" s="2"/>
     </row>
-    <row r="643" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A643" s="2" t="s">
         <v>6</v>
       </c>
@@ -12451,7 +12477,7 @@
       <c r="K643" s="2"/>
       <c r="L643" s="2"/>
     </row>
-    <row r="644" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A644" s="2" t="s">
         <v>8</v>
       </c>
@@ -12469,7 +12495,7 @@
       <c r="K644" s="2"/>
       <c r="L644" s="2"/>
     </row>
-    <row r="645" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A645" s="1" t="s">
         <v>10</v>
       </c>
@@ -12485,7 +12511,7 @@
       <c r="K645" s="2"/>
       <c r="L645" s="2"/>
     </row>
-    <row r="646" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A646" s="2" t="s">
         <v>11</v>
       </c>
@@ -12512,7 +12538,7 @@
       <c r="J646" s="2"/>
       <c r="K646" s="2"/>
     </row>
-    <row r="647" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A647" s="2" t="str">
         <f>B639</f>
         <v>diesel, burned in passenger train</v>
@@ -12542,9 +12568,9 @@
       <c r="K647" s="2"/>
       <c r="L647" s="2"/>
     </row>
-    <row r="648" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A648" s="2" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="B648" s="11">
         <f>1/43</f>
@@ -12560,10 +12586,10 @@
         <v>23</v>
       </c>
       <c r="G648" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="649" spans="1:12" x14ac:dyDescent="0.2">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="649" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A649" t="s">
         <v>50</v>
       </c>
@@ -12574,7 +12600,7 @@
         <v>9</v>
       </c>
       <c r="E649" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F649" s="2" t="s">
         <v>15</v>
@@ -12582,7 +12608,7 @@
       <c r="H649" s="3"/>
       <c r="I649" s="3"/>
     </row>
-    <row r="650" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A650" t="s">
         <v>52</v>
       </c>
@@ -12593,7 +12619,7 @@
         <v>9</v>
       </c>
       <c r="E650" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F650" s="2" t="s">
         <v>15</v>
@@ -12601,7 +12627,7 @@
       <c r="H650" s="3"/>
       <c r="I650" s="3"/>
     </row>
-    <row r="651" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A651" t="s">
         <v>54</v>
       </c>
@@ -12612,14 +12638,14 @@
         <v>9</v>
       </c>
       <c r="E651" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F651" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I651" s="3"/>
     </row>
-    <row r="652" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A652" t="s">
         <v>55</v>
       </c>
@@ -12630,14 +12656,14 @@
         <v>9</v>
       </c>
       <c r="E652" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F652" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I652" s="3"/>
     </row>
-    <row r="653" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A653" t="s">
         <v>56</v>
       </c>
@@ -12648,14 +12674,14 @@
         <v>9</v>
       </c>
       <c r="E653" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F653" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I653" s="3"/>
     </row>
-    <row r="654" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A654" t="s">
         <v>57</v>
       </c>
@@ -12666,14 +12692,14 @@
         <v>9</v>
       </c>
       <c r="E654" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F654" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I654" s="3"/>
     </row>
-    <row r="655" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A655" t="s">
         <v>59</v>
       </c>
@@ -12684,16 +12710,16 @@
         <v>9</v>
       </c>
       <c r="E655" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F655" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I655" s="3"/>
     </row>
-    <row r="656" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A656" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B656" s="3">
         <v>2.3255813953488372E-6</v>
@@ -12702,16 +12728,16 @@
         <v>9</v>
       </c>
       <c r="E656" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F656" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I656" s="3"/>
     </row>
-    <row r="657" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A657" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="B657" s="3">
         <v>2.5429254509889156E-12</v>
@@ -12720,16 +12746,16 @@
         <v>9</v>
       </c>
       <c r="E657" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F657" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I657" s="3"/>
     </row>
-    <row r="658" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A658" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B658" s="3">
         <v>4.651162790697675E-13</v>
@@ -12738,16 +12764,16 @@
         <v>9</v>
       </c>
       <c r="E658" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F658" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I658" s="3"/>
     </row>
-    <row r="659" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A659" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B659" s="3">
         <v>3.0210823733970879E-6</v>
@@ -12756,16 +12782,16 @@
         <v>9</v>
       </c>
       <c r="E659" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F659" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I659" s="3"/>
     </row>
-    <row r="660" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A660" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B660" s="3">
         <v>1.1758313410128234E-4</v>
@@ -12774,16 +12800,16 @@
         <v>9</v>
       </c>
       <c r="E660" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F660" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I660" s="3"/>
     </row>
-    <row r="661" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A661" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B661" s="3">
         <v>1.6235600956313845E-9</v>
@@ -12792,16 +12818,16 @@
         <v>9</v>
       </c>
       <c r="E661" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F661" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I661" s="3"/>
     </row>
-    <row r="662" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A662" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B662">
         <v>1.2758096066072594E-3</v>
@@ -12810,16 +12836,16 @@
         <v>9</v>
       </c>
       <c r="E662" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F662" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I662" s="3"/>
     </row>
-    <row r="663" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A663" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B663" s="3">
         <v>2.9836991958269943E-5</v>
@@ -12828,16 +12854,16 @@
         <v>9</v>
       </c>
       <c r="E663" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F663" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I663" s="3"/>
     </row>
-    <row r="664" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A664" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B664" s="3">
         <v>3.5524885894370795E-5</v>
@@ -12846,16 +12872,16 @@
         <v>9</v>
       </c>
       <c r="E664" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F664" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I664" s="3"/>
     </row>
-    <row r="665" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A665" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B665" s="3">
         <v>1.6163877417952619E-5</v>
@@ -12864,16 +12890,16 @@
         <v>9</v>
       </c>
       <c r="E665" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F665" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I665" s="3"/>
     </row>
-    <row r="666" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A666" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B666" s="3">
         <v>2.3255813953488374E-10</v>
@@ -12882,16 +12908,16 @@
         <v>9</v>
       </c>
       <c r="E666" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F666" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I666" s="3"/>
     </row>
-    <row r="667" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A667" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B667" s="3">
         <v>1.3931753966529016E-5</v>
@@ -12900,16 +12926,16 @@
         <v>9</v>
       </c>
       <c r="E667" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F667" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I667" s="3"/>
     </row>
-    <row r="668" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A668" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B668" s="3">
         <v>9.2805911758313421E-7</v>
@@ -12918,16 +12944,16 @@
         <v>9</v>
       </c>
       <c r="E668" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F668" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I668" s="3"/>
     </row>
-    <row r="669" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A669" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="B669" s="3">
         <v>9.2805911758313421E-7</v>
@@ -12936,16 +12962,16 @@
         <v>9</v>
       </c>
       <c r="E669" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F669" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I669" s="3"/>
     </row>
-    <row r="670" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A670" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B670" s="3">
         <v>2.3255813953488372E-8</v>
@@ -12954,16 +12980,16 @@
         <v>9</v>
       </c>
       <c r="E670" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F670" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I670" s="3"/>
     </row>
-    <row r="671" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
       <c r="A671" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="B671" s="3">
         <v>1.3084112149532712E-4</v>
@@ -12972,19 +12998,20 @@
         <v>9</v>
       </c>
       <c r="E671" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F671" s="2" t="s">
         <v>15</v>
       </c>
       <c r="I671" s="3"/>
     </row>
-    <row r="673" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:9" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="673" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A673" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B673" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="C673" s="2"/>
       <c r="D673" s="2"/>
@@ -12993,7 +13020,7 @@
       <c r="G673" s="2"/>
       <c r="H673" s="2"/>
     </row>
-    <row r="674" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A674" s="2" t="s">
         <v>3</v>
       </c>
@@ -13011,7 +13038,7 @@
       <c r="K674" s="2"/>
       <c r="L674" s="2"/>
     </row>
-    <row r="675" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A675" s="2" t="s">
         <v>4</v>
       </c>
@@ -13029,12 +13056,12 @@
       <c r="K675" s="2"/>
       <c r="L675" s="2"/>
     </row>
-    <row r="676" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A676" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B676" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C676" s="2"/>
       <c r="D676" s="2"/>
@@ -13045,7 +13072,7 @@
       <c r="I676" s="2"/>
       <c r="J676" s="2"/>
     </row>
-    <row r="677" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A677" s="2" t="s">
         <v>6</v>
       </c>
@@ -13063,12 +13090,12 @@
       <c r="K677" s="2"/>
       <c r="L677" s="2"/>
     </row>
-    <row r="678" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A678" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B678" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C678" s="2"/>
       <c r="D678" s="2"/>
@@ -13081,7 +13108,7 @@
       <c r="K678" s="2"/>
       <c r="L678" s="2"/>
     </row>
-    <row r="679" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A679" s="1" t="s">
         <v>10</v>
       </c>
@@ -13097,7 +13124,7 @@
       <c r="K679" s="2"/>
       <c r="L679" s="2"/>
     </row>
-    <row r="680" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A680" s="2" t="s">
         <v>11</v>
       </c>
@@ -13124,7 +13151,7 @@
       <c r="J680" s="2"/>
       <c r="K680" s="2"/>
     </row>
-    <row r="681" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A681" s="2" t="str">
         <f>B673</f>
         <v>electricity, used in passenger car</v>
@@ -13154,9 +13181,9 @@
       <c r="K681" s="2"/>
       <c r="L681" s="2"/>
     </row>
-    <row r="682" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A682" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B682">
         <f>1</f>
@@ -13166,25 +13193,25 @@
         <v>18</v>
       </c>
       <c r="D682" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F682" t="s">
         <v>23</v>
       </c>
       <c r="G682" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="683" spans="1:12" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="683" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A683" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B683">
         <f>100/200000/0.2</f>
         <v>2.5000000000000001E-3</v>
       </c>
       <c r="C683" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D683" t="s">
         <v>9</v>
@@ -13193,18 +13220,18 @@
         <v>23</v>
       </c>
       <c r="G683" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="684" spans="1:12" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="684" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A684" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B684" s="3">
         <v>2.5000000000000001E-4</v>
       </c>
       <c r="C684" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D684" t="s">
         <v>9</v>
@@ -13213,19 +13240,19 @@
         <v>23</v>
       </c>
       <c r="G684" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H684" s="3"/>
     </row>
-    <row r="685" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A685" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B685">
         <v>1.0714285714285715E-4</v>
       </c>
       <c r="C685" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D685" t="s">
         <v>9</v>
@@ -13234,16 +13261,18 @@
         <v>23</v>
       </c>
       <c r="G685" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I685" s="12"/>
     </row>
-    <row r="688" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="687" spans="1:12" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="688" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A688" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B688" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="C688" s="2"/>
       <c r="D688" s="2"/>
@@ -13252,7 +13281,7 @@
       <c r="G688" s="2"/>
       <c r="H688" s="2"/>
     </row>
-    <row r="689" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A689" s="2" t="s">
         <v>3</v>
       </c>
@@ -13270,7 +13299,7 @@
       <c r="K689" s="2"/>
       <c r="L689" s="2"/>
     </row>
-    <row r="690" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A690" s="2" t="s">
         <v>4</v>
       </c>
@@ -13288,12 +13317,12 @@
       <c r="K690" s="2"/>
       <c r="L690" s="2"/>
     </row>
-    <row r="691" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A691" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B691" s="2" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="C691" s="2"/>
       <c r="D691" s="2"/>
@@ -13304,7 +13333,7 @@
       <c r="I691" s="2"/>
       <c r="J691" s="2"/>
     </row>
-    <row r="692" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A692" s="2" t="s">
         <v>6</v>
       </c>
@@ -13322,12 +13351,12 @@
       <c r="K692" s="2"/>
       <c r="L692" s="2"/>
     </row>
-    <row r="693" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A693" s="2" t="s">
         <v>8</v>
       </c>
       <c r="B693" s="2" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="C693" s="2"/>
       <c r="D693" s="2"/>
@@ -13340,7 +13369,7 @@
       <c r="K693" s="2"/>
       <c r="L693" s="2"/>
     </row>
-    <row r="694" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A694" s="1" t="s">
         <v>10</v>
       </c>
@@ -13356,7 +13385,7 @@
       <c r="K694" s="2"/>
       <c r="L694" s="2"/>
     </row>
-    <row r="695" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A695" s="2" t="s">
         <v>11</v>
       </c>
@@ -13383,7 +13412,7 @@
       <c r="J695" s="2"/>
       <c r="K695" s="2"/>
     </row>
-    <row r="696" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A696" s="2" t="str">
         <f>B688</f>
         <v>electricity, used in heavy-duty vehicle</v>
@@ -13413,9 +13442,9 @@
       <c r="K696" s="2"/>
       <c r="L696" s="2"/>
     </row>
-    <row r="697" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A697" s="2" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="B697">
         <v>1</v>
@@ -13424,25 +13453,25 @@
         <v>18</v>
       </c>
       <c r="D697" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="F697" t="s">
         <v>23</v>
       </c>
       <c r="G697" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="698" spans="1:12" x14ac:dyDescent="0.2">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="698" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A698" s="2" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B698">
         <f>330/1000000/0.2</f>
         <v>1.65E-3</v>
       </c>
       <c r="C698" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D698" t="s">
         <v>9</v>
@@ -13451,18 +13480,18 @@
         <v>23</v>
       </c>
       <c r="G698" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="699" spans="1:12" x14ac:dyDescent="0.2">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="699" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A699" s="2" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B699" s="3">
         <v>2.5000000000000005E-3</v>
       </c>
       <c r="C699" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D699" t="s">
         <v>9</v>
@@ -13471,19 +13500,19 @@
         <v>23</v>
       </c>
       <c r="G699" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="H699" s="3"/>
     </row>
-    <row r="700" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:12" hidden="1" x14ac:dyDescent="0.2">
       <c r="A700" s="2" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B700">
         <v>1.0714285714285717E-3</v>
       </c>
       <c r="C700" s="2" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D700" t="s">
         <v>9</v>
@@ -13492,12 +13521,18 @@
         <v>23</v>
       </c>
       <c r="G700" s="2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="I700" s="12"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:O700" xr:uid="{9F0C42E2-D17A-554B-A2D9-4F73B84316EE}"/>
+  <autoFilter ref="A1:O700" xr:uid="{9F0C42E2-D17A-554B-A2D9-4F73B84316EE}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Cyclohexane (for all cycloalkanes)"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>